--- a/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
@@ -692,7 +692,7 @@
         <v>45</v>
       </c>
       <c r="D2">
-        <v>6078009</v>
+        <v>6671063</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -706,7 +706,7 @@
         <v>46</v>
       </c>
       <c r="D3">
-        <v>946361</v>
+        <v>1015907</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -720,7 +720,7 @@
         <v>46</v>
       </c>
       <c r="D4">
-        <v>830608</v>
+        <v>862443</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -734,7 +734,7 @@
         <v>47</v>
       </c>
       <c r="D5">
-        <v>149323</v>
+        <v>167001</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -748,7 +748,7 @@
         <v>48</v>
       </c>
       <c r="D6">
-        <v>133190</v>
+        <v>142701</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -762,7 +762,7 @@
         <v>45</v>
       </c>
       <c r="D7">
-        <v>113501</v>
+        <v>118642</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -776,7 +776,7 @@
         <v>47</v>
       </c>
       <c r="D8">
-        <v>97959</v>
+        <v>106078</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -790,7 +790,7 @@
         <v>48</v>
       </c>
       <c r="D9">
-        <v>94971</v>
+        <v>100131</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -804,7 +804,7 @@
         <v>45</v>
       </c>
       <c r="D10">
-        <v>93396</v>
+        <v>98841</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -818,7 +818,7 @@
         <v>49</v>
       </c>
       <c r="D11">
-        <v>73787</v>
+        <v>81714</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -832,7 +832,7 @@
         <v>47</v>
       </c>
       <c r="D12">
-        <v>55126</v>
+        <v>58620</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -846,7 +846,7 @@
         <v>50</v>
       </c>
       <c r="D13">
-        <v>50767</v>
+        <v>56768</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -860,7 +860,7 @@
         <v>51</v>
       </c>
       <c r="D14">
-        <v>31435</v>
+        <v>32364</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -874,7 +874,7 @@
         <v>45</v>
       </c>
       <c r="D15">
-        <v>23815</v>
+        <v>24581</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -888,7 +888,7 @@
         <v>50</v>
       </c>
       <c r="D16">
-        <v>22014</v>
+        <v>23368</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -902,7 +902,7 @@
         <v>51</v>
       </c>
       <c r="D17">
-        <v>19665</v>
+        <v>20473</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -916,7 +916,7 @@
         <v>50</v>
       </c>
       <c r="D18">
-        <v>12860</v>
+        <v>14670</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -930,7 +930,7 @@
         <v>52</v>
       </c>
       <c r="D19">
-        <v>5102</v>
+        <v>5434</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -944,7 +944,7 @@
         <v>53</v>
       </c>
       <c r="D20">
-        <v>4116</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -958,7 +958,7 @@
         <v>54</v>
       </c>
       <c r="D21">
-        <v>3981</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -972,7 +972,7 @@
         <v>55</v>
       </c>
       <c r="D22">
-        <v>2871</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -986,7 +986,7 @@
         <v>56</v>
       </c>
       <c r="D23">
-        <v>2284</v>
+        <v>2924</v>
       </c>
     </row>
   </sheetData>
@@ -1030,10 +1030,10 @@
         <v>45</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>51</v>
       </c>
       <c r="D3">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>45</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>45</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1098,10 +1098,10 @@
         <v>47</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E6">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1115,10 +1115,10 @@
         <v>49</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1132,10 +1132,10 @@
         <v>51</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1152,7 +1152,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1183,44 +1183,44 @@
         <v>56</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1431,7 +1431,7 @@
         <v>45</v>
       </c>
       <c r="D2">
-        <v>234959</v>
+        <v>262083</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1445,7 +1445,7 @@
         <v>45</v>
       </c>
       <c r="D3">
-        <v>74442</v>
+        <v>79780</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1459,7 +1459,7 @@
         <v>48</v>
       </c>
       <c r="D4">
-        <v>62367</v>
+        <v>65692</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1473,7 +1473,7 @@
         <v>50</v>
       </c>
       <c r="D5">
-        <v>55545</v>
+        <v>59247</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1487,7 +1487,7 @@
         <v>46</v>
       </c>
       <c r="D6">
-        <v>49815</v>
+        <v>56539</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1501,7 +1501,7 @@
         <v>50</v>
       </c>
       <c r="D7">
-        <v>47745</v>
+        <v>50790</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1515,7 +1515,7 @@
         <v>48</v>
       </c>
       <c r="D8">
-        <v>46865</v>
+        <v>49806</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1529,7 +1529,7 @@
         <v>46</v>
       </c>
       <c r="D9">
-        <v>46093</v>
+        <v>49290</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1543,7 +1543,7 @@
         <v>50</v>
       </c>
       <c r="D10">
-        <v>29142</v>
+        <v>31502</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1557,7 +1557,7 @@
         <v>45</v>
       </c>
       <c r="D11">
-        <v>25106</v>
+        <v>27426</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1571,7 +1571,7 @@
         <v>51</v>
       </c>
       <c r="D12">
-        <v>23736</v>
+        <v>25520</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1585,7 +1585,7 @@
         <v>45</v>
       </c>
       <c r="D13">
-        <v>17686</v>
+        <v>19288</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1599,7 +1599,7 @@
         <v>51</v>
       </c>
       <c r="D14">
-        <v>7259</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1613,35 +1613,35 @@
         <v>52</v>
       </c>
       <c r="D15">
-        <v>2965</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16">
-        <v>2667</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17">
-        <v>2465</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1655,7 +1655,7 @@
         <v>55</v>
       </c>
       <c r="D18">
-        <v>1339</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1669,7 +1669,7 @@
         <v>53</v>
       </c>
       <c r="D19">
-        <v>1017</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1754,7 +1754,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>6078009</v>
+        <v>6671063</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1762,7 +1762,7 @@
         <v>61</v>
       </c>
       <c r="B3">
-        <v>6078009</v>
+        <v>6671063</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>62</v>
       </c>
       <c r="B4">
-        <v>946361</v>
+        <v>1015907</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1778,7 +1778,7 @@
         <v>63</v>
       </c>
       <c r="B5">
-        <v>946361</v>
+        <v>1015907</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1786,7 +1786,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>830608</v>
+        <v>862443</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1794,23 +1794,23 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>180758</v>
+        <v>199365</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B8">
-        <v>153085</v>
+        <v>167001</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>149323</v>
+        <v>164698</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1818,7 +1818,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>133190</v>
+        <v>142701</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>65</v>
       </c>
       <c r="B11">
-        <v>113501</v>
+        <v>118642</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>66</v>
       </c>
       <c r="B12">
-        <v>113501</v>
+        <v>118642</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>67</v>
       </c>
       <c r="B13">
-        <v>94971</v>
+        <v>100131</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>68</v>
       </c>
       <c r="B14">
-        <v>94971</v>
+        <v>100131</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>69</v>
       </c>
       <c r="B15">
-        <v>93396</v>
+        <v>98841</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>70</v>
       </c>
       <c r="B16">
-        <v>93396</v>
+        <v>98841</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>71</v>
       </c>
       <c r="B17">
-        <v>93396</v>
+        <v>98841</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>72</v>
       </c>
       <c r="B18">
-        <v>85641</v>
+        <v>94806</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>73</v>
       </c>
       <c r="B19">
-        <v>85641</v>
+        <v>94806</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>74</v>
       </c>
       <c r="B20">
-        <v>85641</v>
+        <v>94806</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>75</v>
       </c>
       <c r="B21">
-        <v>73787</v>
+        <v>81714</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>76</v>
       </c>
       <c r="B22">
-        <v>73787</v>
+        <v>81714</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>77</v>
       </c>
       <c r="B23">
-        <v>73787</v>
+        <v>81714</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>16</v>
       </c>
       <c r="B24">
-        <v>23815</v>
+        <v>24581</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>78</v>
       </c>
       <c r="B25">
-        <v>19665</v>
+        <v>20473</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>79</v>
       </c>
       <c r="B26">
-        <v>19665</v>
+        <v>20473</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>80</v>
       </c>
       <c r="B27">
-        <v>5102</v>
+        <v>5434</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>81</v>
       </c>
       <c r="B28">
-        <v>5102</v>
+        <v>5434</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>19</v>
       </c>
       <c r="B29">
-        <v>4116</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>82</v>
       </c>
       <c r="B30">
-        <v>3981</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>83</v>
       </c>
       <c r="B31">
-        <v>3981</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>84</v>
       </c>
       <c r="B32">
-        <v>2871</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>85</v>
       </c>
       <c r="B33">
-        <v>2871</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>86</v>
       </c>
       <c r="B34">
-        <v>2871</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>22</v>
       </c>
       <c r="B35">
-        <v>2284</v>
+        <v>2924</v>
       </c>
     </row>
   </sheetData>
@@ -2050,10 +2050,10 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C2">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2061,10 +2061,10 @@
         <v>65</v>
       </c>
       <c r="B3">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C3">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2072,10 +2072,10 @@
         <v>66</v>
       </c>
       <c r="B4">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C4">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2083,10 +2083,10 @@
         <v>69</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C5">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2094,10 +2094,10 @@
         <v>70</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C6">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2105,10 +2105,10 @@
         <v>71</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C7">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2116,10 +2116,10 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2127,10 +2127,10 @@
         <v>61</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2138,10 +2138,10 @@
         <v>64</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2149,10 +2149,10 @@
         <v>75</v>
       </c>
       <c r="B11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2160,10 +2160,10 @@
         <v>76</v>
       </c>
       <c r="B12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2171,10 +2171,10 @@
         <v>77</v>
       </c>
       <c r="B13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2182,10 +2182,10 @@
         <v>78</v>
       </c>
       <c r="B14">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2193,10 +2193,10 @@
         <v>79</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2207,7 +2207,7 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2248,10 +2248,10 @@
         <v>72</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2259,10 +2259,10 @@
         <v>73</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2270,10 +2270,10 @@
         <v>74</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2281,10 +2281,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2445,7 +2445,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>234959</v>
+        <v>262083</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2453,7 +2453,7 @@
         <v>61</v>
       </c>
       <c r="B3">
-        <v>234959</v>
+        <v>262083</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2461,7 +2461,7 @@
         <v>72</v>
       </c>
       <c r="B4">
-        <v>132432</v>
+        <v>141539</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2469,7 +2469,7 @@
         <v>73</v>
       </c>
       <c r="B5">
-        <v>132432</v>
+        <v>141539</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2477,7 +2477,7 @@
         <v>74</v>
       </c>
       <c r="B6">
-        <v>132432</v>
+        <v>141539</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2485,7 +2485,7 @@
         <v>65</v>
       </c>
       <c r="B7">
-        <v>74442</v>
+        <v>79780</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2493,7 +2493,7 @@
         <v>66</v>
       </c>
       <c r="B8">
-        <v>74442</v>
+        <v>79780</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2501,7 +2501,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>62367</v>
+        <v>65692</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2509,7 +2509,7 @@
         <v>62</v>
       </c>
       <c r="B10">
-        <v>49815</v>
+        <v>56539</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2517,7 +2517,7 @@
         <v>63</v>
       </c>
       <c r="B11">
-        <v>49815</v>
+        <v>56539</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2525,7 +2525,7 @@
         <v>67</v>
       </c>
       <c r="B12">
-        <v>46865</v>
+        <v>49806</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2533,7 +2533,7 @@
         <v>68</v>
       </c>
       <c r="B13">
-        <v>46865</v>
+        <v>49806</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2541,7 +2541,7 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>46093</v>
+        <v>49290</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2549,7 +2549,7 @@
         <v>69</v>
       </c>
       <c r="B15">
-        <v>25106</v>
+        <v>27426</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2557,7 +2557,7 @@
         <v>70</v>
       </c>
       <c r="B16">
-        <v>25106</v>
+        <v>27426</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2565,7 +2565,7 @@
         <v>71</v>
       </c>
       <c r="B17">
-        <v>25106</v>
+        <v>27426</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2573,7 +2573,7 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>23736</v>
+        <v>25520</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2581,7 +2581,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>17686</v>
+        <v>19288</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2589,7 +2589,7 @@
         <v>78</v>
       </c>
       <c r="B20">
-        <v>7259</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2597,7 +2597,7 @@
         <v>79</v>
       </c>
       <c r="B21">
-        <v>7259</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2605,7 +2605,7 @@
         <v>80</v>
       </c>
       <c r="B22">
-        <v>2965</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2613,31 +2613,31 @@
         <v>81</v>
       </c>
       <c r="B23">
-        <v>2965</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>2667</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25">
-        <v>2667</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B26">
-        <v>2465</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2645,7 +2645,7 @@
         <v>84</v>
       </c>
       <c r="B27">
-        <v>1339</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2653,7 +2653,7 @@
         <v>85</v>
       </c>
       <c r="B28">
-        <v>1339</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2661,7 +2661,7 @@
         <v>86</v>
       </c>
       <c r="B29">
-        <v>1339</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2669,7 +2669,7 @@
         <v>19</v>
       </c>
       <c r="B30">
-        <v>1017</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2738,7 +2738,7 @@
         <v>45</v>
       </c>
       <c r="B2">
-        <v>6308721</v>
+        <v>6913127</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>46</v>
       </c>
       <c r="B3">
-        <v>1776969</v>
+        <v>1878350</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2754,7 +2754,7 @@
         <v>48</v>
       </c>
       <c r="B4">
-        <v>228161</v>
+        <v>242832</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2762,7 +2762,7 @@
         <v>50</v>
       </c>
       <c r="B5">
-        <v>85641</v>
+        <v>94806</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2770,7 +2770,7 @@
         <v>87</v>
       </c>
       <c r="B6">
-        <v>73787</v>
+        <v>81714</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2778,7 +2778,7 @@
         <v>88</v>
       </c>
       <c r="B7">
-        <v>73787</v>
+        <v>81714</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>51</v>
       </c>
       <c r="B8">
-        <v>51100</v>
+        <v>52837</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>54</v>
       </c>
       <c r="B9">
-        <v>8097</v>
+        <v>8430</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>52</v>
       </c>
       <c r="B10">
-        <v>5102</v>
+        <v>5434</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>89</v>
       </c>
       <c r="B11">
-        <v>4116</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>90</v>
       </c>
       <c r="B12">
-        <v>2871</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>91</v>
       </c>
       <c r="B13">
-        <v>2871</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2834,7 +2834,7 @@
         <v>92</v>
       </c>
       <c r="B14">
-        <v>2284</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2842,7 +2842,7 @@
         <v>93</v>
       </c>
       <c r="B15">
-        <v>2284</v>
+        <v>2924</v>
       </c>
     </row>
   </sheetData>
@@ -2874,10 +2874,10 @@
         <v>45</v>
       </c>
       <c r="B2">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C2">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2885,10 +2885,10 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C3">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2896,10 +2896,10 @@
         <v>87</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2907,10 +2907,10 @@
         <v>88</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2940,10 +2940,10 @@
         <v>50</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2951,10 +2951,10 @@
         <v>92</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2962,10 +2962,10 @@
         <v>93</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3049,7 +3049,7 @@
         <v>45</v>
       </c>
       <c r="B2">
-        <v>352193</v>
+        <v>388577</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3057,7 +3057,7 @@
         <v>50</v>
       </c>
       <c r="B3">
-        <v>132432</v>
+        <v>141539</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3065,7 +3065,7 @@
         <v>48</v>
       </c>
       <c r="B4">
-        <v>109232</v>
+        <v>115498</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3073,7 +3073,7 @@
         <v>46</v>
       </c>
       <c r="B5">
-        <v>95908</v>
+        <v>105829</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3081,7 +3081,7 @@
         <v>51</v>
       </c>
       <c r="B6">
-        <v>30995</v>
+        <v>33752</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3089,7 +3089,7 @@
         <v>54</v>
       </c>
       <c r="B7">
-        <v>3684</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3097,7 +3097,7 @@
         <v>52</v>
       </c>
       <c r="B8">
-        <v>2965</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3105,7 +3105,7 @@
         <v>92</v>
       </c>
       <c r="B9">
-        <v>2465</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3113,7 +3113,7 @@
         <v>93</v>
       </c>
       <c r="B10">
-        <v>2465</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3121,7 +3121,7 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>1339</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3129,7 +3129,7 @@
         <v>91</v>
       </c>
       <c r="B12">
-        <v>1339</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3137,7 +3137,7 @@
         <v>89</v>
       </c>
       <c r="B13">
-        <v>1017</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="14" spans="1:2">

--- a/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="100">
   <si>
     <t>Artist</t>
   </si>
@@ -57,36 +57,42 @@
     <t>insaneintherainmusic</t>
   </si>
   <si>
+    <t>Seth Hills, Vluarr, Lucas Ariel</t>
+  </si>
+  <si>
     <t>The Bloody Beetroots, Teddy Killerz</t>
   </si>
   <si>
-    <t>Seth Hills, Vluarr, Lucas Ariel</t>
-  </si>
-  <si>
     <t>Lost Frequencies, Mathieu Koss, Brooks</t>
   </si>
   <si>
     <t>Chime, Franky Nuts, Oliverse</t>
   </si>
   <si>
+    <t>Citadelle</t>
+  </si>
+  <si>
     <t>RetroVision</t>
   </si>
   <si>
     <t>THYKIER</t>
   </si>
   <si>
+    <t>OVSKY</t>
+  </si>
+  <si>
     <t>Sagan, Heyem &amp; Groozin</t>
   </si>
   <si>
     <t>Dossa &amp; Locuzzed, Anastasia</t>
   </si>
   <si>
+    <t>Showmain, 7en</t>
+  </si>
+  <si>
     <t>FEIVER</t>
   </si>
   <si>
-    <t>Showmain, 7en</t>
-  </si>
-  <si>
     <t>Kamix, WYKO, PJONAX</t>
   </si>
   <si>
@@ -102,7 +108,7 @@
     <t>Red Light</t>
   </si>
   <si>
-    <t>Harder, Better, Faster, Stronger (RetroVision Remix)</t>
+    <t>Harder, Better, Faster, Stronger (RetroVision Flip)</t>
   </si>
   <si>
     <t>Do Better</t>
@@ -114,28 +120,34 @@
     <t>Kass' Theme - Jazz Accordion Arrangement</t>
   </si>
   <si>
+    <t>Calling Out</t>
+  </si>
+  <si>
     <t>Elevate</t>
   </si>
   <si>
-    <t>Calling Out</t>
-  </si>
-  <si>
     <t>Don't Leave Me Now (Brooks Remix)</t>
   </si>
   <si>
+    <t>Let Me Go</t>
+  </si>
+  <si>
     <t>Golden Battle</t>
   </si>
   <si>
-    <t>Let Me Go</t>
+    <t>Out Of My Mind</t>
   </si>
   <si>
     <t>All About U</t>
   </si>
   <si>
+    <t>Wanna Love</t>
+  </si>
+  <si>
     <t>Miss</t>
   </si>
   <si>
-    <t>Wanna Love</t>
+    <t>Missing</t>
   </si>
   <si>
     <t>Dreamer</t>
@@ -147,12 +159,12 @@
     <t>Right Way</t>
   </si>
   <si>
+    <t>Chasing The Sun</t>
+  </si>
+  <si>
     <t>Hold On Me</t>
   </si>
   <si>
-    <t>Chasing The Sun</t>
-  </si>
-  <si>
     <t>Without You</t>
   </si>
   <si>
@@ -180,15 +192,18 @@
     <t>HEXAGON</t>
   </si>
   <si>
+    <t>Time Machine, HEXAGON</t>
+  </si>
+  <si>
     <t>Viper Recordings</t>
   </si>
   <si>
+    <t>Future House Cloud</t>
+  </si>
+  <si>
     <t>Future House Cloud, FHC Selection</t>
   </si>
   <si>
-    <t>Future House Cloud</t>
-  </si>
-  <si>
     <t>Revealed Music, Revealed Radar</t>
   </si>
   <si>
@@ -225,30 +240,30 @@
     <t>OOTORO</t>
   </si>
   <si>
+    <t>Chime</t>
+  </si>
+  <si>
+    <t>Franky Nuts</t>
+  </si>
+  <si>
+    <t>Oliverse</t>
+  </si>
+  <si>
+    <t>Lucas Ariel</t>
+  </si>
+  <si>
+    <t>Seth Hills</t>
+  </si>
+  <si>
+    <t>Vluarr</t>
+  </si>
+  <si>
     <t>Teddy Killerz</t>
   </si>
   <si>
     <t>The Bloody Beetroots</t>
   </si>
   <si>
-    <t>Lucas Ariel</t>
-  </si>
-  <si>
-    <t>Seth Hills</t>
-  </si>
-  <si>
-    <t>Vluarr</t>
-  </si>
-  <si>
-    <t>Chime</t>
-  </si>
-  <si>
-    <t>Franky Nuts</t>
-  </si>
-  <si>
-    <t>Oliverse</t>
-  </si>
-  <si>
     <t>Brooks</t>
   </si>
   <si>
@@ -289,6 +304,9 @@
   </si>
   <si>
     <t>Found Frequencies</t>
+  </si>
+  <si>
+    <t>Time Machine</t>
   </si>
   <si>
     <t>FHC Selection</t>
@@ -661,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -686,13 +704,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>6671063</v>
+        <v>7856655</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -700,13 +718,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>1015907</v>
+        <v>1115593</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -714,13 +732,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>862443</v>
+        <v>902815</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -728,13 +746,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>167001</v>
+        <v>188406</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -742,13 +760,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>142701</v>
+        <v>158743</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -756,13 +774,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>118642</v>
+        <v>127653</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -770,13 +788,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>106078</v>
+        <v>118779</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -784,13 +802,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>100131</v>
+        <v>110933</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -798,13 +816,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>98841</v>
+        <v>107412</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -812,41 +830,41 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>81714</v>
+        <v>92319</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>58620</v>
+        <v>67455</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13">
-        <v>56768</v>
+        <v>63167</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -854,13 +872,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>32364</v>
+        <v>57863</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -868,13 +886,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D15">
-        <v>24581</v>
+        <v>33846</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -882,13 +900,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>23368</v>
+        <v>26086</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -896,55 +914,55 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>20473</v>
+        <v>25934</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D18">
-        <v>14670</v>
+        <v>22040</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>5434</v>
+        <v>21705</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20">
-        <v>4234</v>
+        <v>17496</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -952,13 +970,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D21">
-        <v>4196</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -966,13 +984,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D22">
-        <v>3238</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -980,13 +998,41 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D23">
-        <v>2924</v>
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25">
+        <v>3703</v>
       </c>
     </row>
   </sheetData>
@@ -996,7 +1042,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1013,10 +1059,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1024,50 +1070,50 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E2">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D3">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E4">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1075,16 +1121,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1092,16 +1138,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E6">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1109,118 +1155,118 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>34</v>
       </c>
       <c r="E8">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1228,33 +1274,33 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1262,78 +1308,78 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>54</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1347,10 +1393,10 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1361,13 +1407,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1378,18 +1424,52 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>0</v>
       </c>
     </row>
@@ -1400,7 +1480,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1417,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1425,13 +1505,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>262083</v>
+        <v>304869</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1439,13 +1519,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>79780</v>
+        <v>88331</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1453,13 +1533,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>65692</v>
+        <v>69900</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1467,13 +1547,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>59247</v>
+        <v>64505</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1481,13 +1561,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>56539</v>
+        <v>64387</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1495,27 +1575,27 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>50790</v>
+        <v>55020</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>49806</v>
+        <v>53692</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1523,13 +1603,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>49290</v>
+        <v>52531</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1537,97 +1617,97 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>31502</v>
+        <v>34790</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D11">
-        <v>27426</v>
+        <v>30924</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D12">
-        <v>25520</v>
+        <v>28840</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D13">
-        <v>19288</v>
+        <v>21808</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>8232</v>
+        <v>17282</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D15">
-        <v>3254</v>
+        <v>9459</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>56</v>
       </c>
       <c r="D16">
-        <v>2919</v>
+        <v>8361</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1635,80 +1715,80 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D17">
-        <v>2810</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D18">
-        <v>1434</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D19">
-        <v>1053</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1719,12 +1799,40 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25">
         <v>0</v>
       </c>
     </row>
@@ -1735,7 +1843,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1751,34 +1859,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B2">
-        <v>6671063</v>
+        <v>7856655</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B3">
-        <v>6671063</v>
+        <v>7856655</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B4">
-        <v>1015907</v>
+        <v>1115593</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B5">
-        <v>1015907</v>
+        <v>1115593</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1786,23 +1894,23 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>862443</v>
+        <v>902815</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>199365</v>
+        <v>222252</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B8">
-        <v>167001</v>
+        <v>188406</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1810,7 +1918,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>164698</v>
+        <v>181946</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1818,207 +1926,223 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>142701</v>
+        <v>158743</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B11">
-        <v>118642</v>
+        <v>127653</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B12">
-        <v>118642</v>
+        <v>127653</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B13">
-        <v>100131</v>
+        <v>111037</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B14">
-        <v>100131</v>
+        <v>111037</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B15">
-        <v>98841</v>
+        <v>111037</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B16">
-        <v>98841</v>
+        <v>110933</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B17">
-        <v>98841</v>
+        <v>110933</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B18">
-        <v>94806</v>
+        <v>110933</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B19">
-        <v>94806</v>
+        <v>107412</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B20">
-        <v>94806</v>
+        <v>107412</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B21">
-        <v>81714</v>
+        <v>92319</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B22">
-        <v>81714</v>
+        <v>92319</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B23">
-        <v>81714</v>
+        <v>92319</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>24581</v>
+        <v>57863</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <v>20473</v>
+        <v>25934</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>20473</v>
+        <v>22040</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B27">
-        <v>5434</v>
+        <v>21705</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B28">
-        <v>5434</v>
+        <v>21705</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B29">
-        <v>4234</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B30">
-        <v>4196</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B31">
-        <v>4196</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B32">
-        <v>3238</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B33">
-        <v>3238</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B34">
-        <v>3238</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B35">
-        <v>2924</v>
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <v>3703</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2152,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2039,224 +2163,224 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C2">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B3">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C3">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B4">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C4">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C6">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C7">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C10">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B14">
         <v>34</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B15">
         <v>34</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -2267,7 +2391,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -2278,95 +2402,95 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2377,7 +2501,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2388,7 +2512,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2399,7 +2523,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2410,12 +2534,34 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>0</v>
       </c>
     </row>
@@ -2426,7 +2572,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2437,23 +2583,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B2">
-        <v>262083</v>
+        <v>304869</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B3">
-        <v>262083</v>
+        <v>304869</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2461,7 +2607,7 @@
         <v>72</v>
       </c>
       <c r="B4">
-        <v>141539</v>
+        <v>154315</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2469,7 +2615,7 @@
         <v>73</v>
       </c>
       <c r="B5">
-        <v>141539</v>
+        <v>154315</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2477,23 +2623,23 @@
         <v>74</v>
       </c>
       <c r="B6">
-        <v>141539</v>
+        <v>154315</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B7">
-        <v>79780</v>
+        <v>88331</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B8">
-        <v>79780</v>
+        <v>88331</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2501,39 +2647,39 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>65692</v>
+        <v>69900</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B10">
-        <v>56539</v>
+        <v>64387</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B11">
-        <v>56539</v>
+        <v>64387</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B12">
-        <v>49806</v>
+        <v>53692</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B13">
-        <v>49806</v>
+        <v>53692</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2541,156 +2687,156 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>49290</v>
+        <v>52531</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B15">
-        <v>27426</v>
+        <v>30924</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B16">
-        <v>27426</v>
+        <v>30924</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B17">
-        <v>27426</v>
+        <v>30924</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>25520</v>
+        <v>28840</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>19288</v>
+        <v>21808</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>8232</v>
+        <v>17282</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B21">
-        <v>8232</v>
+        <v>9459</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B22">
-        <v>3254</v>
+        <v>9459</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>3254</v>
+        <v>8361</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="B24">
-        <v>2919</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B25">
-        <v>2810</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>2810</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B27">
-        <v>1434</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B28">
-        <v>1434</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B29">
-        <v>1434</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="B30">
-        <v>1053</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2698,7 +2844,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2706,9 +2852,25 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B35">
+      <c r="B37">
         <v>0</v>
       </c>
     </row>
@@ -2719,7 +2881,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2735,114 +2897,122 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B2">
-        <v>6913127</v>
+        <v>8179038</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B3">
-        <v>1878350</v>
+        <v>2018408</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <v>242832</v>
+        <v>266155</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B5">
-        <v>94806</v>
+        <v>111037</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B6">
-        <v>81714</v>
+        <v>92319</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B7">
-        <v>81714</v>
+        <v>92319</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8">
-        <v>52837</v>
+        <v>77591</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B9">
-        <v>8430</v>
+        <v>22040</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B10">
-        <v>5434</v>
+        <v>8961</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B11">
-        <v>4234</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B12">
-        <v>3238</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B13">
-        <v>3238</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B14">
-        <v>2924</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B15">
-        <v>2924</v>
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16">
+        <v>3703</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +3022,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2863,81 +3033,81 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B2">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="C2">
-        <v>283</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B3">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C3">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -2948,18 +3118,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -2970,13 +3140,13 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2984,26 +3154,26 @@
         <v>52</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3014,12 +3184,23 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>0</v>
       </c>
     </row>
@@ -3030,7 +3211,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3041,118 +3222,126 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B2">
-        <v>388577</v>
+        <v>463214</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B3">
-        <v>141539</v>
+        <v>154315</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <v>115498</v>
+        <v>123592</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B5">
-        <v>105829</v>
+        <v>116918</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B6">
-        <v>33752</v>
+        <v>46660</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B7">
-        <v>3863</v>
+        <v>8361</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B8">
-        <v>3254</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="B9">
-        <v>2919</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B10">
-        <v>2919</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B11">
-        <v>1434</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B12">
-        <v>1434</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B13">
-        <v>1053</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16">
         <v>0</v>
       </c>
     </row>

--- a/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="109">
   <si>
     <t>Artist</t>
   </si>
@@ -51,6 +51,9 @@
     <t>Feint</t>
   </si>
   <si>
+    <t>Matisse &amp; Sadko</t>
+  </si>
+  <si>
     <t>Bleu Clair, OOTORO</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
     <t>Citadelle</t>
   </si>
   <si>
+    <t>CloudNone, Direct</t>
+  </si>
+  <si>
     <t>RetroVision</t>
   </si>
   <si>
@@ -114,6 +120,9 @@
     <t>Do Better</t>
   </si>
   <si>
+    <t>Meant To Be</t>
+  </si>
+  <si>
     <t>Beat Like This</t>
   </si>
   <si>
@@ -138,6 +147,9 @@
     <t>Out Of My Mind</t>
   </si>
   <si>
+    <t>Dream Running</t>
+  </si>
+  <si>
     <t>All About U</t>
   </si>
   <si>
@@ -189,6 +201,9 @@
     <t>Disciple</t>
   </si>
   <si>
+    <t>OH2 Records, HelDeep Records</t>
+  </si>
+  <si>
     <t>HEXAGON</t>
   </si>
   <si>
@@ -273,6 +288,12 @@
     <t>Mathieu Koss</t>
   </si>
   <si>
+    <t>CloudNone</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
     <t>Heyem &amp; Groozin</t>
   </si>
   <si>
@@ -304,6 +325,12 @@
   </si>
   <si>
     <t>Found Frequencies</t>
+  </si>
+  <si>
+    <t>HelDeep Records</t>
+  </si>
+  <si>
+    <t>OH2 Records</t>
   </si>
   <si>
     <t>Time Machine</t>
@@ -679,7 +706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -704,13 +731,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D2">
-        <v>7856655</v>
+        <v>8850941</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -718,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D3">
-        <v>1115593</v>
+        <v>1158821</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -732,13 +759,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D4">
-        <v>902815</v>
+        <v>920535</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -746,13 +773,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>188406</v>
+        <v>196400</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -760,13 +787,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>158743</v>
+        <v>166190</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -774,13 +801,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>127653</v>
+        <v>135650</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -788,13 +815,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>118779</v>
+        <v>132467</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -802,13 +829,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D9">
-        <v>110933</v>
+        <v>125259</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -816,13 +843,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10">
-        <v>107412</v>
+        <v>117090</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -830,13 +857,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D11">
-        <v>92319</v>
+        <v>110858</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -844,41 +871,41 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D12">
-        <v>67455</v>
+        <v>96603</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D13">
-        <v>63167</v>
+        <v>71822</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D14">
-        <v>57863</v>
+        <v>65325</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -886,55 +913,55 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>33846</v>
+        <v>60409</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D16">
-        <v>26086</v>
+        <v>59290</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D17">
-        <v>25934</v>
+        <v>34551</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18">
-        <v>22040</v>
+        <v>27304</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -942,55 +969,55 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19">
-        <v>21705</v>
+        <v>26695</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D20">
-        <v>17496</v>
+        <v>22244</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>5880</v>
+        <v>22239</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>58</v>
       </c>
       <c r="D22">
-        <v>4587</v>
+        <v>18904</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -998,13 +1025,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D23">
-        <v>4374</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1012,13 +1039,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D24">
-        <v>3748</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1026,13 +1053,41 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D25">
-        <v>3703</v>
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27">
+        <v>4011</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1059,61 +1114,61 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D2">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E2">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E4">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1121,16 +1176,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <v>55</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1138,27 +1193,27 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>44</v>
+      </c>
+      <c r="E6">
         <v>51</v>
-      </c>
-      <c r="D6">
-        <v>43</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>36</v>
@@ -1169,13 +1224,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>34</v>
@@ -1186,19 +1241,19 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E9">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1206,214 +1261,214 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E10">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1424,13 +1479,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1441,13 +1496,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1458,18 +1513,52 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>0</v>
       </c>
     </row>
@@ -1480,7 +1569,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1497,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1505,27 +1594,27 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D2">
-        <v>304869</v>
+        <v>329613</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>88331</v>
+        <v>91887</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1533,69 +1622,69 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>69900</v>
+        <v>73098</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
       </c>
       <c r="D5">
-        <v>64505</v>
+        <v>67960</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D6">
-        <v>64387</v>
+        <v>66879</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D7">
-        <v>55020</v>
+        <v>57057</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>53692</v>
+        <v>55539</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1603,220 +1692,220 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>52531</v>
+        <v>53895</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D10">
-        <v>34790</v>
+        <v>36263</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>30924</v>
+        <v>32965</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>28840</v>
+        <v>30429</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>21808</v>
+        <v>22947</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>17282</v>
+        <v>18911</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>9459</v>
+        <v>18297</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16">
-        <v>8361</v>
+        <v>18111</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D17">
-        <v>3593</v>
+        <v>9944</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18">
-        <v>3534</v>
+        <v>8642</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D19">
-        <v>2990</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20">
-        <v>1571</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D21">
-        <v>1101</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1824,15 +1913,43 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27">
         <v>0</v>
       </c>
     </row>
@@ -1843,7 +1960,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1859,34 +1976,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B2">
-        <v>7856655</v>
+        <v>8850941</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B3">
-        <v>7856655</v>
+        <v>8850941</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B4">
-        <v>1115593</v>
+        <v>1158821</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B5">
-        <v>1115593</v>
+        <v>1158821</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1894,31 +2011,31 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>902815</v>
+        <v>920535</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>222252</v>
+        <v>230951</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B8">
-        <v>188406</v>
+        <v>196400</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>181946</v>
+        <v>190584</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1926,223 +2043,247 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>158743</v>
+        <v>166190</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>127653</v>
+        <v>135650</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B12">
-        <v>127653</v>
+        <v>132467</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B13">
-        <v>111037</v>
+        <v>132467</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B14">
-        <v>111037</v>
+        <v>118030</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B15">
-        <v>111037</v>
+        <v>118030</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B16">
-        <v>110933</v>
+        <v>118030</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B17">
-        <v>110933</v>
+        <v>117090</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B18">
-        <v>110933</v>
+        <v>117090</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B19">
-        <v>107412</v>
+        <v>117090</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B20">
-        <v>107412</v>
+        <v>110858</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B21">
-        <v>92319</v>
+        <v>110858</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B22">
-        <v>92319</v>
+        <v>96603</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B23">
-        <v>92319</v>
+        <v>96603</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B24">
-        <v>57863</v>
+        <v>96603</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>25934</v>
+        <v>60409</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="B26">
-        <v>22040</v>
+        <v>59290</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B27">
-        <v>21705</v>
+        <v>59290</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="B28">
-        <v>21705</v>
+        <v>26695</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B29">
-        <v>5880</v>
+        <v>22244</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B30">
-        <v>5880</v>
+        <v>22239</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B31">
-        <v>4587</v>
+        <v>22239</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B32">
-        <v>4587</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="B33">
-        <v>4374</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B34">
-        <v>3748</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B35">
-        <v>3748</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="B36">
-        <v>3748</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="B37">
-        <v>3703</v>
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>4011</v>
       </c>
     </row>
   </sheetData>
@@ -2152,7 +2293,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2163,114 +2304,114 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C2">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B3">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C3">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B4">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C4">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C7">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>55</v>
       </c>
       <c r="C8">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>55</v>
       </c>
       <c r="C9">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B11">
         <v>36</v>
@@ -2281,7 +2422,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B12">
         <v>36</v>
@@ -2292,7 +2433,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B13">
         <v>36</v>
@@ -2303,7 +2444,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B14">
         <v>34</v>
@@ -2314,7 +2455,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B15">
         <v>34</v>
@@ -2325,24 +2466,24 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2350,70 +2491,70 @@
         <v>89</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -2424,24 +2565,24 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2449,81 +2590,81 @@
         <v>79</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
         <v>8</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2534,7 +2675,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2545,7 +2686,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2556,12 +2697,45 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -2572,7 +2746,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2583,63 +2757,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B2">
-        <v>304869</v>
+        <v>329613</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B3">
-        <v>304869</v>
+        <v>329613</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B4">
-        <v>154315</v>
+        <v>160199</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B5">
-        <v>154315</v>
+        <v>160199</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B6">
-        <v>154315</v>
+        <v>160199</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B7">
-        <v>88331</v>
+        <v>91887</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B8">
-        <v>88331</v>
+        <v>91887</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2647,39 +2821,39 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>69900</v>
+        <v>73098</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B10">
-        <v>64387</v>
+        <v>67960</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B11">
-        <v>64387</v>
+        <v>67960</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B12">
-        <v>53692</v>
+        <v>55539</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B13">
-        <v>53692</v>
+        <v>55539</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2687,180 +2861,180 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>52531</v>
+        <v>53895</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B15">
-        <v>30924</v>
+        <v>32965</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B16">
-        <v>30924</v>
+        <v>32965</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B17">
-        <v>30924</v>
+        <v>32965</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>28840</v>
+        <v>30429</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>21808</v>
+        <v>22947</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>17282</v>
+        <v>18911</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>9459</v>
+        <v>18297</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B22">
-        <v>9459</v>
+        <v>18111</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B23">
-        <v>8361</v>
+        <v>18111</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B24">
-        <v>3593</v>
+        <v>9944</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B25">
-        <v>3593</v>
+        <v>9944</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>3534</v>
+        <v>8642</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>2990</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B28">
-        <v>2990</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B29">
-        <v>1571</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B30">
-        <v>1571</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B31">
-        <v>1571</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="B32">
-        <v>1101</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2868,9 +3042,33 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40">
         <v>0</v>
       </c>
     </row>
@@ -2881,7 +3079,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2897,122 +3095,138 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B2">
-        <v>8179038</v>
+        <v>9323252</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B3">
-        <v>2018408</v>
+        <v>2079356</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B4">
-        <v>266155</v>
+        <v>277048</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B5">
-        <v>111037</v>
+        <v>118030</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B6">
-        <v>92319</v>
+        <v>96603</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B7">
-        <v>92319</v>
+        <v>96603</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>77591</v>
+        <v>79034</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B9">
-        <v>22040</v>
+        <v>59290</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="B10">
-        <v>8961</v>
+        <v>59290</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="B11">
-        <v>5880</v>
+        <v>22244</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B12">
-        <v>4374</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B13">
-        <v>3748</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B14">
-        <v>3748</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B15">
-        <v>3703</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B16">
-        <v>3703</v>
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18">
+        <v>4011</v>
       </c>
     </row>
   </sheetData>
@@ -3022,7 +3236,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3033,37 +3247,37 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B2">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B3">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C3">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B4">
         <v>36</v>
@@ -3074,7 +3288,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B5">
         <v>36</v>
@@ -3085,122 +3299,144 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
     </row>
@@ -3211,7 +3447,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3222,126 +3458,142 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B2">
-        <v>463214</v>
+        <v>514620</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B3">
-        <v>154315</v>
+        <v>160199</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B4">
-        <v>123592</v>
+        <v>128637</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B5">
-        <v>116918</v>
+        <v>121855</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B6">
-        <v>46660</v>
+        <v>49015</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B7">
-        <v>8361</v>
+        <v>18111</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="B8">
-        <v>4091</v>
+        <v>18111</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="B9">
-        <v>3593</v>
+        <v>8642</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>3534</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B11">
-        <v>3534</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B12">
-        <v>1571</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B13">
-        <v>1571</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B14">
-        <v>1101</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B16">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18">
         <v>0</v>
       </c>
     </row>

--- a/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="115">
   <si>
     <t>Artist</t>
   </si>
@@ -78,18 +78,24 @@
     <t>CloudNone, Direct</t>
   </si>
   <si>
+    <t>that boi retrol</t>
+  </si>
+  <si>
     <t>RetroVision</t>
   </si>
   <si>
     <t>THYKIER</t>
   </si>
   <si>
+    <t>Dastic, madugo</t>
+  </si>
+  <si>
+    <t>Sagan, Heyem &amp; Groozin</t>
+  </si>
+  <si>
     <t>OVSKY</t>
   </si>
   <si>
-    <t>Sagan, Heyem &amp; Groozin</t>
-  </si>
-  <si>
     <t>Dossa &amp; Locuzzed, Anastasia</t>
   </si>
   <si>
@@ -99,12 +105,12 @@
     <t>FEIVER</t>
   </si>
   <si>
+    <t>Polygon</t>
+  </si>
+  <si>
     <t>Kamix, WYKO, PJONAX</t>
   </si>
   <si>
-    <t>Polygon</t>
-  </si>
-  <si>
     <t>Pressure</t>
   </si>
   <si>
@@ -150,6 +156,9 @@
     <t>Dream Running</t>
   </si>
   <si>
+    <t>graf pain</t>
+  </si>
+  <si>
     <t>All About U</t>
   </si>
   <si>
@@ -159,12 +168,15 @@
     <t>Miss</t>
   </si>
   <si>
+    <t>Undercover (Club Edit)</t>
+  </si>
+  <si>
+    <t>Dreamer</t>
+  </si>
+  <si>
     <t>Missing</t>
   </si>
   <si>
-    <t>Dreamer</t>
-  </si>
-  <si>
     <t>On My Mind (Chime Mix)</t>
   </si>
   <si>
@@ -177,12 +189,12 @@
     <t>Hold On Me</t>
   </si>
   <si>
+    <t>Falling</t>
+  </si>
+  <si>
     <t>Without You</t>
   </si>
   <si>
-    <t>Falling</t>
-  </si>
-  <si>
     <t>STMPD RCRDS</t>
   </si>
   <si>
@@ -207,6 +219,9 @@
     <t>HEXAGON</t>
   </si>
   <si>
+    <t>Revealed Music</t>
+  </si>
+  <si>
     <t>Time Machine, HEXAGON</t>
   </si>
   <si>
@@ -219,12 +234,12 @@
     <t>Future House Cloud, FHC Selection</t>
   </si>
   <si>
+    <t>Elevate Records, SHOGUN</t>
+  </si>
+  <si>
     <t>Revealed Music, Revealed Radar</t>
   </si>
   <si>
-    <t>Elevate Records, SHOGUN</t>
-  </si>
-  <si>
     <t>1001T_Supports</t>
   </si>
   <si>
@@ -294,6 +309,12 @@
     <t>Direct</t>
   </si>
   <si>
+    <t>Dastic</t>
+  </si>
+  <si>
+    <t>madugo</t>
+  </si>
+  <si>
     <t>Heyem &amp; Groozin</t>
   </si>
   <si>
@@ -339,16 +360,13 @@
     <t>FHC Selection</t>
   </si>
   <si>
-    <t>Revealed Music</t>
+    <t>Elevate Records</t>
+  </si>
+  <si>
+    <t>SHOGUN</t>
   </si>
   <si>
     <t>Revealed Radar</t>
-  </si>
-  <si>
-    <t>Elevate Records</t>
-  </si>
-  <si>
-    <t>SHOGUN</t>
   </si>
 </sst>
 </file>
@@ -706,7 +724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -731,13 +749,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D2">
-        <v>8850941</v>
+        <v>9683556</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -745,13 +763,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D3">
-        <v>1158821</v>
+        <v>1213098</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -759,13 +777,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>920535</v>
+        <v>941409</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -773,13 +791,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>196400</v>
+        <v>204733</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -787,13 +805,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>166190</v>
+        <v>175189</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -801,13 +819,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D7">
-        <v>135650</v>
+        <v>141390</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -815,13 +833,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>132467</v>
+        <v>138697</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -829,13 +847,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>125259</v>
+        <v>133456</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -843,13 +861,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D10">
-        <v>117090</v>
+        <v>124296</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -857,13 +875,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>110858</v>
+        <v>115297</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -871,13 +889,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D12">
-        <v>96603</v>
+        <v>101200</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -885,13 +903,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D13">
-        <v>71822</v>
+        <v>75393</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -899,13 +917,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D14">
-        <v>65325</v>
+        <v>68037</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -913,13 +931,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>60409</v>
+        <v>63933</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -927,13 +945,13 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D16">
-        <v>59290</v>
+        <v>60620</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -941,41 +959,41 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17">
-        <v>34551</v>
+        <v>52713</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D18">
-        <v>27304</v>
+        <v>35613</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D19">
-        <v>26695</v>
+        <v>28882</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -983,13 +1001,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D20">
-        <v>22244</v>
+        <v>27665</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -997,55 +1015,55 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D21">
-        <v>22239</v>
+        <v>24607</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>18904</v>
+        <v>22883</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D23">
-        <v>6166</v>
+        <v>22509</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24">
-        <v>4768</v>
+        <v>20836</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1053,13 +1071,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D25">
-        <v>4444</v>
+        <v>6544</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1067,13 +1085,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D26">
-        <v>4032</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1081,13 +1099,41 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D27">
-        <v>4011</v>
+        <v>4543</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29">
+        <v>4379</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1114,10 +1160,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1125,33 +1171,33 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E2">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1159,16 +1205,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E4">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1176,16 +1222,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1193,10 +1239,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <v>44</v>
@@ -1210,27 +1256,27 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>36</v>
       </c>
       <c r="E7">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>34</v>
@@ -1244,16 +1290,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>31</v>
       </c>
       <c r="E9">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1261,10 +1307,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>31</v>
@@ -1278,10 +1324,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D11">
         <v>26</v>
@@ -1292,13 +1338,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>24</v>
@@ -1309,10 +1355,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
@@ -1321,41 +1367,41 @@
         <v>13</v>
       </c>
       <c r="E13">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1363,33 +1409,33 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1397,95 +1443,95 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>62</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1496,13 +1542,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1513,13 +1559,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1530,13 +1576,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1547,18 +1593,52 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>0</v>
       </c>
     </row>
@@ -1569,7 +1649,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1586,7 +1666,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1594,13 +1674,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D2">
-        <v>329613</v>
+        <v>363422</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1608,13 +1688,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>91887</v>
+        <v>96496</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1622,13 +1702,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>73098</v>
+        <v>76430</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1636,13 +1716,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D5">
-        <v>67960</v>
+        <v>72409</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1650,13 +1730,13 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>66879</v>
+        <v>69796</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1664,13 +1744,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>57057</v>
+        <v>59355</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1678,13 +1758,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>55539</v>
+        <v>57948</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1692,13 +1772,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D9">
-        <v>53895</v>
+        <v>55648</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1706,13 +1786,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D10">
-        <v>36263</v>
+        <v>37902</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1720,41 +1800,41 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D11">
-        <v>32965</v>
+        <v>34963</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D12">
-        <v>30429</v>
+        <v>32249</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D13">
-        <v>22947</v>
+        <v>24400</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1762,13 +1842,13 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D14">
-        <v>18911</v>
+        <v>20288</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1776,13 +1856,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>18297</v>
+        <v>19477</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1790,150 +1870,150 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D16">
-        <v>18111</v>
+        <v>19151</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17">
-        <v>9944</v>
+        <v>10758</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D18">
-        <v>8642</v>
+        <v>10494</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19">
-        <v>3883</v>
+        <v>9657</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D20">
-        <v>3748</v>
+        <v>8928</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>3080</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22">
-        <v>1659</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D23">
-        <v>1120</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1944,12 +2024,40 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29">
         <v>0</v>
       </c>
     </row>
@@ -1960,7 +2068,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1976,34 +2084,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B2">
-        <v>8850941</v>
+        <v>9683556</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B3">
-        <v>8850941</v>
+        <v>9683556</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B4">
-        <v>1158821</v>
+        <v>1213098</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B5">
-        <v>1158821</v>
+        <v>1213098</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2011,23 +2119,23 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>920535</v>
+        <v>941409</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>230951</v>
+        <v>240346</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B8">
-        <v>196400</v>
+        <v>204733</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2035,7 +2143,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>190584</v>
+        <v>201493</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2043,7 +2151,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>166190</v>
+        <v>175189</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2051,111 +2159,111 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>135650</v>
+        <v>141390</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B12">
-        <v>132467</v>
+        <v>138697</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B13">
-        <v>132467</v>
+        <v>138697</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B14">
-        <v>118030</v>
+        <v>125111</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B15">
-        <v>118030</v>
+        <v>125111</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B16">
-        <v>118030</v>
+        <v>125111</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B17">
-        <v>117090</v>
+        <v>124296</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B18">
-        <v>117090</v>
+        <v>124296</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B19">
-        <v>117090</v>
+        <v>124296</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B20">
-        <v>110858</v>
+        <v>115297</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B21">
-        <v>110858</v>
+        <v>115297</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B22">
-        <v>96603</v>
+        <v>101200</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B23">
-        <v>96603</v>
+        <v>101200</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B24">
-        <v>96603</v>
+        <v>101200</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2163,31 +2271,31 @@
         <v>16</v>
       </c>
       <c r="B25">
-        <v>60409</v>
+        <v>63933</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B26">
-        <v>59290</v>
+        <v>60620</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B27">
-        <v>59290</v>
+        <v>60620</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28">
-        <v>26695</v>
+        <v>52713</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2195,95 +2303,119 @@
         <v>20</v>
       </c>
       <c r="B29">
-        <v>22244</v>
+        <v>27665</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B30">
-        <v>22239</v>
+        <v>24607</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B31">
-        <v>22239</v>
+        <v>24607</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B32">
-        <v>6166</v>
+        <v>22883</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B33">
-        <v>6166</v>
+        <v>22883</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="B34">
-        <v>4768</v>
+        <v>22509</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B35">
-        <v>4768</v>
+        <v>6544</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B36">
-        <v>4444</v>
+        <v>6544</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B37">
-        <v>4032</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B38">
-        <v>4032</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="B39">
-        <v>4032</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40">
-        <v>4011</v>
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43">
+        <v>4379</v>
       </c>
     </row>
   </sheetData>
@@ -2293,7 +2425,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2304,103 +2436,103 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C3">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B4">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C4">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B10">
         <v>44</v>
@@ -2411,40 +2543,40 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B11">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B12">
         <v>36</v>
       </c>
       <c r="C12">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B13">
         <v>36</v>
       </c>
       <c r="C13">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B14">
         <v>34</v>
@@ -2455,7 +2587,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B15">
         <v>34</v>
@@ -2472,12 +2604,12 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B17">
         <v>31</v>
@@ -2488,7 +2620,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B18">
         <v>31</v>
@@ -2510,7 +2642,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>24</v>
@@ -2521,29 +2653,29 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21">
         <v>13</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22">
         <v>13</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -2554,29 +2686,29 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B26">
         <v>9</v>
@@ -2587,7 +2719,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -2598,95 +2730,95 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2697,7 +2829,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2708,7 +2840,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2719,7 +2851,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2730,12 +2862,45 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
         <v>0</v>
       </c>
     </row>
@@ -2746,7 +2911,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2757,63 +2922,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B2">
-        <v>329613</v>
+        <v>363422</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B3">
-        <v>329613</v>
+        <v>363422</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B4">
-        <v>160199</v>
+        <v>167053</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B5">
-        <v>160199</v>
+        <v>167053</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B6">
-        <v>160199</v>
+        <v>167053</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B7">
-        <v>91887</v>
+        <v>96496</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B8">
-        <v>91887</v>
+        <v>96496</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2821,39 +2986,39 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>73098</v>
+        <v>76430</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B10">
-        <v>67960</v>
+        <v>72409</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B11">
-        <v>67960</v>
+        <v>72409</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B12">
-        <v>55539</v>
+        <v>57948</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B13">
-        <v>55539</v>
+        <v>57948</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2861,47 +3026,47 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>53895</v>
+        <v>55648</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B15">
-        <v>32965</v>
+        <v>34963</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B16">
-        <v>32965</v>
+        <v>34963</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B17">
-        <v>32965</v>
+        <v>34963</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>30429</v>
+        <v>32249</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>22947</v>
+        <v>24400</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2909,7 +3074,7 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>18911</v>
+        <v>20288</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2917,148 +3082,148 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>18297</v>
+        <v>19477</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B22">
-        <v>18111</v>
+        <v>19151</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B23">
-        <v>18111</v>
+        <v>19151</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>9944</v>
+        <v>10758</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B25">
-        <v>9944</v>
+        <v>10494</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="B26">
-        <v>8642</v>
+        <v>10494</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B27">
-        <v>3883</v>
+        <v>9657</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B28">
-        <v>3748</v>
+        <v>9657</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="B29">
-        <v>3748</v>
+        <v>8928</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>3080</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B31">
-        <v>3080</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B32">
-        <v>1659</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B33">
-        <v>1659</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B34">
-        <v>1659</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="B35">
-        <v>1120</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3066,9 +3231,33 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B40">
+      <c r="B43">
         <v>0</v>
       </c>
     </row>
@@ -3095,138 +3284,138 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B2">
-        <v>9323252</v>
+        <v>10179537</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B3">
-        <v>2079356</v>
+        <v>2154507</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>277048</v>
+        <v>290486</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B5">
-        <v>118030</v>
+        <v>125111</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B6">
-        <v>96603</v>
+        <v>101200</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B7">
-        <v>96603</v>
+        <v>101200</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B8">
-        <v>79034</v>
+        <v>81005</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B9">
-        <v>59290</v>
+        <v>60620</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B10">
-        <v>59290</v>
+        <v>60620</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B11">
-        <v>22244</v>
+        <v>28986</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B12">
-        <v>9212</v>
+        <v>22509</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B13">
-        <v>6166</v>
+        <v>9612</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="B14">
-        <v>4444</v>
+        <v>6544</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B15">
-        <v>4032</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B16">
-        <v>4032</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B17">
-        <v>4011</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B18">
-        <v>4011</v>
+        <v>4379</v>
       </c>
     </row>
   </sheetData>
@@ -3247,59 +3436,59 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C2">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B3">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C3">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B4">
         <v>36</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>36</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B6">
         <v>31</v>
@@ -3310,7 +3499,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B7">
         <v>31</v>
@@ -3321,18 +3510,18 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -3343,7 +3532,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -3354,7 +3543,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -3365,18 +3554,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -3387,18 +3576,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -3409,7 +3598,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3420,7 +3609,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3431,7 +3620,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3458,132 +3647,132 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B2">
-        <v>514620</v>
+        <v>559046</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B3">
-        <v>160199</v>
+        <v>167053</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>128637</v>
+        <v>134378</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B5">
-        <v>121855</v>
+        <v>128057</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B6">
-        <v>49015</v>
+        <v>51671</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B7">
-        <v>18111</v>
+        <v>19151</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B8">
-        <v>18111</v>
+        <v>19151</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B9">
-        <v>8642</v>
+        <v>11470</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B10">
-        <v>4200</v>
+        <v>8928</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B11">
-        <v>3883</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B12">
-        <v>3883</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B13">
-        <v>3748</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="B14">
-        <v>1659</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B15">
-        <v>1659</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B16">
-        <v>1120</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3591,7 +3780,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B18">
         <v>0</v>

--- a/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
@@ -102,15 +102,15 @@
     <t>Showmain, 7en</t>
   </si>
   <si>
+    <t>Polygon</t>
+  </si>
+  <si>
+    <t>Kamix, WYKO, PJONAX</t>
+  </si>
+  <si>
     <t>FEIVER</t>
   </si>
   <si>
-    <t>Polygon</t>
-  </si>
-  <si>
-    <t>Kamix, WYKO, PJONAX</t>
-  </si>
-  <si>
     <t>Pressure</t>
   </si>
   <si>
@@ -186,15 +186,15 @@
     <t>Chasing The Sun</t>
   </si>
   <si>
+    <t>Falling</t>
+  </si>
+  <si>
+    <t>Without You</t>
+  </si>
+  <si>
     <t>Hold On Me</t>
   </si>
   <si>
-    <t>Falling</t>
-  </si>
-  <si>
-    <t>Without You</t>
-  </si>
-  <si>
     <t>STMPD RCRDS</t>
   </si>
   <si>
@@ -231,15 +231,15 @@
     <t>Future House Cloud</t>
   </si>
   <si>
+    <t>Elevate Records, SHOGUN</t>
+  </si>
+  <si>
+    <t>Revealed Music, Revealed Radar</t>
+  </si>
+  <si>
     <t>Future House Cloud, FHC Selection</t>
   </si>
   <si>
-    <t>Elevate Records, SHOGUN</t>
-  </si>
-  <si>
-    <t>Revealed Music, Revealed Radar</t>
-  </si>
-  <si>
     <t>1001T_Supports</t>
   </si>
   <si>
@@ -357,16 +357,16 @@
     <t>Time Machine</t>
   </si>
   <si>
+    <t>Elevate Records</t>
+  </si>
+  <si>
+    <t>SHOGUN</t>
+  </si>
+  <si>
+    <t>Revealed Radar</t>
+  </si>
+  <si>
     <t>FHC Selection</t>
-  </si>
-  <si>
-    <t>Elevate Records</t>
-  </si>
-  <si>
-    <t>SHOGUN</t>
-  </si>
-  <si>
-    <t>Revealed Radar</t>
   </si>
 </sst>
 </file>
@@ -755,7 +755,7 @@
         <v>57</v>
       </c>
       <c r="D2">
-        <v>9683556</v>
+        <v>10231109</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -769,7 +769,7 @@
         <v>58</v>
       </c>
       <c r="D3">
-        <v>1213098</v>
+        <v>1240403</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -783,7 +783,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>941409</v>
+        <v>951616</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -797,7 +797,7 @@
         <v>59</v>
       </c>
       <c r="D5">
-        <v>204733</v>
+        <v>209319</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -811,7 +811,7 @@
         <v>60</v>
       </c>
       <c r="D6">
-        <v>175189</v>
+        <v>179893</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -825,7 +825,7 @@
         <v>57</v>
       </c>
       <c r="D7">
-        <v>141390</v>
+        <v>144594</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -839,7 +839,7 @@
         <v>57</v>
       </c>
       <c r="D8">
-        <v>138697</v>
+        <v>141780</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -853,7 +853,7 @@
         <v>59</v>
       </c>
       <c r="D9">
-        <v>133456</v>
+        <v>138730</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -867,7 +867,7 @@
         <v>57</v>
       </c>
       <c r="D10">
-        <v>124296</v>
+        <v>127690</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -881,7 +881,7 @@
         <v>60</v>
       </c>
       <c r="D11">
-        <v>115297</v>
+        <v>117532</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -895,7 +895,7 @@
         <v>61</v>
       </c>
       <c r="D12">
-        <v>101200</v>
+        <v>103468</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -909,7 +909,7 @@
         <v>62</v>
       </c>
       <c r="D13">
-        <v>75393</v>
+        <v>76911</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -923,7 +923,7 @@
         <v>59</v>
       </c>
       <c r="D14">
-        <v>68037</v>
+        <v>69604</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -937,7 +937,7 @@
         <v>57</v>
       </c>
       <c r="D15">
-        <v>63933</v>
+        <v>65488</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -951,7 +951,7 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>60620</v>
+        <v>61406</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -965,7 +965,7 @@
         <v>59</v>
       </c>
       <c r="D17">
-        <v>52713</v>
+        <v>53279</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -979,7 +979,7 @@
         <v>64</v>
       </c>
       <c r="D18">
-        <v>35613</v>
+        <v>36194</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -993,7 +993,7 @@
         <v>62</v>
       </c>
       <c r="D19">
-        <v>28882</v>
+        <v>29621</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1007,7 +1007,7 @@
         <v>57</v>
       </c>
       <c r="D20">
-        <v>27665</v>
+        <v>28182</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1021,7 +1021,7 @@
         <v>65</v>
       </c>
       <c r="D21">
-        <v>24607</v>
+        <v>24925</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1035,7 +1035,7 @@
         <v>64</v>
       </c>
       <c r="D22">
-        <v>22883</v>
+        <v>23185</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1049,7 +1049,7 @@
         <v>66</v>
       </c>
       <c r="D23">
-        <v>22509</v>
+        <v>22610</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1063,7 +1063,7 @@
         <v>62</v>
       </c>
       <c r="D24">
-        <v>20836</v>
+        <v>21899</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1077,7 +1077,7 @@
         <v>67</v>
       </c>
       <c r="D25">
-        <v>6544</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1091,7 +1091,7 @@
         <v>68</v>
       </c>
       <c r="D26">
-        <v>5069</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1105,7 +1105,7 @@
         <v>69</v>
       </c>
       <c r="D27">
-        <v>4543</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1119,7 +1119,7 @@
         <v>70</v>
       </c>
       <c r="D28">
-        <v>4439</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1133,7 +1133,7 @@
         <v>71</v>
       </c>
       <c r="D29">
-        <v>4379</v>
+        <v>4581</v>
       </c>
     </row>
   </sheetData>
@@ -1194,10 +1194,10 @@
         <v>64</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>57</v>
       </c>
       <c r="D4">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E4">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1231,7 +1231,7 @@
         <v>58</v>
       </c>
       <c r="E5">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1265,7 +1265,7 @@
         <v>36</v>
       </c>
       <c r="E7">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>64</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1372,13 +1372,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1423,13 +1423,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -1460,7 +1460,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>62</v>
@@ -1474,36 +1474,36 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1559,13 +1559,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>57</v>
       </c>
       <c r="D2">
-        <v>363422</v>
+        <v>380486</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1694,7 +1694,7 @@
         <v>57</v>
       </c>
       <c r="D3">
-        <v>96496</v>
+        <v>99093</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1708,7 +1708,7 @@
         <v>60</v>
       </c>
       <c r="D4">
-        <v>76430</v>
+        <v>77832</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1722,7 +1722,7 @@
         <v>58</v>
       </c>
       <c r="D5">
-        <v>72409</v>
+        <v>74714</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1736,7 +1736,7 @@
         <v>62</v>
       </c>
       <c r="D6">
-        <v>69796</v>
+        <v>71362</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1750,7 +1750,7 @@
         <v>62</v>
       </c>
       <c r="D7">
-        <v>59355</v>
+        <v>60443</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1764,7 +1764,7 @@
         <v>60</v>
       </c>
       <c r="D8">
-        <v>57948</v>
+        <v>59150</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1778,7 +1778,7 @@
         <v>58</v>
       </c>
       <c r="D9">
-        <v>55648</v>
+        <v>56577</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1792,7 +1792,7 @@
         <v>62</v>
       </c>
       <c r="D10">
-        <v>37902</v>
+        <v>38688</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1806,7 +1806,7 @@
         <v>57</v>
       </c>
       <c r="D11">
-        <v>34963</v>
+        <v>35995</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1820,7 +1820,7 @@
         <v>64</v>
       </c>
       <c r="D12">
-        <v>32249</v>
+        <v>33225</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1834,7 +1834,7 @@
         <v>57</v>
       </c>
       <c r="D13">
-        <v>24400</v>
+        <v>25120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1848,7 +1848,7 @@
         <v>57</v>
       </c>
       <c r="D14">
-        <v>20288</v>
+        <v>20892</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1862,7 +1862,7 @@
         <v>57</v>
       </c>
       <c r="D15">
-        <v>19477</v>
+        <v>20104</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1876,7 +1876,7 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>19151</v>
+        <v>19617</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1890,7 +1890,7 @@
         <v>59</v>
       </c>
       <c r="D17">
-        <v>10758</v>
+        <v>11043</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1904,7 +1904,7 @@
         <v>64</v>
       </c>
       <c r="D18">
-        <v>10494</v>
+        <v>10767</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1918,7 +1918,7 @@
         <v>65</v>
       </c>
       <c r="D19">
-        <v>9657</v>
+        <v>9861</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1932,21 +1932,21 @@
         <v>66</v>
       </c>
       <c r="D20">
-        <v>8928</v>
+        <v>9074</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21">
-        <v>4348</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1960,7 +1960,7 @@
         <v>67</v>
       </c>
       <c r="D22">
-        <v>3974</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1974,35 +1974,35 @@
         <v>68</v>
       </c>
       <c r="D23">
-        <v>3184</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24">
-        <v>1813</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25">
-        <v>1153</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2087,7 +2087,7 @@
         <v>75</v>
       </c>
       <c r="B2">
-        <v>9683556</v>
+        <v>10231109</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>76</v>
       </c>
       <c r="B3">
-        <v>9683556</v>
+        <v>10231109</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>77</v>
       </c>
       <c r="B4">
-        <v>1213098</v>
+        <v>1240403</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>78</v>
       </c>
       <c r="B5">
-        <v>1213098</v>
+        <v>1240403</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>941409</v>
+        <v>951616</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>240346</v>
+        <v>245513</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>79</v>
       </c>
       <c r="B8">
-        <v>204733</v>
+        <v>209319</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>201493</v>
+        <v>208334</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2151,7 +2151,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>175189</v>
+        <v>179893</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>141390</v>
+        <v>144594</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2167,7 +2167,7 @@
         <v>80</v>
       </c>
       <c r="B12">
-        <v>138697</v>
+        <v>141780</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2175,7 +2175,7 @@
         <v>81</v>
       </c>
       <c r="B13">
-        <v>138697</v>
+        <v>141780</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>82</v>
       </c>
       <c r="B14">
-        <v>125111</v>
+        <v>128431</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2191,7 +2191,7 @@
         <v>83</v>
       </c>
       <c r="B15">
-        <v>125111</v>
+        <v>128431</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>84</v>
       </c>
       <c r="B16">
-        <v>125111</v>
+        <v>128431</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>85</v>
       </c>
       <c r="B17">
-        <v>124296</v>
+        <v>127690</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>86</v>
       </c>
       <c r="B18">
-        <v>124296</v>
+        <v>127690</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>87</v>
       </c>
       <c r="B19">
-        <v>124296</v>
+        <v>127690</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>88</v>
       </c>
       <c r="B20">
-        <v>115297</v>
+        <v>117532</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>89</v>
       </c>
       <c r="B21">
-        <v>115297</v>
+        <v>117532</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2247,7 +2247,7 @@
         <v>90</v>
       </c>
       <c r="B22">
-        <v>101200</v>
+        <v>103468</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>91</v>
       </c>
       <c r="B23">
-        <v>101200</v>
+        <v>103468</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>92</v>
       </c>
       <c r="B24">
-        <v>101200</v>
+        <v>103468</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>16</v>
       </c>
       <c r="B25">
-        <v>63933</v>
+        <v>65488</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>93</v>
       </c>
       <c r="B26">
-        <v>60620</v>
+        <v>61406</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>94</v>
       </c>
       <c r="B27">
-        <v>60620</v>
+        <v>61406</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2295,7 +2295,7 @@
         <v>18</v>
       </c>
       <c r="B28">
-        <v>52713</v>
+        <v>53279</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>20</v>
       </c>
       <c r="B29">
-        <v>27665</v>
+        <v>28182</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>95</v>
       </c>
       <c r="B30">
-        <v>24607</v>
+        <v>24925</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>96</v>
       </c>
       <c r="B31">
-        <v>24607</v>
+        <v>24925</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2327,7 +2327,7 @@
         <v>97</v>
       </c>
       <c r="B32">
-        <v>22883</v>
+        <v>23185</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>98</v>
       </c>
       <c r="B33">
-        <v>22883</v>
+        <v>23185</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>23</v>
       </c>
       <c r="B34">
-        <v>22509</v>
+        <v>22610</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>99</v>
       </c>
       <c r="B35">
-        <v>6544</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>100</v>
       </c>
       <c r="B36">
-        <v>6544</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>101</v>
       </c>
       <c r="B37">
-        <v>5069</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>102</v>
       </c>
       <c r="B38">
-        <v>5069</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2383,39 +2383,39 @@
         <v>26</v>
       </c>
       <c r="B39">
-        <v>4543</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B40">
-        <v>4439</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B41">
-        <v>4379</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B42">
-        <v>4379</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="B43">
-        <v>4379</v>
+        <v>4581</v>
       </c>
     </row>
   </sheetData>
@@ -2447,10 +2447,10 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2480,10 +2480,10 @@
         <v>85</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2491,10 +2491,10 @@
         <v>86</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C6">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2502,10 +2502,10 @@
         <v>87</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C7">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2516,7 +2516,7 @@
         <v>58</v>
       </c>
       <c r="C8">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2527,7 +2527,7 @@
         <v>58</v>
       </c>
       <c r="C9">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2549,7 +2549,7 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2560,7 +2560,7 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>36</v>
       </c>
       <c r="C13">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2579,10 +2579,10 @@
         <v>97</v>
       </c>
       <c r="B14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2590,10 +2590,10 @@
         <v>98</v>
       </c>
       <c r="B15">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2711,10 +2711,10 @@
         <v>82</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2722,26 +2722,26 @@
         <v>83</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B29">
         <v>9</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>75</v>
       </c>
       <c r="B2">
-        <v>363422</v>
+        <v>380486</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>76</v>
       </c>
       <c r="B3">
-        <v>363422</v>
+        <v>380486</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2946,7 +2946,7 @@
         <v>82</v>
       </c>
       <c r="B4">
-        <v>167053</v>
+        <v>170493</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2954,7 +2954,7 @@
         <v>83</v>
       </c>
       <c r="B5">
-        <v>167053</v>
+        <v>170493</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2962,7 +2962,7 @@
         <v>84</v>
       </c>
       <c r="B6">
-        <v>167053</v>
+        <v>170493</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2970,7 +2970,7 @@
         <v>80</v>
       </c>
       <c r="B7">
-        <v>96496</v>
+        <v>99093</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2978,7 +2978,7 @@
         <v>81</v>
       </c>
       <c r="B8">
-        <v>96496</v>
+        <v>99093</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2986,7 +2986,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>76430</v>
+        <v>77832</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2994,7 +2994,7 @@
         <v>77</v>
       </c>
       <c r="B10">
-        <v>72409</v>
+        <v>74714</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3002,7 +3002,7 @@
         <v>78</v>
       </c>
       <c r="B11">
-        <v>72409</v>
+        <v>74714</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3010,7 +3010,7 @@
         <v>88</v>
       </c>
       <c r="B12">
-        <v>57948</v>
+        <v>59150</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3018,7 +3018,7 @@
         <v>89</v>
       </c>
       <c r="B13">
-        <v>57948</v>
+        <v>59150</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3026,7 +3026,7 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>55648</v>
+        <v>56577</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3034,7 +3034,7 @@
         <v>85</v>
       </c>
       <c r="B15">
-        <v>34963</v>
+        <v>35995</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3042,7 +3042,7 @@
         <v>86</v>
       </c>
       <c r="B16">
-        <v>34963</v>
+        <v>35995</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3050,7 +3050,7 @@
         <v>87</v>
       </c>
       <c r="B17">
-        <v>34963</v>
+        <v>35995</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3058,7 +3058,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>32249</v>
+        <v>33225</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3066,7 +3066,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>24400</v>
+        <v>25120</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3074,7 +3074,7 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>20288</v>
+        <v>20892</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3082,7 +3082,7 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>19477</v>
+        <v>20104</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3090,7 +3090,7 @@
         <v>93</v>
       </c>
       <c r="B22">
-        <v>19151</v>
+        <v>19617</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3098,7 +3098,7 @@
         <v>94</v>
       </c>
       <c r="B23">
-        <v>19151</v>
+        <v>19617</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3106,7 +3106,7 @@
         <v>18</v>
       </c>
       <c r="B24">
-        <v>10758</v>
+        <v>11043</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3114,7 +3114,7 @@
         <v>97</v>
       </c>
       <c r="B25">
-        <v>10494</v>
+        <v>10767</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>98</v>
       </c>
       <c r="B26">
-        <v>10494</v>
+        <v>10767</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3130,7 +3130,7 @@
         <v>95</v>
       </c>
       <c r="B27">
-        <v>9657</v>
+        <v>9861</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3138,7 +3138,7 @@
         <v>96</v>
       </c>
       <c r="B28">
-        <v>9657</v>
+        <v>9861</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3146,15 +3146,15 @@
         <v>23</v>
       </c>
       <c r="B29">
-        <v>8928</v>
+        <v>9074</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30">
-        <v>4348</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3162,7 +3162,7 @@
         <v>99</v>
       </c>
       <c r="B31">
-        <v>3974</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3170,7 +3170,7 @@
         <v>100</v>
       </c>
       <c r="B32">
-        <v>3974</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3178,7 +3178,7 @@
         <v>101</v>
       </c>
       <c r="B33">
-        <v>3184</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3186,7 +3186,7 @@
         <v>102</v>
       </c>
       <c r="B34">
-        <v>3184</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3194,7 +3194,7 @@
         <v>103</v>
       </c>
       <c r="B35">
-        <v>1813</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>104</v>
       </c>
       <c r="B36">
-        <v>1813</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3210,15 +3210,15 @@
         <v>105</v>
       </c>
       <c r="B37">
-        <v>1813</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B38">
-        <v>1153</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>57</v>
       </c>
       <c r="B2">
-        <v>10179537</v>
+        <v>10738843</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>58</v>
       </c>
       <c r="B3">
-        <v>2154507</v>
+        <v>2192019</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>290486</v>
+        <v>297425</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>125111</v>
+        <v>128431</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>106</v>
       </c>
       <c r="B6">
-        <v>101200</v>
+        <v>103468</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>107</v>
       </c>
       <c r="B7">
-        <v>101200</v>
+        <v>103468</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>64</v>
       </c>
       <c r="B8">
-        <v>81005</v>
+        <v>81989</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>108</v>
       </c>
       <c r="B9">
-        <v>60620</v>
+        <v>61406</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>109</v>
       </c>
       <c r="B10">
-        <v>60620</v>
+        <v>61406</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>65</v>
       </c>
       <c r="B11">
-        <v>28986</v>
+        <v>29510</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>110</v>
       </c>
       <c r="B12">
-        <v>22509</v>
+        <v>22610</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>68</v>
       </c>
       <c r="B13">
-        <v>9612</v>
+        <v>9825</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>67</v>
       </c>
       <c r="B14">
-        <v>6544</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>111</v>
       </c>
       <c r="B15">
-        <v>4543</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>112</v>
       </c>
       <c r="B16">
-        <v>4439</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>113</v>
       </c>
       <c r="B17">
-        <v>4439</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>114</v>
       </c>
       <c r="B18">
-        <v>4379</v>
+        <v>4581</v>
       </c>
     </row>
   </sheetData>
@@ -3447,10 +3447,10 @@
         <v>57</v>
       </c>
       <c r="B2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C2">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3458,10 +3458,10 @@
         <v>64</v>
       </c>
       <c r="B3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C3">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3472,7 +3472,7 @@
         <v>36</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3483,7 +3483,7 @@
         <v>36</v>
       </c>
       <c r="C5">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3521,7 +3521,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -3535,10 +3535,10 @@
         <v>62</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3565,7 +3565,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>57</v>
       </c>
       <c r="B2">
-        <v>559046</v>
+        <v>581690</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>62</v>
       </c>
       <c r="B3">
-        <v>167053</v>
+        <v>170493</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>134378</v>
+        <v>136982</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>58</v>
       </c>
       <c r="B5">
-        <v>128057</v>
+        <v>131291</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>64</v>
       </c>
       <c r="B6">
-        <v>51671</v>
+        <v>53066</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>108</v>
       </c>
       <c r="B7">
-        <v>19151</v>
+        <v>19617</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>109</v>
       </c>
       <c r="B8">
-        <v>19151</v>
+        <v>19617</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>65</v>
       </c>
       <c r="B9">
-        <v>11470</v>
+        <v>11736</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3719,23 +3719,23 @@
         <v>110</v>
       </c>
       <c r="B10">
-        <v>8928</v>
+        <v>9074</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11">
-        <v>4348</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12">
-        <v>4348</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>68</v>
       </c>
       <c r="B13">
-        <v>4337</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3751,23 +3751,23 @@
         <v>67</v>
       </c>
       <c r="B14">
-        <v>3974</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15">
-        <v>1813</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B16">
-        <v>1153</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="17" spans="1:2">

--- a/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="117">
   <si>
     <t>Artist</t>
   </si>
@@ -54,12 +54,12 @@
     <t>Matisse &amp; Sadko</t>
   </si>
   <si>
+    <t>insaneintherainmusic</t>
+  </si>
+  <si>
     <t>Bleu Clair, OOTORO</t>
   </si>
   <si>
-    <t>insaneintherainmusic</t>
-  </si>
-  <si>
     <t>Seth Hills, Vluarr, Lucas Ariel</t>
   </si>
   <si>
@@ -69,6 +69,9 @@
     <t>Lost Frequencies, Mathieu Koss, Brooks</t>
   </si>
   <si>
+    <t>Throttle</t>
+  </si>
+  <si>
     <t>Chime, Franky Nuts, Oliverse</t>
   </si>
   <si>
@@ -129,12 +132,12 @@
     <t>Meant To Be</t>
   </si>
   <si>
+    <t>Kass' Theme - Jazz Accordion Arrangement</t>
+  </si>
+  <si>
     <t>Beat Like This</t>
   </si>
   <si>
-    <t>Kass' Theme - Jazz Accordion Arrangement</t>
-  </si>
-  <si>
     <t>Calling Out</t>
   </si>
   <si>
@@ -144,6 +147,9 @@
     <t>Don't Leave Me Now (Brooks Remix)</t>
   </si>
   <si>
+    <t>Cities (Acoustic)</t>
+  </si>
+  <si>
     <t>Let Me Go</t>
   </si>
   <si>
@@ -174,10 +180,10 @@
     <t>Dreamer</t>
   </si>
   <si>
+    <t>On My Mind (Chime Mix)</t>
+  </si>
+  <si>
     <t>Missing</t>
-  </si>
-  <si>
-    <t>On My Mind (Chime Mix)</t>
   </si>
   <si>
     <t>Right Way</t>
@@ -724,7 +730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -749,13 +755,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>10231109</v>
+        <v>10928018</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -763,13 +769,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>1240403</v>
+        <v>1273885</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -777,13 +783,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>951616</v>
+        <v>965087</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -791,13 +797,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>209319</v>
+        <v>214728</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -805,13 +811,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>179893</v>
+        <v>186811</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -819,13 +825,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7">
-        <v>144594</v>
+        <v>148054</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -833,13 +839,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>141780</v>
+        <v>145356</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -847,13 +853,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
       </c>
       <c r="D9">
-        <v>138730</v>
+        <v>145083</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -861,13 +867,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>127690</v>
+        <v>131316</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -875,13 +881,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11">
-        <v>117532</v>
+        <v>120464</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -889,13 +895,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D12">
-        <v>103468</v>
+        <v>106641</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -903,41 +909,41 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>62</v>
       </c>
       <c r="D13">
-        <v>76911</v>
+        <v>89404</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D14">
-        <v>69604</v>
+        <v>79093</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D15">
-        <v>65488</v>
+        <v>71710</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -945,13 +951,13 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D16">
-        <v>61406</v>
+        <v>66736</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -959,13 +965,13 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D17">
-        <v>53279</v>
+        <v>62280</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -973,41 +979,41 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D18">
-        <v>36194</v>
+        <v>53992</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D19">
-        <v>29621</v>
+        <v>36982</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D20">
-        <v>28182</v>
+        <v>30796</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1015,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D21">
-        <v>24925</v>
+        <v>28772</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1029,13 +1035,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D22">
-        <v>23185</v>
+        <v>25310</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1043,27 +1049,27 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
       </c>
       <c r="D23">
-        <v>22610</v>
+        <v>23597</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D24">
-        <v>21899</v>
+        <v>23426</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1071,13 +1077,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D25">
-        <v>6653</v>
+        <v>22762</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1085,13 +1091,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26">
-        <v>5244</v>
+        <v>7031</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1099,13 +1105,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D27">
-        <v>4677</v>
+        <v>5466</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1113,13 +1119,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D28">
-        <v>4585</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1127,13 +1133,27 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D29">
-        <v>4581</v>
+        <v>4818</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30">
+        <v>4623</v>
       </c>
     </row>
   </sheetData>
@@ -1143,7 +1163,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1160,44 +1180,44 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E2">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E3">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1205,16 +1225,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E4">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1222,16 +1242,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E5">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1239,16 +1259,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1256,33 +1276,33 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1290,44 +1310,44 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>26</v>
@@ -1338,30 +1358,30 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13">
         <v>13</v>
@@ -1372,13 +1392,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1389,13 +1409,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -1409,10 +1429,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1423,13 +1443,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -1440,13 +1460,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -1457,13 +1477,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1474,13 +1494,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1491,13 +1511,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1508,47 +1528,47 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1559,13 +1579,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1576,13 +1596,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1593,13 +1613,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1610,13 +1630,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1627,18 +1647,35 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>0</v>
       </c>
     </row>
@@ -1649,7 +1686,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1666,7 +1703,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1674,27 +1711,27 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>380486</v>
+        <v>401851</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>99093</v>
+        <v>102175</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1702,13 +1739,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>77832</v>
+        <v>79612</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1716,41 +1753,41 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>74714</v>
+        <v>77198</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6">
-        <v>71362</v>
+        <v>73440</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>60443</v>
+        <v>62030</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1758,13 +1795,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>59150</v>
+        <v>60483</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1772,27 +1809,27 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>56577</v>
+        <v>57770</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>38688</v>
+        <v>39777</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1800,69 +1837,69 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D11">
-        <v>35995</v>
+        <v>37198</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D12">
-        <v>33225</v>
+        <v>34502</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13">
-        <v>25120</v>
+        <v>25958</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D14">
-        <v>20892</v>
+        <v>24819</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15">
-        <v>20104</v>
+        <v>21680</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1870,13 +1907,13 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D16">
-        <v>19617</v>
+        <v>20743</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1884,83 +1921,83 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D17">
-        <v>11043</v>
+        <v>20210</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D18">
-        <v>10767</v>
+        <v>11450</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19">
-        <v>9861</v>
+        <v>11142</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20">
-        <v>9074</v>
+        <v>10139</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21">
-        <v>4601</v>
+        <v>9243</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D22">
-        <v>4115</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1968,18 +2005,18 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23">
-        <v>3237</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>55</v>
@@ -1988,7 +2025,7 @@
         <v>70</v>
       </c>
       <c r="D24">
-        <v>1875</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1996,38 +2033,38 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25">
-        <v>1169</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2035,13 +2072,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2049,15 +2086,29 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="C29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29">
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30">
         <v>0</v>
       </c>
     </row>
@@ -2068,7 +2119,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2084,34 +2135,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B2">
-        <v>10231109</v>
+        <v>10928018</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B3">
-        <v>10231109</v>
+        <v>10928018</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4">
-        <v>1240403</v>
+        <v>1273885</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B5">
-        <v>1240403</v>
+        <v>1273885</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2119,31 +2170,31 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>951616</v>
+        <v>965087</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>245513</v>
+        <v>251710</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>209319</v>
+        <v>217066</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="B9">
-        <v>208334</v>
+        <v>214728</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2151,7 +2202,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>179893</v>
+        <v>186811</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2159,263 +2210,271 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>144594</v>
+        <v>148054</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B12">
-        <v>141780</v>
+        <v>145083</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B13">
-        <v>141780</v>
+        <v>145083</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B14">
-        <v>128431</v>
+        <v>133315</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B15">
-        <v>128431</v>
+        <v>133315</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16">
-        <v>128431</v>
+        <v>133315</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B17">
-        <v>127690</v>
+        <v>131316</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B18">
-        <v>127690</v>
+        <v>131316</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B19">
-        <v>127690</v>
+        <v>131316</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B20">
-        <v>117532</v>
+        <v>120464</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B21">
-        <v>117532</v>
+        <v>120464</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B22">
-        <v>103468</v>
+        <v>106641</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B23">
-        <v>103468</v>
+        <v>106641</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B24">
-        <v>103468</v>
+        <v>106641</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>65488</v>
+        <v>89404</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="B26">
-        <v>61406</v>
+        <v>66736</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B27">
-        <v>61406</v>
+        <v>62280</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="B28">
-        <v>53279</v>
+        <v>62280</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>28182</v>
+        <v>53992</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="B30">
-        <v>24925</v>
+        <v>28772</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B31">
-        <v>24925</v>
+        <v>25310</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B32">
-        <v>23185</v>
+        <v>25310</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B33">
-        <v>23185</v>
+        <v>23597</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="B34">
-        <v>22610</v>
+        <v>23597</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="B35">
-        <v>6653</v>
+        <v>22762</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B36">
-        <v>6653</v>
+        <v>7031</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B37">
-        <v>5244</v>
+        <v>7031</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B38">
-        <v>5244</v>
+        <v>5466</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="B39">
-        <v>4677</v>
+        <v>5466</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="B40">
-        <v>4585</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B41">
-        <v>4585</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B42">
-        <v>4585</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="B43">
-        <v>4581</v>
+        <v>4818</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44">
+        <v>4623</v>
       </c>
     </row>
   </sheetData>
@@ -2425,7 +2484,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2436,164 +2495,164 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C2">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C3">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B4">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C4">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C5">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C6">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C7">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C8">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C9">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B12">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B15">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2601,37 +2660,37 @@
         <v>9</v>
       </c>
       <c r="B16">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B17">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>26</v>
@@ -2642,18 +2701,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B21">
         <v>13</v>
@@ -2664,7 +2723,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B22">
         <v>13</v>
@@ -2675,7 +2734,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -2686,7 +2745,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B24">
         <v>13</v>
@@ -2697,7 +2756,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B25">
         <v>13</v>
@@ -2708,7 +2767,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -2719,7 +2778,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -2730,7 +2789,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B28">
         <v>10</v>
@@ -2741,7 +2800,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29">
         <v>9</v>
@@ -2752,7 +2811,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -2763,7 +2822,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -2774,7 +2833,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -2785,7 +2844,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -2796,7 +2855,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -2807,40 +2866,40 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2851,7 +2910,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2862,7 +2921,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2873,7 +2932,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2884,7 +2943,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2895,12 +2954,23 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
         <v>0</v>
       </c>
     </row>
@@ -2911,7 +2981,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2922,63 +2992,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B2">
-        <v>380486</v>
+        <v>401851</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B3">
-        <v>380486</v>
+        <v>401851</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B4">
-        <v>170493</v>
+        <v>175247</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B5">
-        <v>170493</v>
+        <v>175247</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B6">
-        <v>170493</v>
+        <v>175247</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B7">
-        <v>99093</v>
+        <v>102175</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B8">
-        <v>99093</v>
+        <v>102175</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2986,39 +3056,39 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>77832</v>
+        <v>79612</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10">
-        <v>74714</v>
+        <v>77198</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11">
-        <v>74714</v>
+        <v>77198</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B12">
-        <v>59150</v>
+        <v>60483</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B13">
-        <v>59150</v>
+        <v>60483</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3026,212 +3096,212 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>56577</v>
+        <v>57770</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B15">
-        <v>35995</v>
+        <v>37198</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16">
-        <v>35995</v>
+        <v>37198</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B17">
-        <v>35995</v>
+        <v>37198</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>33225</v>
+        <v>34502</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>25120</v>
+        <v>25958</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>20892</v>
+        <v>24819</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>20104</v>
+        <v>21680</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>19617</v>
+        <v>20743</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B23">
-        <v>19617</v>
+        <v>20210</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="B24">
-        <v>11043</v>
+        <v>20210</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>10767</v>
+        <v>11450</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26">
-        <v>10767</v>
+        <v>11142</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B27">
-        <v>9861</v>
+        <v>11142</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B28">
-        <v>9861</v>
+        <v>10139</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="B29">
-        <v>9074</v>
+        <v>10139</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>4601</v>
+        <v>9243</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="B31">
-        <v>4115</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32">
-        <v>4115</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B33">
-        <v>3237</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B34">
-        <v>3237</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B35">
-        <v>1875</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B36">
-        <v>1875</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B37">
-        <v>1875</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="B38">
-        <v>1169</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3239,7 +3309,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3247,7 +3317,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3255,9 +3325,17 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
         <v>0</v>
       </c>
     </row>
@@ -3284,138 +3362,138 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2">
-        <v>10738843</v>
+        <v>11447979</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3">
-        <v>2192019</v>
+        <v>2238972</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4">
-        <v>297425</v>
+        <v>396679</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5">
-        <v>128431</v>
+        <v>133315</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B6">
-        <v>103468</v>
+        <v>106641</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B7">
-        <v>103468</v>
+        <v>106641</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8">
-        <v>81989</v>
+        <v>83341</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B9">
-        <v>61406</v>
+        <v>62280</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B10">
-        <v>61406</v>
+        <v>62280</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B11">
-        <v>29510</v>
+        <v>30128</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B12">
-        <v>22610</v>
+        <v>22762</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B13">
-        <v>9825</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B14">
-        <v>6653</v>
+        <v>7031</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B15">
-        <v>4677</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B16">
-        <v>4677</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B17">
-        <v>4585</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B18">
-        <v>4581</v>
+        <v>4623</v>
       </c>
     </row>
   </sheetData>
@@ -3436,81 +3514,81 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C2">
-        <v>411</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C3">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>26</v>
@@ -3521,7 +3599,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -3532,7 +3610,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -3543,7 +3621,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -3554,7 +3632,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -3565,7 +3643,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -3576,7 +3654,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -3587,7 +3665,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -3598,18 +3676,18 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3620,7 +3698,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3647,132 +3725,132 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2">
-        <v>581690</v>
+        <v>609605</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B3">
-        <v>170493</v>
+        <v>175247</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4">
-        <v>136982</v>
+        <v>164914</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5">
-        <v>131291</v>
+        <v>134968</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B6">
-        <v>53066</v>
+        <v>54887</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B7">
-        <v>19617</v>
+        <v>20210</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B8">
-        <v>19617</v>
+        <v>20210</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B9">
-        <v>11736</v>
+        <v>12074</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B10">
-        <v>9074</v>
+        <v>9243</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B11">
-        <v>4601</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B12">
-        <v>4601</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B13">
-        <v>4406</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B14">
-        <v>4115</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B15">
-        <v>1875</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B16">
-        <v>1169</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3780,7 +3858,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B18">
         <v>0</v>

--- a/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
@@ -51,12 +51,12 @@
     <t>Feint</t>
   </si>
   <si>
+    <t>insaneintherainmusic</t>
+  </si>
+  <si>
     <t>Matisse &amp; Sadko</t>
   </si>
   <si>
-    <t>insaneintherainmusic</t>
-  </si>
-  <si>
     <t>Bleu Clair, OOTORO</t>
   </si>
   <si>
@@ -129,12 +129,12 @@
     <t>Do Better</t>
   </si>
   <si>
+    <t>Kass' Theme - Jazz Accordion Arrangement</t>
+  </si>
+  <si>
     <t>Meant To Be</t>
   </si>
   <si>
-    <t>Kass' Theme - Jazz Accordion Arrangement</t>
-  </si>
-  <si>
     <t>Beat Like This</t>
   </si>
   <si>
@@ -177,10 +177,10 @@
     <t>Undercover (Club Edit)</t>
   </si>
   <si>
+    <t>On My Mind (Chime Mix)</t>
+  </si>
+  <si>
     <t>Dreamer</t>
-  </si>
-  <si>
-    <t>On My Mind (Chime Mix)</t>
   </si>
   <si>
     <t>Missing</t>
@@ -761,7 +761,7 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>10928018</v>
+        <v>11372908</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -775,7 +775,7 @@
         <v>60</v>
       </c>
       <c r="D3">
-        <v>1273885</v>
+        <v>1303408</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -789,7 +789,7 @@
         <v>60</v>
       </c>
       <c r="D4">
-        <v>965087</v>
+        <v>976466</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -803,7 +803,7 @@
         <v>61</v>
       </c>
       <c r="D5">
-        <v>214728</v>
+        <v>218845</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -817,7 +817,7 @@
         <v>62</v>
       </c>
       <c r="D6">
-        <v>186811</v>
+        <v>192561</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -828,10 +828,10 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>148054</v>
+        <v>151381</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -842,10 +842,10 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8">
-        <v>145356</v>
+        <v>151366</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -859,7 +859,7 @@
         <v>59</v>
       </c>
       <c r="D9">
-        <v>145083</v>
+        <v>148639</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -873,7 +873,7 @@
         <v>59</v>
       </c>
       <c r="D10">
-        <v>131316</v>
+        <v>135020</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -887,7 +887,7 @@
         <v>62</v>
       </c>
       <c r="D11">
-        <v>120464</v>
+        <v>122985</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -901,7 +901,7 @@
         <v>63</v>
       </c>
       <c r="D12">
-        <v>106641</v>
+        <v>109336</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -915,7 +915,7 @@
         <v>62</v>
       </c>
       <c r="D13">
-        <v>89404</v>
+        <v>93048</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -929,12 +929,12 @@
         <v>64</v>
       </c>
       <c r="D14">
-        <v>79093</v>
+        <v>81155</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
@@ -943,7 +943,7 @@
         <v>61</v>
       </c>
       <c r="D15">
-        <v>71710</v>
+        <v>73762</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -957,7 +957,7 @@
         <v>59</v>
       </c>
       <c r="D16">
-        <v>66736</v>
+        <v>68307</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -971,7 +971,7 @@
         <v>65</v>
       </c>
       <c r="D17">
-        <v>62280</v>
+        <v>62893</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -985,7 +985,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>53992</v>
+        <v>54648</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -999,7 +999,7 @@
         <v>66</v>
       </c>
       <c r="D19">
-        <v>36982</v>
+        <v>37579</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1013,7 +1013,7 @@
         <v>64</v>
       </c>
       <c r="D20">
-        <v>30796</v>
+        <v>31827</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1027,7 +1027,7 @@
         <v>59</v>
       </c>
       <c r="D21">
-        <v>28772</v>
+        <v>29405</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1041,35 +1041,35 @@
         <v>67</v>
       </c>
       <c r="D22">
-        <v>25310</v>
+        <v>25850</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D23">
-        <v>23597</v>
+        <v>24896</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D24">
-        <v>23426</v>
+        <v>23966</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1083,7 +1083,7 @@
         <v>68</v>
       </c>
       <c r="D25">
-        <v>22762</v>
+        <v>22853</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1097,7 +1097,7 @@
         <v>69</v>
       </c>
       <c r="D26">
-        <v>7031</v>
+        <v>7556</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1111,7 +1111,7 @@
         <v>70</v>
       </c>
       <c r="D27">
-        <v>5466</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1125,7 +1125,7 @@
         <v>71</v>
       </c>
       <c r="D28">
-        <v>4987</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1139,7 +1139,7 @@
         <v>72</v>
       </c>
       <c r="D29">
-        <v>4818</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1153,7 +1153,7 @@
         <v>73</v>
       </c>
       <c r="D30">
-        <v>4623</v>
+        <v>4677</v>
       </c>
     </row>
   </sheetData>
@@ -1200,7 +1200,7 @@
         <v>126</v>
       </c>
       <c r="E2">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>59</v>
       </c>
       <c r="D4">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>59</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1293,7 +1293,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>59</v>
@@ -1353,24 +1353,24 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>59</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1384,10 +1384,10 @@
         <v>67</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1463,16 +1463,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1579,7 +1579,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
         <v>61</v>
@@ -1717,7 +1717,7 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>401851</v>
+        <v>421412</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1731,7 +1731,7 @@
         <v>59</v>
       </c>
       <c r="D3">
-        <v>102175</v>
+        <v>105245</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1745,7 +1745,7 @@
         <v>62</v>
       </c>
       <c r="D4">
-        <v>79612</v>
+        <v>81246</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1759,7 +1759,7 @@
         <v>60</v>
       </c>
       <c r="D5">
-        <v>77198</v>
+        <v>79502</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1773,7 +1773,7 @@
         <v>64</v>
       </c>
       <c r="D6">
-        <v>73440</v>
+        <v>75536</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1781,13 +1781,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
       </c>
       <c r="D7">
-        <v>62030</v>
+        <v>63588</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1801,7 +1801,7 @@
         <v>62</v>
       </c>
       <c r="D8">
-        <v>60483</v>
+        <v>61635</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1815,7 +1815,7 @@
         <v>60</v>
       </c>
       <c r="D9">
-        <v>57770</v>
+        <v>58711</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1829,7 +1829,7 @@
         <v>64</v>
       </c>
       <c r="D10">
-        <v>39777</v>
+        <v>40995</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1843,7 +1843,7 @@
         <v>59</v>
       </c>
       <c r="D11">
-        <v>37198</v>
+        <v>38398</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1857,7 +1857,7 @@
         <v>66</v>
       </c>
       <c r="D12">
-        <v>34502</v>
+        <v>35566</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1871,7 +1871,7 @@
         <v>59</v>
       </c>
       <c r="D13">
-        <v>25958</v>
+        <v>26828</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1885,21 +1885,21 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>24819</v>
+        <v>25985</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
       </c>
       <c r="D15">
-        <v>21680</v>
+        <v>22433</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1913,7 +1913,7 @@
         <v>59</v>
       </c>
       <c r="D16">
-        <v>20743</v>
+        <v>21307</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1927,7 +1927,7 @@
         <v>65</v>
       </c>
       <c r="D17">
-        <v>20210</v>
+        <v>20770</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1941,7 +1941,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>11450</v>
+        <v>11766</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1949,13 +1949,13 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
       </c>
       <c r="D19">
-        <v>11142</v>
+        <v>11453</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1969,7 +1969,7 @@
         <v>67</v>
       </c>
       <c r="D20">
-        <v>10139</v>
+        <v>10349</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1983,7 +1983,7 @@
         <v>68</v>
       </c>
       <c r="D21">
-        <v>9243</v>
+        <v>9372</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1997,7 +1997,7 @@
         <v>71</v>
       </c>
       <c r="D22">
-        <v>4868</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2011,7 +2011,7 @@
         <v>69</v>
       </c>
       <c r="D23">
-        <v>4220</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2025,7 +2025,7 @@
         <v>70</v>
       </c>
       <c r="D24">
-        <v>3328</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2039,7 +2039,7 @@
         <v>72</v>
       </c>
       <c r="D25">
-        <v>1935</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2053,7 +2053,7 @@
         <v>73</v>
       </c>
       <c r="D26">
-        <v>1185</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2072,7 +2072,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
@@ -2100,10 +2100,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
@@ -2138,7 +2138,7 @@
         <v>77</v>
       </c>
       <c r="B2">
-        <v>10928018</v>
+        <v>11372908</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>78</v>
       </c>
       <c r="B3">
-        <v>10928018</v>
+        <v>11372908</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>79</v>
       </c>
       <c r="B4">
-        <v>1273885</v>
+        <v>1303408</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>80</v>
       </c>
       <c r="B5">
-        <v>1273885</v>
+        <v>1303408</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>965087</v>
+        <v>976466</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2178,15 +2178,15 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>251710</v>
+        <v>256424</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>217066</v>
+        <v>225143</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>81</v>
       </c>
       <c r="B9">
-        <v>214728</v>
+        <v>218845</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2202,15 +2202,15 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>186811</v>
+        <v>192561</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>148054</v>
+        <v>151366</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>82</v>
       </c>
       <c r="B12">
-        <v>145083</v>
+        <v>148639</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>83</v>
       </c>
       <c r="B13">
-        <v>145083</v>
+        <v>148639</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>84</v>
       </c>
       <c r="B14">
-        <v>133315</v>
+        <v>137878</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>85</v>
       </c>
       <c r="B15">
-        <v>133315</v>
+        <v>137878</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>86</v>
       </c>
       <c r="B16">
-        <v>133315</v>
+        <v>137878</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>87</v>
       </c>
       <c r="B17">
-        <v>131316</v>
+        <v>135020</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>88</v>
       </c>
       <c r="B18">
-        <v>131316</v>
+        <v>135020</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>89</v>
       </c>
       <c r="B19">
-        <v>131316</v>
+        <v>135020</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>90</v>
       </c>
       <c r="B20">
-        <v>120464</v>
+        <v>122985</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>91</v>
       </c>
       <c r="B21">
-        <v>120464</v>
+        <v>122985</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>92</v>
       </c>
       <c r="B22">
-        <v>106641</v>
+        <v>109336</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>93</v>
       </c>
       <c r="B23">
-        <v>106641</v>
+        <v>109336</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>94</v>
       </c>
       <c r="B24">
-        <v>106641</v>
+        <v>109336</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>15</v>
       </c>
       <c r="B25">
-        <v>89404</v>
+        <v>93048</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>17</v>
       </c>
       <c r="B26">
-        <v>66736</v>
+        <v>68307</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>95</v>
       </c>
       <c r="B27">
-        <v>62280</v>
+        <v>62893</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>96</v>
       </c>
       <c r="B28">
-        <v>62280</v>
+        <v>62893</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>19</v>
       </c>
       <c r="B29">
-        <v>53992</v>
+        <v>54648</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>21</v>
       </c>
       <c r="B30">
-        <v>28772</v>
+        <v>29405</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>97</v>
       </c>
       <c r="B31">
-        <v>25310</v>
+        <v>25850</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>98</v>
       </c>
       <c r="B32">
-        <v>25310</v>
+        <v>25850</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>99</v>
       </c>
       <c r="B33">
-        <v>23597</v>
+        <v>23966</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>100</v>
       </c>
       <c r="B34">
-        <v>23597</v>
+        <v>23966</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>24</v>
       </c>
       <c r="B35">
-        <v>22762</v>
+        <v>22853</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>101</v>
       </c>
       <c r="B36">
-        <v>7031</v>
+        <v>7556</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>102</v>
       </c>
       <c r="B37">
-        <v>7031</v>
+        <v>7556</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>103</v>
       </c>
       <c r="B38">
-        <v>5466</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>104</v>
       </c>
       <c r="B39">
-        <v>5466</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>27</v>
       </c>
       <c r="B40">
-        <v>4987</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>105</v>
       </c>
       <c r="B41">
-        <v>4818</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>106</v>
       </c>
       <c r="B42">
-        <v>4818</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>107</v>
       </c>
       <c r="B43">
-        <v>4818</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>29</v>
       </c>
       <c r="B44">
-        <v>4623</v>
+        <v>4677</v>
       </c>
     </row>
   </sheetData>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>126</v>
@@ -2514,24 +2514,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>126</v>
       </c>
       <c r="C3">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>126</v>
       </c>
       <c r="C4">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2539,10 +2539,10 @@
         <v>87</v>
       </c>
       <c r="B5">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2550,10 +2550,10 @@
         <v>88</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2561,10 +2561,10 @@
         <v>89</v>
       </c>
       <c r="B7">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2572,10 +2572,10 @@
         <v>77</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2583,10 +2583,10 @@
         <v>78</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2657,7 +2657,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>33</v>
@@ -2690,24 +2690,24 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>26</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2715,10 +2715,10 @@
         <v>97</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2726,10 +2726,10 @@
         <v>98</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2770,10 +2770,10 @@
         <v>84</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2781,10 +2781,10 @@
         <v>85</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2792,10 +2792,10 @@
         <v>86</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2954,7 +2954,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>77</v>
       </c>
       <c r="B2">
-        <v>401851</v>
+        <v>421412</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3008,7 +3008,7 @@
         <v>78</v>
       </c>
       <c r="B3">
-        <v>401851</v>
+        <v>421412</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3016,7 +3016,7 @@
         <v>84</v>
       </c>
       <c r="B4">
-        <v>175247</v>
+        <v>180119</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3024,7 +3024,7 @@
         <v>85</v>
       </c>
       <c r="B5">
-        <v>175247</v>
+        <v>180119</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3032,7 +3032,7 @@
         <v>86</v>
       </c>
       <c r="B6">
-        <v>175247</v>
+        <v>180119</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3040,7 +3040,7 @@
         <v>82</v>
       </c>
       <c r="B7">
-        <v>102175</v>
+        <v>105245</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3048,7 +3048,7 @@
         <v>83</v>
       </c>
       <c r="B8">
-        <v>102175</v>
+        <v>105245</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3056,7 +3056,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>79612</v>
+        <v>81246</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3064,7 +3064,7 @@
         <v>79</v>
       </c>
       <c r="B10">
-        <v>77198</v>
+        <v>79502</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3072,7 +3072,7 @@
         <v>80</v>
       </c>
       <c r="B11">
-        <v>77198</v>
+        <v>79502</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3080,7 +3080,7 @@
         <v>90</v>
       </c>
       <c r="B12">
-        <v>60483</v>
+        <v>61635</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3088,7 +3088,7 @@
         <v>91</v>
       </c>
       <c r="B13">
-        <v>60483</v>
+        <v>61635</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3096,7 +3096,7 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>57770</v>
+        <v>58711</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3104,7 +3104,7 @@
         <v>87</v>
       </c>
       <c r="B15">
-        <v>37198</v>
+        <v>38398</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3112,7 +3112,7 @@
         <v>88</v>
       </c>
       <c r="B16">
-        <v>37198</v>
+        <v>38398</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3120,7 +3120,7 @@
         <v>89</v>
       </c>
       <c r="B17">
-        <v>37198</v>
+        <v>38398</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3128,7 +3128,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>34502</v>
+        <v>35566</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3136,7 +3136,7 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>25958</v>
+        <v>26828</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3144,15 +3144,15 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>24819</v>
+        <v>25985</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>21680</v>
+        <v>22433</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3160,7 +3160,7 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>20743</v>
+        <v>21307</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3168,7 +3168,7 @@
         <v>95</v>
       </c>
       <c r="B23">
-        <v>20210</v>
+        <v>20770</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3176,7 +3176,7 @@
         <v>96</v>
       </c>
       <c r="B24">
-        <v>20210</v>
+        <v>20770</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3184,7 +3184,7 @@
         <v>19</v>
       </c>
       <c r="B25">
-        <v>11450</v>
+        <v>11766</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3192,7 +3192,7 @@
         <v>99</v>
       </c>
       <c r="B26">
-        <v>11142</v>
+        <v>11453</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3200,7 +3200,7 @@
         <v>100</v>
       </c>
       <c r="B27">
-        <v>11142</v>
+        <v>11453</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3208,7 +3208,7 @@
         <v>97</v>
       </c>
       <c r="B28">
-        <v>10139</v>
+        <v>10349</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3216,7 +3216,7 @@
         <v>98</v>
       </c>
       <c r="B29">
-        <v>10139</v>
+        <v>10349</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3224,7 +3224,7 @@
         <v>24</v>
       </c>
       <c r="B30">
-        <v>9243</v>
+        <v>9372</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3232,7 +3232,7 @@
         <v>27</v>
       </c>
       <c r="B31">
-        <v>4868</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3240,7 +3240,7 @@
         <v>101</v>
       </c>
       <c r="B32">
-        <v>4220</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3248,7 +3248,7 @@
         <v>102</v>
       </c>
       <c r="B33">
-        <v>4220</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3256,7 +3256,7 @@
         <v>103</v>
       </c>
       <c r="B34">
-        <v>3328</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3264,7 +3264,7 @@
         <v>104</v>
       </c>
       <c r="B35">
-        <v>3328</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3272,7 +3272,7 @@
         <v>105</v>
       </c>
       <c r="B36">
-        <v>1935</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3280,7 +3280,7 @@
         <v>106</v>
       </c>
       <c r="B37">
-        <v>1935</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3288,7 +3288,7 @@
         <v>107</v>
       </c>
       <c r="B38">
-        <v>1935</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3296,7 +3296,7 @@
         <v>29</v>
       </c>
       <c r="B39">
-        <v>1185</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3333,7 +3333,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>11447979</v>
+        <v>11905645</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3373,7 +3373,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>2238972</v>
+        <v>2279874</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3381,7 +3381,7 @@
         <v>62</v>
       </c>
       <c r="B4">
-        <v>396679</v>
+        <v>408594</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3389,7 +3389,7 @@
         <v>64</v>
       </c>
       <c r="B5">
-        <v>133315</v>
+        <v>137878</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3397,7 +3397,7 @@
         <v>108</v>
       </c>
       <c r="B6">
-        <v>106641</v>
+        <v>109336</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3405,7 +3405,7 @@
         <v>109</v>
       </c>
       <c r="B7">
-        <v>106641</v>
+        <v>109336</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3413,7 +3413,7 @@
         <v>66</v>
       </c>
       <c r="B8">
-        <v>83341</v>
+        <v>84398</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3421,7 +3421,7 @@
         <v>110</v>
       </c>
       <c r="B9">
-        <v>62280</v>
+        <v>62893</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3429,7 +3429,7 @@
         <v>111</v>
       </c>
       <c r="B10">
-        <v>62280</v>
+        <v>62893</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3437,7 +3437,7 @@
         <v>67</v>
       </c>
       <c r="B11">
-        <v>30128</v>
+        <v>30849</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3445,7 +3445,7 @@
         <v>112</v>
       </c>
       <c r="B12">
-        <v>22762</v>
+        <v>22853</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3453,7 +3453,7 @@
         <v>70</v>
       </c>
       <c r="B13">
-        <v>10089</v>
+        <v>10348</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3461,7 +3461,7 @@
         <v>69</v>
       </c>
       <c r="B14">
-        <v>7031</v>
+        <v>7556</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3469,7 +3469,7 @@
         <v>113</v>
       </c>
       <c r="B15">
-        <v>4987</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>114</v>
       </c>
       <c r="B16">
-        <v>4987</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3485,7 +3485,7 @@
         <v>115</v>
       </c>
       <c r="B17">
-        <v>4818</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3493,7 +3493,7 @@
         <v>116</v>
       </c>
       <c r="B18">
-        <v>4623</v>
+        <v>4677</v>
       </c>
     </row>
   </sheetData>
@@ -3525,10 +3525,10 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C2">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3591,10 +3591,10 @@
         <v>67</v>
       </c>
       <c r="B8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3613,10 +3613,10 @@
         <v>64</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3733,7 +3733,7 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>609605</v>
+        <v>635623</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3741,7 +3741,7 @@
         <v>64</v>
       </c>
       <c r="B3">
-        <v>175247</v>
+        <v>180119</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3749,7 +3749,7 @@
         <v>62</v>
       </c>
       <c r="B4">
-        <v>164914</v>
+        <v>168866</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3757,7 +3757,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>134968</v>
+        <v>138213</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3765,7 +3765,7 @@
         <v>66</v>
       </c>
       <c r="B6">
-        <v>54887</v>
+        <v>56391</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3773,7 +3773,7 @@
         <v>110</v>
       </c>
       <c r="B7">
-        <v>20210</v>
+        <v>20770</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3781,7 +3781,7 @@
         <v>111</v>
       </c>
       <c r="B8">
-        <v>20210</v>
+        <v>20770</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3789,7 +3789,7 @@
         <v>67</v>
       </c>
       <c r="B9">
-        <v>12074</v>
+        <v>12329</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3797,7 +3797,7 @@
         <v>112</v>
       </c>
       <c r="B10">
-        <v>9243</v>
+        <v>9372</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3805,7 +3805,7 @@
         <v>113</v>
       </c>
       <c r="B11">
-        <v>4868</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3813,7 +3813,7 @@
         <v>114</v>
       </c>
       <c r="B12">
-        <v>4868</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3821,7 +3821,7 @@
         <v>70</v>
       </c>
       <c r="B13">
-        <v>4513</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3829,7 +3829,7 @@
         <v>69</v>
       </c>
       <c r="B14">
-        <v>4220</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3837,7 +3837,7 @@
         <v>115</v>
       </c>
       <c r="B15">
-        <v>1935</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3845,7 +3845,7 @@
         <v>116</v>
       </c>
       <c r="B16">
-        <v>1185</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="17" spans="1:2">

--- a/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
@@ -174,10 +174,10 @@
     <t>Miss</t>
   </si>
   <si>
+    <t>On My Mind (Chime Mix)</t>
+  </si>
+  <si>
     <t>Undercover (Club Edit)</t>
-  </si>
-  <si>
-    <t>On My Mind (Chime Mix)</t>
   </si>
   <si>
     <t>Dreamer</t>
@@ -761,7 +761,7 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>11372908</v>
+        <v>11771992</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -775,7 +775,7 @@
         <v>60</v>
       </c>
       <c r="D3">
-        <v>1303408</v>
+        <v>1335960</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -789,7 +789,7 @@
         <v>60</v>
       </c>
       <c r="D4">
-        <v>976466</v>
+        <v>988540</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -803,7 +803,7 @@
         <v>61</v>
       </c>
       <c r="D5">
-        <v>218845</v>
+        <v>224073</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -817,7 +817,7 @@
         <v>62</v>
       </c>
       <c r="D6">
-        <v>192561</v>
+        <v>198648</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>151381</v>
+        <v>157551</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -845,7 +845,7 @@
         <v>59</v>
       </c>
       <c r="D8">
-        <v>151366</v>
+        <v>154699</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -859,7 +859,7 @@
         <v>59</v>
       </c>
       <c r="D9">
-        <v>148639</v>
+        <v>152329</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -873,7 +873,7 @@
         <v>59</v>
       </c>
       <c r="D10">
-        <v>135020</v>
+        <v>138791</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -887,7 +887,7 @@
         <v>62</v>
       </c>
       <c r="D11">
-        <v>122985</v>
+        <v>126197</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -901,7 +901,7 @@
         <v>63</v>
       </c>
       <c r="D12">
-        <v>109336</v>
+        <v>112495</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -915,7 +915,7 @@
         <v>62</v>
       </c>
       <c r="D13">
-        <v>93048</v>
+        <v>96759</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -929,7 +929,7 @@
         <v>64</v>
       </c>
       <c r="D14">
-        <v>81155</v>
+        <v>83338</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -943,7 +943,7 @@
         <v>61</v>
       </c>
       <c r="D15">
-        <v>73762</v>
+        <v>76185</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -957,7 +957,7 @@
         <v>59</v>
       </c>
       <c r="D16">
-        <v>68307</v>
+        <v>69967</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -971,7 +971,7 @@
         <v>65</v>
       </c>
       <c r="D17">
-        <v>62893</v>
+        <v>63539</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -985,7 +985,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>54648</v>
+        <v>55240</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -999,7 +999,7 @@
         <v>66</v>
       </c>
       <c r="D19">
-        <v>37579</v>
+        <v>38162</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1013,7 +1013,7 @@
         <v>64</v>
       </c>
       <c r="D20">
-        <v>31827</v>
+        <v>32890</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1027,35 +1027,35 @@
         <v>59</v>
       </c>
       <c r="D21">
-        <v>29405</v>
+        <v>30048</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>25850</v>
+        <v>26395</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D23">
-        <v>24896</v>
+        <v>26198</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1069,7 +1069,7 @@
         <v>66</v>
       </c>
       <c r="D24">
-        <v>23966</v>
+        <v>24403</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1083,7 +1083,7 @@
         <v>68</v>
       </c>
       <c r="D25">
-        <v>22853</v>
+        <v>22971</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1097,7 +1097,7 @@
         <v>69</v>
       </c>
       <c r="D26">
-        <v>7556</v>
+        <v>7766</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1111,7 +1111,7 @@
         <v>70</v>
       </c>
       <c r="D27">
-        <v>5671</v>
+        <v>5933</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1125,7 +1125,7 @@
         <v>71</v>
       </c>
       <c r="D28">
-        <v>5319</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1139,7 +1139,7 @@
         <v>72</v>
       </c>
       <c r="D29">
-        <v>4999</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1153,7 +1153,7 @@
         <v>73</v>
       </c>
       <c r="D30">
-        <v>4677</v>
+        <v>4731</v>
       </c>
     </row>
   </sheetData>
@@ -1197,10 +1197,10 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E2">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>66</v>
       </c>
       <c r="D3">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E3">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1251,7 +1251,7 @@
         <v>62</v>
       </c>
       <c r="E5">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1336,7 +1336,7 @@
         <v>32</v>
       </c>
       <c r="E10">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1378,7 +1378,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>67</v>
@@ -1463,7 +1463,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -1717,7 +1717,7 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>421412</v>
+        <v>441639</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1731,7 +1731,7 @@
         <v>59</v>
       </c>
       <c r="D3">
-        <v>105245</v>
+        <v>108329</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1745,7 +1745,7 @@
         <v>62</v>
       </c>
       <c r="D4">
-        <v>81246</v>
+        <v>82948</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1759,7 +1759,7 @@
         <v>60</v>
       </c>
       <c r="D5">
-        <v>79502</v>
+        <v>82143</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1773,7 +1773,7 @@
         <v>64</v>
       </c>
       <c r="D6">
-        <v>75536</v>
+        <v>77480</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1781,13 +1781,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
       </c>
       <c r="D7">
-        <v>63588</v>
+        <v>64951</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1801,7 +1801,7 @@
         <v>62</v>
       </c>
       <c r="D8">
-        <v>61635</v>
+        <v>62760</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1815,7 +1815,7 @@
         <v>60</v>
       </c>
       <c r="D9">
-        <v>58711</v>
+        <v>59620</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1829,7 +1829,7 @@
         <v>64</v>
       </c>
       <c r="D10">
-        <v>40995</v>
+        <v>42008</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1843,7 +1843,7 @@
         <v>59</v>
       </c>
       <c r="D11">
-        <v>38398</v>
+        <v>39629</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1857,7 +1857,7 @@
         <v>66</v>
       </c>
       <c r="D12">
-        <v>35566</v>
+        <v>36689</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1871,7 +1871,7 @@
         <v>59</v>
       </c>
       <c r="D13">
-        <v>26828</v>
+        <v>27726</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1885,7 +1885,7 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>25985</v>
+        <v>26945</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1899,7 +1899,7 @@
         <v>59</v>
       </c>
       <c r="D15">
-        <v>22433</v>
+        <v>23149</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1913,7 +1913,7 @@
         <v>59</v>
       </c>
       <c r="D16">
-        <v>21307</v>
+        <v>21900</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1927,7 +1927,7 @@
         <v>65</v>
       </c>
       <c r="D17">
-        <v>20770</v>
+        <v>21313</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1941,7 +1941,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>11766</v>
+        <v>12054</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1955,7 +1955,7 @@
         <v>66</v>
       </c>
       <c r="D19">
-        <v>11453</v>
+        <v>11815</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1963,13 +1963,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
         <v>67</v>
       </c>
       <c r="D20">
-        <v>10349</v>
+        <v>10577</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1983,7 +1983,7 @@
         <v>68</v>
       </c>
       <c r="D21">
-        <v>9372</v>
+        <v>9567</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1997,7 +1997,7 @@
         <v>71</v>
       </c>
       <c r="D22">
-        <v>5153</v>
+        <v>5394</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2011,7 +2011,7 @@
         <v>69</v>
       </c>
       <c r="D23">
-        <v>4304</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2025,7 +2025,7 @@
         <v>70</v>
       </c>
       <c r="D24">
-        <v>3399</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2039,7 +2039,7 @@
         <v>72</v>
       </c>
       <c r="D25">
-        <v>1980</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2053,7 +2053,7 @@
         <v>73</v>
       </c>
       <c r="D26">
-        <v>1200</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2138,7 +2138,7 @@
         <v>77</v>
       </c>
       <c r="B2">
-        <v>11372908</v>
+        <v>11771992</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>78</v>
       </c>
       <c r="B3">
-        <v>11372908</v>
+        <v>11771992</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>79</v>
       </c>
       <c r="B4">
-        <v>1303408</v>
+        <v>1335960</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>80</v>
       </c>
       <c r="B5">
-        <v>1303408</v>
+        <v>1335960</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>976466</v>
+        <v>988540</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>256424</v>
+        <v>262235</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>225143</v>
+        <v>233736</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>81</v>
       </c>
       <c r="B9">
-        <v>218845</v>
+        <v>224073</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>192561</v>
+        <v>198648</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>151366</v>
+        <v>154699</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>82</v>
       </c>
       <c r="B12">
-        <v>148639</v>
+        <v>152329</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>83</v>
       </c>
       <c r="B13">
-        <v>148639</v>
+        <v>152329</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>84</v>
       </c>
       <c r="B14">
-        <v>137878</v>
+        <v>142623</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>85</v>
       </c>
       <c r="B15">
-        <v>137878</v>
+        <v>142623</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>86</v>
       </c>
       <c r="B16">
-        <v>137878</v>
+        <v>142623</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>87</v>
       </c>
       <c r="B17">
-        <v>135020</v>
+        <v>138791</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>88</v>
       </c>
       <c r="B18">
-        <v>135020</v>
+        <v>138791</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>89</v>
       </c>
       <c r="B19">
-        <v>135020</v>
+        <v>138791</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>90</v>
       </c>
       <c r="B20">
-        <v>122985</v>
+        <v>126197</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>91</v>
       </c>
       <c r="B21">
-        <v>122985</v>
+        <v>126197</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>92</v>
       </c>
       <c r="B22">
-        <v>109336</v>
+        <v>112495</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>93</v>
       </c>
       <c r="B23">
-        <v>109336</v>
+        <v>112495</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>94</v>
       </c>
       <c r="B24">
-        <v>109336</v>
+        <v>112495</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>15</v>
       </c>
       <c r="B25">
-        <v>93048</v>
+        <v>96759</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>17</v>
       </c>
       <c r="B26">
-        <v>68307</v>
+        <v>69967</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>95</v>
       </c>
       <c r="B27">
-        <v>62893</v>
+        <v>63539</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>96</v>
       </c>
       <c r="B28">
-        <v>62893</v>
+        <v>63539</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>19</v>
       </c>
       <c r="B29">
-        <v>54648</v>
+        <v>55240</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>21</v>
       </c>
       <c r="B30">
-        <v>29405</v>
+        <v>30048</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>97</v>
       </c>
       <c r="B31">
-        <v>25850</v>
+        <v>26198</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>98</v>
       </c>
       <c r="B32">
-        <v>25850</v>
+        <v>26198</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>99</v>
       </c>
       <c r="B33">
-        <v>23966</v>
+        <v>24403</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>100</v>
       </c>
       <c r="B34">
-        <v>23966</v>
+        <v>24403</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>24</v>
       </c>
       <c r="B35">
-        <v>22853</v>
+        <v>22971</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>101</v>
       </c>
       <c r="B36">
-        <v>7556</v>
+        <v>7766</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>102</v>
       </c>
       <c r="B37">
-        <v>7556</v>
+        <v>7766</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>103</v>
       </c>
       <c r="B38">
-        <v>5671</v>
+        <v>5933</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>104</v>
       </c>
       <c r="B39">
-        <v>5671</v>
+        <v>5933</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>27</v>
       </c>
       <c r="B40">
-        <v>5319</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>105</v>
       </c>
       <c r="B41">
-        <v>4999</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>106</v>
       </c>
       <c r="B42">
-        <v>4999</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>107</v>
       </c>
       <c r="B43">
-        <v>4999</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>29</v>
       </c>
       <c r="B44">
-        <v>4677</v>
+        <v>4731</v>
       </c>
     </row>
   </sheetData>
@@ -2506,10 +2506,10 @@
         <v>82</v>
       </c>
       <c r="B2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2517,10 +2517,10 @@
         <v>83</v>
       </c>
       <c r="B3">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2528,10 +2528,10 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C4">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>62</v>
       </c>
       <c r="C8">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>62</v>
       </c>
       <c r="C9">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>32</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>32</v>
       </c>
       <c r="C18">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3000,7 +3000,7 @@
         <v>77</v>
       </c>
       <c r="B2">
-        <v>421412</v>
+        <v>441639</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3008,7 +3008,7 @@
         <v>78</v>
       </c>
       <c r="B3">
-        <v>421412</v>
+        <v>441639</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3016,7 +3016,7 @@
         <v>84</v>
       </c>
       <c r="B4">
-        <v>180119</v>
+        <v>184439</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3024,7 +3024,7 @@
         <v>85</v>
       </c>
       <c r="B5">
-        <v>180119</v>
+        <v>184439</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3032,7 +3032,7 @@
         <v>86</v>
       </c>
       <c r="B6">
-        <v>180119</v>
+        <v>184439</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3040,7 +3040,7 @@
         <v>82</v>
       </c>
       <c r="B7">
-        <v>105245</v>
+        <v>108329</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3048,7 +3048,7 @@
         <v>83</v>
       </c>
       <c r="B8">
-        <v>105245</v>
+        <v>108329</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3056,7 +3056,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>81246</v>
+        <v>82948</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3064,7 +3064,7 @@
         <v>79</v>
       </c>
       <c r="B10">
-        <v>79502</v>
+        <v>82143</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3072,7 +3072,7 @@
         <v>80</v>
       </c>
       <c r="B11">
-        <v>79502</v>
+        <v>82143</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3080,7 +3080,7 @@
         <v>90</v>
       </c>
       <c r="B12">
-        <v>61635</v>
+        <v>62760</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3088,7 +3088,7 @@
         <v>91</v>
       </c>
       <c r="B13">
-        <v>61635</v>
+        <v>62760</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3096,7 +3096,7 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>58711</v>
+        <v>59620</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3104,7 +3104,7 @@
         <v>87</v>
       </c>
       <c r="B15">
-        <v>38398</v>
+        <v>39629</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3112,7 +3112,7 @@
         <v>88</v>
       </c>
       <c r="B16">
-        <v>38398</v>
+        <v>39629</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3120,7 +3120,7 @@
         <v>89</v>
       </c>
       <c r="B17">
-        <v>38398</v>
+        <v>39629</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3128,7 +3128,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>35566</v>
+        <v>36689</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3136,7 +3136,7 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>26828</v>
+        <v>27726</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3144,7 +3144,7 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>25985</v>
+        <v>26945</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3152,7 +3152,7 @@
         <v>10</v>
       </c>
       <c r="B21">
-        <v>22433</v>
+        <v>23149</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3160,7 +3160,7 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>21307</v>
+        <v>21900</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3168,7 +3168,7 @@
         <v>95</v>
       </c>
       <c r="B23">
-        <v>20770</v>
+        <v>21313</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3176,7 +3176,7 @@
         <v>96</v>
       </c>
       <c r="B24">
-        <v>20770</v>
+        <v>21313</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3184,7 +3184,7 @@
         <v>19</v>
       </c>
       <c r="B25">
-        <v>11766</v>
+        <v>12054</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3192,7 +3192,7 @@
         <v>99</v>
       </c>
       <c r="B26">
-        <v>11453</v>
+        <v>11815</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3200,7 +3200,7 @@
         <v>100</v>
       </c>
       <c r="B27">
-        <v>11453</v>
+        <v>11815</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3208,7 +3208,7 @@
         <v>97</v>
       </c>
       <c r="B28">
-        <v>10349</v>
+        <v>10577</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3216,7 +3216,7 @@
         <v>98</v>
       </c>
       <c r="B29">
-        <v>10349</v>
+        <v>10577</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3224,7 +3224,7 @@
         <v>24</v>
       </c>
       <c r="B30">
-        <v>9372</v>
+        <v>9567</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3232,7 +3232,7 @@
         <v>27</v>
       </c>
       <c r="B31">
-        <v>5153</v>
+        <v>5394</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3240,7 +3240,7 @@
         <v>101</v>
       </c>
       <c r="B32">
-        <v>4304</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3248,7 +3248,7 @@
         <v>102</v>
       </c>
       <c r="B33">
-        <v>4304</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3256,7 +3256,7 @@
         <v>103</v>
       </c>
       <c r="B34">
-        <v>3399</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3264,7 +3264,7 @@
         <v>104</v>
       </c>
       <c r="B35">
-        <v>3399</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3272,7 +3272,7 @@
         <v>105</v>
       </c>
       <c r="B36">
-        <v>1980</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3280,7 +3280,7 @@
         <v>106</v>
       </c>
       <c r="B37">
-        <v>1980</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3288,7 +3288,7 @@
         <v>107</v>
       </c>
       <c r="B38">
-        <v>1980</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3296,7 +3296,7 @@
         <v>29</v>
       </c>
       <c r="B39">
-        <v>1200</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3365,7 +3365,7 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>11905645</v>
+        <v>12317826</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3373,7 +3373,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>2279874</v>
+        <v>2324500</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3381,7 +3381,7 @@
         <v>62</v>
       </c>
       <c r="B4">
-        <v>408594</v>
+        <v>421604</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3389,7 +3389,7 @@
         <v>64</v>
       </c>
       <c r="B5">
-        <v>137878</v>
+        <v>142623</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3397,7 +3397,7 @@
         <v>108</v>
       </c>
       <c r="B6">
-        <v>109336</v>
+        <v>112495</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3405,7 +3405,7 @@
         <v>109</v>
       </c>
       <c r="B7">
-        <v>109336</v>
+        <v>112495</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3413,7 +3413,7 @@
         <v>66</v>
       </c>
       <c r="B8">
-        <v>84398</v>
+        <v>85536</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3421,7 +3421,7 @@
         <v>110</v>
       </c>
       <c r="B9">
-        <v>62893</v>
+        <v>63539</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3429,7 +3429,7 @@
         <v>111</v>
       </c>
       <c r="B10">
-        <v>62893</v>
+        <v>63539</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3437,7 +3437,7 @@
         <v>67</v>
       </c>
       <c r="B11">
-        <v>30849</v>
+        <v>31387</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3445,7 +3445,7 @@
         <v>112</v>
       </c>
       <c r="B12">
-        <v>22853</v>
+        <v>22971</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3453,7 +3453,7 @@
         <v>70</v>
       </c>
       <c r="B13">
-        <v>10348</v>
+        <v>10664</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3461,7 +3461,7 @@
         <v>69</v>
       </c>
       <c r="B14">
-        <v>7556</v>
+        <v>7766</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3469,7 +3469,7 @@
         <v>113</v>
       </c>
       <c r="B15">
-        <v>5319</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>114</v>
       </c>
       <c r="B16">
-        <v>5319</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3485,7 +3485,7 @@
         <v>115</v>
       </c>
       <c r="B17">
-        <v>4999</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3493,7 +3493,7 @@
         <v>116</v>
       </c>
       <c r="B18">
-        <v>4677</v>
+        <v>4731</v>
       </c>
     </row>
   </sheetData>
@@ -3525,10 +3525,10 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C2">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3536,10 +3536,10 @@
         <v>66</v>
       </c>
       <c r="B3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C3">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3572,7 +3572,7 @@
         <v>32</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3583,7 +3583,7 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3733,7 +3733,7 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>635623</v>
+        <v>662372</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3741,7 +3741,7 @@
         <v>64</v>
       </c>
       <c r="B3">
-        <v>180119</v>
+        <v>184439</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3749,7 +3749,7 @@
         <v>62</v>
       </c>
       <c r="B4">
-        <v>168866</v>
+        <v>172653</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3757,7 +3757,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>138213</v>
+        <v>141763</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3765,7 +3765,7 @@
         <v>66</v>
       </c>
       <c r="B6">
-        <v>56391</v>
+        <v>58071</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3773,7 +3773,7 @@
         <v>110</v>
       </c>
       <c r="B7">
-        <v>20770</v>
+        <v>21313</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3781,7 +3781,7 @@
         <v>111</v>
       </c>
       <c r="B8">
-        <v>20770</v>
+        <v>21313</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3789,7 +3789,7 @@
         <v>67</v>
       </c>
       <c r="B9">
-        <v>12329</v>
+        <v>12611</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3797,7 +3797,7 @@
         <v>112</v>
       </c>
       <c r="B10">
-        <v>9372</v>
+        <v>9567</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3805,7 +3805,7 @@
         <v>113</v>
       </c>
       <c r="B11">
-        <v>5153</v>
+        <v>5394</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3813,7 +3813,7 @@
         <v>114</v>
       </c>
       <c r="B12">
-        <v>5153</v>
+        <v>5394</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3821,7 +3821,7 @@
         <v>70</v>
       </c>
       <c r="B13">
-        <v>4599</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3829,7 +3829,7 @@
         <v>69</v>
       </c>
       <c r="B14">
-        <v>4304</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3837,7 +3837,7 @@
         <v>115</v>
       </c>
       <c r="B15">
-        <v>1980</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3845,7 +3845,7 @@
         <v>116</v>
       </c>
       <c r="B16">
-        <v>1200</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="17" spans="1:2">

--- a/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
@@ -761,7 +761,7 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>11771992</v>
+        <v>12118458</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -775,7 +775,7 @@
         <v>60</v>
       </c>
       <c r="D3">
-        <v>1335960</v>
+        <v>1369121</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -789,7 +789,7 @@
         <v>60</v>
       </c>
       <c r="D4">
-        <v>988540</v>
+        <v>1001115</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -803,7 +803,7 @@
         <v>61</v>
       </c>
       <c r="D5">
-        <v>224073</v>
+        <v>228783</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -817,7 +817,7 @@
         <v>62</v>
       </c>
       <c r="D6">
-        <v>198648</v>
+        <v>205011</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>157551</v>
+        <v>163419</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -845,7 +845,7 @@
         <v>59</v>
       </c>
       <c r="D8">
-        <v>154699</v>
+        <v>157758</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -859,7 +859,7 @@
         <v>59</v>
       </c>
       <c r="D9">
-        <v>152329</v>
+        <v>155405</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -873,7 +873,7 @@
         <v>59</v>
       </c>
       <c r="D10">
-        <v>138791</v>
+        <v>141776</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -887,7 +887,7 @@
         <v>62</v>
       </c>
       <c r="D11">
-        <v>126197</v>
+        <v>129047</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -901,7 +901,7 @@
         <v>63</v>
       </c>
       <c r="D12">
-        <v>112495</v>
+        <v>115341</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -915,7 +915,7 @@
         <v>62</v>
       </c>
       <c r="D13">
-        <v>96759</v>
+        <v>100765</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -929,7 +929,7 @@
         <v>64</v>
       </c>
       <c r="D14">
-        <v>83338</v>
+        <v>85494</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -943,7 +943,7 @@
         <v>61</v>
       </c>
       <c r="D15">
-        <v>76185</v>
+        <v>78726</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -957,7 +957,7 @@
         <v>59</v>
       </c>
       <c r="D16">
-        <v>69967</v>
+        <v>71157</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -971,7 +971,7 @@
         <v>65</v>
       </c>
       <c r="D17">
-        <v>63539</v>
+        <v>64566</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -985,7 +985,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>55240</v>
+        <v>55846</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -999,7 +999,7 @@
         <v>66</v>
       </c>
       <c r="D19">
-        <v>38162</v>
+        <v>38669</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1013,7 +1013,7 @@
         <v>64</v>
       </c>
       <c r="D20">
-        <v>32890</v>
+        <v>34124</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1027,7 +1027,7 @@
         <v>59</v>
       </c>
       <c r="D21">
-        <v>30048</v>
+        <v>30559</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1041,7 +1041,7 @@
         <v>64</v>
       </c>
       <c r="D22">
-        <v>26395</v>
+        <v>28001</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1055,7 +1055,7 @@
         <v>67</v>
       </c>
       <c r="D23">
-        <v>26198</v>
+        <v>26912</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1069,7 +1069,7 @@
         <v>66</v>
       </c>
       <c r="D24">
-        <v>24403</v>
+        <v>24960</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1083,7 +1083,7 @@
         <v>68</v>
       </c>
       <c r="D25">
-        <v>22971</v>
+        <v>23150</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1097,7 +1097,7 @@
         <v>69</v>
       </c>
       <c r="D26">
-        <v>7766</v>
+        <v>7952</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1111,7 +1111,7 @@
         <v>70</v>
       </c>
       <c r="D27">
-        <v>5933</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1125,7 +1125,7 @@
         <v>71</v>
       </c>
       <c r="D28">
-        <v>5590</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1139,7 +1139,7 @@
         <v>72</v>
       </c>
       <c r="D29">
-        <v>5189</v>
+        <v>5329</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1153,7 +1153,7 @@
         <v>73</v>
       </c>
       <c r="D30">
-        <v>4731</v>
+        <v>4807</v>
       </c>
     </row>
   </sheetData>
@@ -1197,10 +1197,10 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>66</v>
       </c>
       <c r="D3">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1234,7 +1234,7 @@
         <v>81</v>
       </c>
       <c r="E4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>59</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1273,36 +1273,36 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>37</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1319,7 +1319,7 @@
         <v>33</v>
       </c>
       <c r="E9">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1435,38 +1435,38 @@
         <v>62</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -1486,10 +1486,10 @@
         <v>64</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1503,10 +1503,10 @@
         <v>64</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1717,7 +1717,7 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>441639</v>
+        <v>462874</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1731,7 +1731,7 @@
         <v>59</v>
       </c>
       <c r="D3">
-        <v>108329</v>
+        <v>111473</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1745,7 +1745,7 @@
         <v>62</v>
       </c>
       <c r="D4">
-        <v>82948</v>
+        <v>84769</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1759,7 +1759,7 @@
         <v>60</v>
       </c>
       <c r="D5">
-        <v>82143</v>
+        <v>84598</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1773,7 +1773,7 @@
         <v>64</v>
       </c>
       <c r="D6">
-        <v>77480</v>
+        <v>79359</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1787,7 +1787,7 @@
         <v>64</v>
       </c>
       <c r="D7">
-        <v>64951</v>
+        <v>66342</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1801,7 +1801,7 @@
         <v>62</v>
       </c>
       <c r="D8">
-        <v>62760</v>
+        <v>63999</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1815,7 +1815,7 @@
         <v>60</v>
       </c>
       <c r="D9">
-        <v>59620</v>
+        <v>60560</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1829,7 +1829,7 @@
         <v>64</v>
       </c>
       <c r="D10">
-        <v>42008</v>
+        <v>43211</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1843,7 +1843,7 @@
         <v>59</v>
       </c>
       <c r="D11">
-        <v>39629</v>
+        <v>40991</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1857,7 +1857,7 @@
         <v>66</v>
       </c>
       <c r="D12">
-        <v>36689</v>
+        <v>37840</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1871,7 +1871,7 @@
         <v>59</v>
       </c>
       <c r="D13">
-        <v>27726</v>
+        <v>28677</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1885,7 +1885,7 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>26945</v>
+        <v>28044</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1899,7 +1899,7 @@
         <v>59</v>
       </c>
       <c r="D15">
-        <v>23149</v>
+        <v>23907</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1913,7 +1913,7 @@
         <v>59</v>
       </c>
       <c r="D16">
-        <v>21900</v>
+        <v>22548</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1927,7 +1927,7 @@
         <v>65</v>
       </c>
       <c r="D17">
-        <v>21313</v>
+        <v>21831</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1941,7 +1941,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>12054</v>
+        <v>12367</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1955,7 +1955,7 @@
         <v>66</v>
       </c>
       <c r="D19">
-        <v>11815</v>
+        <v>12073</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1969,7 +1969,7 @@
         <v>67</v>
       </c>
       <c r="D20">
-        <v>10577</v>
+        <v>10715</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1983,7 +1983,7 @@
         <v>68</v>
       </c>
       <c r="D21">
-        <v>9567</v>
+        <v>9749</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1997,7 +1997,7 @@
         <v>71</v>
       </c>
       <c r="D22">
-        <v>5394</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2011,7 +2011,7 @@
         <v>69</v>
       </c>
       <c r="D23">
-        <v>4395</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2025,7 +2025,7 @@
         <v>70</v>
       </c>
       <c r="D24">
-        <v>3470</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2039,7 +2039,7 @@
         <v>72</v>
       </c>
       <c r="D25">
-        <v>2034</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2053,7 +2053,7 @@
         <v>73</v>
       </c>
       <c r="D26">
-        <v>1214</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2138,7 +2138,7 @@
         <v>77</v>
       </c>
       <c r="B2">
-        <v>11771992</v>
+        <v>12118458</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>78</v>
       </c>
       <c r="B3">
-        <v>11771992</v>
+        <v>12118458</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>79</v>
       </c>
       <c r="B4">
-        <v>1335960</v>
+        <v>1369121</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>80</v>
       </c>
       <c r="B5">
-        <v>1335960</v>
+        <v>1369121</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>988540</v>
+        <v>1001115</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>262235</v>
+        <v>267452</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>233736</v>
+        <v>242145</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>81</v>
       </c>
       <c r="B9">
-        <v>224073</v>
+        <v>228783</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>198648</v>
+        <v>205011</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>154699</v>
+        <v>157758</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>82</v>
       </c>
       <c r="B12">
-        <v>152329</v>
+        <v>155405</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>83</v>
       </c>
       <c r="B13">
-        <v>152329</v>
+        <v>155405</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>84</v>
       </c>
       <c r="B14">
-        <v>142623</v>
+        <v>147619</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>85</v>
       </c>
       <c r="B15">
-        <v>142623</v>
+        <v>147619</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>86</v>
       </c>
       <c r="B16">
-        <v>142623</v>
+        <v>147619</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>87</v>
       </c>
       <c r="B17">
-        <v>138791</v>
+        <v>141776</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>88</v>
       </c>
       <c r="B18">
-        <v>138791</v>
+        <v>141776</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>89</v>
       </c>
       <c r="B19">
-        <v>138791</v>
+        <v>141776</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>90</v>
       </c>
       <c r="B20">
-        <v>126197</v>
+        <v>129047</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>91</v>
       </c>
       <c r="B21">
-        <v>126197</v>
+        <v>129047</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>92</v>
       </c>
       <c r="B22">
-        <v>112495</v>
+        <v>115341</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>93</v>
       </c>
       <c r="B23">
-        <v>112495</v>
+        <v>115341</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>94</v>
       </c>
       <c r="B24">
-        <v>112495</v>
+        <v>115341</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>15</v>
       </c>
       <c r="B25">
-        <v>96759</v>
+        <v>100765</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>17</v>
       </c>
       <c r="B26">
-        <v>69967</v>
+        <v>71157</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>95</v>
       </c>
       <c r="B27">
-        <v>63539</v>
+        <v>64566</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>96</v>
       </c>
       <c r="B28">
-        <v>63539</v>
+        <v>64566</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>19</v>
       </c>
       <c r="B29">
-        <v>55240</v>
+        <v>55846</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>21</v>
       </c>
       <c r="B30">
-        <v>30048</v>
+        <v>30559</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>97</v>
       </c>
       <c r="B31">
-        <v>26198</v>
+        <v>26912</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>98</v>
       </c>
       <c r="B32">
-        <v>26198</v>
+        <v>26912</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>99</v>
       </c>
       <c r="B33">
-        <v>24403</v>
+        <v>24960</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>100</v>
       </c>
       <c r="B34">
-        <v>24403</v>
+        <v>24960</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>24</v>
       </c>
       <c r="B35">
-        <v>22971</v>
+        <v>23150</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>101</v>
       </c>
       <c r="B36">
-        <v>7766</v>
+        <v>7952</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>102</v>
       </c>
       <c r="B37">
-        <v>7766</v>
+        <v>7952</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>103</v>
       </c>
       <c r="B38">
-        <v>5933</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>104</v>
       </c>
       <c r="B39">
-        <v>5933</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>27</v>
       </c>
       <c r="B40">
-        <v>5590</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>105</v>
       </c>
       <c r="B41">
-        <v>5189</v>
+        <v>5329</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>106</v>
       </c>
       <c r="B42">
-        <v>5189</v>
+        <v>5329</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>107</v>
       </c>
       <c r="B43">
-        <v>5189</v>
+        <v>5329</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>29</v>
       </c>
       <c r="B44">
-        <v>4731</v>
+        <v>4807</v>
       </c>
     </row>
   </sheetData>
@@ -2506,10 +2506,10 @@
         <v>82</v>
       </c>
       <c r="B2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C2">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2517,10 +2517,10 @@
         <v>83</v>
       </c>
       <c r="B3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C3">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2528,10 +2528,10 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>81</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>81</v>
       </c>
       <c r="C6">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>81</v>
       </c>
       <c r="C7">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2572,10 +2572,10 @@
         <v>77</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2583,10 +2583,10 @@
         <v>78</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2602,29 +2602,29 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B13">
         <v>37</v>
@@ -2635,24 +2635,24 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B14">
         <v>37</v>
       </c>
       <c r="C14">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B15">
         <v>37</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>33</v>
       </c>
       <c r="C16">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2734,68 +2734,68 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2814,10 +2814,10 @@
         <v>90</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2825,10 +2825,10 @@
         <v>91</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3000,7 +3000,7 @@
         <v>77</v>
       </c>
       <c r="B2">
-        <v>441639</v>
+        <v>462874</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3008,7 +3008,7 @@
         <v>78</v>
       </c>
       <c r="B3">
-        <v>441639</v>
+        <v>462874</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3016,7 +3016,7 @@
         <v>84</v>
       </c>
       <c r="B4">
-        <v>184439</v>
+        <v>188912</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3024,7 +3024,7 @@
         <v>85</v>
       </c>
       <c r="B5">
-        <v>184439</v>
+        <v>188912</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3032,7 +3032,7 @@
         <v>86</v>
       </c>
       <c r="B6">
-        <v>184439</v>
+        <v>188912</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3040,7 +3040,7 @@
         <v>82</v>
       </c>
       <c r="B7">
-        <v>108329</v>
+        <v>111473</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3048,7 +3048,7 @@
         <v>83</v>
       </c>
       <c r="B8">
-        <v>108329</v>
+        <v>111473</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3056,7 +3056,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>82948</v>
+        <v>84769</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3064,7 +3064,7 @@
         <v>79</v>
       </c>
       <c r="B10">
-        <v>82143</v>
+        <v>84598</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3072,7 +3072,7 @@
         <v>80</v>
       </c>
       <c r="B11">
-        <v>82143</v>
+        <v>84598</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3080,7 +3080,7 @@
         <v>90</v>
       </c>
       <c r="B12">
-        <v>62760</v>
+        <v>63999</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3088,7 +3088,7 @@
         <v>91</v>
       </c>
       <c r="B13">
-        <v>62760</v>
+        <v>63999</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3096,7 +3096,7 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>59620</v>
+        <v>60560</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3104,7 +3104,7 @@
         <v>87</v>
       </c>
       <c r="B15">
-        <v>39629</v>
+        <v>40991</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3112,7 +3112,7 @@
         <v>88</v>
       </c>
       <c r="B16">
-        <v>39629</v>
+        <v>40991</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3120,7 +3120,7 @@
         <v>89</v>
       </c>
       <c r="B17">
-        <v>39629</v>
+        <v>40991</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3128,7 +3128,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>36689</v>
+        <v>37840</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3136,7 +3136,7 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>27726</v>
+        <v>28677</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3144,7 +3144,7 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>26945</v>
+        <v>28044</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3152,7 +3152,7 @@
         <v>10</v>
       </c>
       <c r="B21">
-        <v>23149</v>
+        <v>23907</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3160,7 +3160,7 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>21900</v>
+        <v>22548</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3168,7 +3168,7 @@
         <v>95</v>
       </c>
       <c r="B23">
-        <v>21313</v>
+        <v>21831</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3176,7 +3176,7 @@
         <v>96</v>
       </c>
       <c r="B24">
-        <v>21313</v>
+        <v>21831</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3184,7 +3184,7 @@
         <v>19</v>
       </c>
       <c r="B25">
-        <v>12054</v>
+        <v>12367</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3192,7 +3192,7 @@
         <v>99</v>
       </c>
       <c r="B26">
-        <v>11815</v>
+        <v>12073</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3200,7 +3200,7 @@
         <v>100</v>
       </c>
       <c r="B27">
-        <v>11815</v>
+        <v>12073</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3208,7 +3208,7 @@
         <v>97</v>
       </c>
       <c r="B28">
-        <v>10577</v>
+        <v>10715</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3216,7 +3216,7 @@
         <v>98</v>
       </c>
       <c r="B29">
-        <v>10577</v>
+        <v>10715</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3224,7 +3224,7 @@
         <v>24</v>
       </c>
       <c r="B30">
-        <v>9567</v>
+        <v>9749</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3232,7 +3232,7 @@
         <v>27</v>
       </c>
       <c r="B31">
-        <v>5394</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3240,7 +3240,7 @@
         <v>101</v>
       </c>
       <c r="B32">
-        <v>4395</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3248,7 +3248,7 @@
         <v>102</v>
       </c>
       <c r="B33">
-        <v>4395</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3256,7 +3256,7 @@
         <v>103</v>
       </c>
       <c r="B34">
-        <v>3470</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3264,7 +3264,7 @@
         <v>104</v>
       </c>
       <c r="B35">
-        <v>3470</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3272,7 +3272,7 @@
         <v>105</v>
       </c>
       <c r="B36">
-        <v>2034</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3280,7 +3280,7 @@
         <v>106</v>
       </c>
       <c r="B37">
-        <v>2034</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3288,7 +3288,7 @@
         <v>107</v>
       </c>
       <c r="B38">
-        <v>2034</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3296,7 +3296,7 @@
         <v>29</v>
       </c>
       <c r="B39">
-        <v>1214</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3365,7 +3365,7 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>12317826</v>
+        <v>12675113</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3373,7 +3373,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>2324500</v>
+        <v>2370236</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3381,7 +3381,7 @@
         <v>62</v>
       </c>
       <c r="B4">
-        <v>421604</v>
+        <v>434823</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3389,7 +3389,7 @@
         <v>64</v>
       </c>
       <c r="B5">
-        <v>142623</v>
+        <v>147619</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3397,7 +3397,7 @@
         <v>108</v>
       </c>
       <c r="B6">
-        <v>112495</v>
+        <v>115341</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3405,7 +3405,7 @@
         <v>109</v>
       </c>
       <c r="B7">
-        <v>112495</v>
+        <v>115341</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3413,7 +3413,7 @@
         <v>66</v>
       </c>
       <c r="B8">
-        <v>85536</v>
+        <v>86779</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3421,7 +3421,7 @@
         <v>110</v>
       </c>
       <c r="B9">
-        <v>63539</v>
+        <v>64566</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3429,7 +3429,7 @@
         <v>111</v>
       </c>
       <c r="B10">
-        <v>63539</v>
+        <v>64566</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3437,7 +3437,7 @@
         <v>67</v>
       </c>
       <c r="B11">
-        <v>31387</v>
+        <v>32241</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3445,7 +3445,7 @@
         <v>112</v>
       </c>
       <c r="B12">
-        <v>22971</v>
+        <v>23150</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3453,7 +3453,7 @@
         <v>70</v>
       </c>
       <c r="B13">
-        <v>10664</v>
+        <v>10987</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3461,7 +3461,7 @@
         <v>69</v>
       </c>
       <c r="B14">
-        <v>7766</v>
+        <v>7952</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3469,7 +3469,7 @@
         <v>113</v>
       </c>
       <c r="B15">
-        <v>5590</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>114</v>
       </c>
       <c r="B16">
-        <v>5590</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3485,7 +3485,7 @@
         <v>115</v>
       </c>
       <c r="B17">
-        <v>5189</v>
+        <v>5329</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3493,7 +3493,7 @@
         <v>116</v>
       </c>
       <c r="B18">
-        <v>4731</v>
+        <v>4807</v>
       </c>
     </row>
   </sheetData>
@@ -3525,10 +3525,10 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C2">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3536,10 +3536,10 @@
         <v>66</v>
       </c>
       <c r="B3">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C3">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3599,24 +3599,24 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3635,10 +3635,10 @@
         <v>62</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3733,7 +3733,7 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>662372</v>
+        <v>690470</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3741,7 +3741,7 @@
         <v>64</v>
       </c>
       <c r="B3">
-        <v>184439</v>
+        <v>188912</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3749,7 +3749,7 @@
         <v>62</v>
       </c>
       <c r="B4">
-        <v>172653</v>
+        <v>176812</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3757,7 +3757,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>141763</v>
+        <v>145158</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3765,7 +3765,7 @@
         <v>66</v>
       </c>
       <c r="B6">
-        <v>58071</v>
+        <v>59662</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3773,7 +3773,7 @@
         <v>110</v>
       </c>
       <c r="B7">
-        <v>21313</v>
+        <v>21831</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3781,7 +3781,7 @@
         <v>111</v>
       </c>
       <c r="B8">
-        <v>21313</v>
+        <v>21831</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3789,7 +3789,7 @@
         <v>67</v>
       </c>
       <c r="B9">
-        <v>12611</v>
+        <v>12820</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3797,7 +3797,7 @@
         <v>112</v>
       </c>
       <c r="B10">
-        <v>9567</v>
+        <v>9749</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3805,7 +3805,7 @@
         <v>113</v>
       </c>
       <c r="B11">
-        <v>5394</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3813,7 +3813,7 @@
         <v>114</v>
       </c>
       <c r="B12">
-        <v>5394</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3821,7 +3821,7 @@
         <v>70</v>
       </c>
       <c r="B13">
-        <v>4684</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3829,7 +3829,7 @@
         <v>69</v>
       </c>
       <c r="B14">
-        <v>4395</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3837,7 +3837,7 @@
         <v>115</v>
       </c>
       <c r="B15">
-        <v>2034</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3845,7 +3845,7 @@
         <v>116</v>
       </c>
       <c r="B16">
-        <v>1214</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="17" spans="1:2">

--- a/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
@@ -761,7 +761,7 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>12118458</v>
+        <v>12353908</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -775,7 +775,7 @@
         <v>60</v>
       </c>
       <c r="D3">
-        <v>1369121</v>
+        <v>1391849</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -789,7 +789,7 @@
         <v>60</v>
       </c>
       <c r="D4">
-        <v>1001115</v>
+        <v>1009928</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -803,7 +803,7 @@
         <v>61</v>
       </c>
       <c r="D5">
-        <v>228783</v>
+        <v>232106</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -817,7 +817,7 @@
         <v>62</v>
       </c>
       <c r="D6">
-        <v>205011</v>
+        <v>209621</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>163419</v>
+        <v>167461</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -845,7 +845,7 @@
         <v>59</v>
       </c>
       <c r="D8">
-        <v>157758</v>
+        <v>159750</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -859,7 +859,7 @@
         <v>59</v>
       </c>
       <c r="D9">
-        <v>155405</v>
+        <v>157541</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -873,7 +873,7 @@
         <v>59</v>
       </c>
       <c r="D10">
-        <v>141776</v>
+        <v>143735</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -887,7 +887,7 @@
         <v>62</v>
       </c>
       <c r="D11">
-        <v>129047</v>
+        <v>130945</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -901,7 +901,7 @@
         <v>63</v>
       </c>
       <c r="D12">
-        <v>115341</v>
+        <v>117114</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -915,7 +915,7 @@
         <v>62</v>
       </c>
       <c r="D13">
-        <v>100765</v>
+        <v>103240</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -929,7 +929,7 @@
         <v>64</v>
       </c>
       <c r="D14">
-        <v>85494</v>
+        <v>86888</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -943,7 +943,7 @@
         <v>61</v>
       </c>
       <c r="D15">
-        <v>78726</v>
+        <v>80373</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -957,7 +957,7 @@
         <v>59</v>
       </c>
       <c r="D16">
-        <v>71157</v>
+        <v>71907</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -971,7 +971,7 @@
         <v>65</v>
       </c>
       <c r="D17">
-        <v>64566</v>
+        <v>65333</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -985,7 +985,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>55846</v>
+        <v>56345</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -999,7 +999,7 @@
         <v>66</v>
       </c>
       <c r="D19">
-        <v>38669</v>
+        <v>38997</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1013,7 +1013,7 @@
         <v>64</v>
       </c>
       <c r="D20">
-        <v>34124</v>
+        <v>34987</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1027,7 +1027,7 @@
         <v>59</v>
       </c>
       <c r="D21">
-        <v>30559</v>
+        <v>30863</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1041,7 +1041,7 @@
         <v>64</v>
       </c>
       <c r="D22">
-        <v>28001</v>
+        <v>29118</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1055,7 +1055,7 @@
         <v>67</v>
       </c>
       <c r="D23">
-        <v>26912</v>
+        <v>27963</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1069,7 +1069,7 @@
         <v>66</v>
       </c>
       <c r="D24">
-        <v>24960</v>
+        <v>25404</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1083,7 +1083,7 @@
         <v>68</v>
       </c>
       <c r="D25">
-        <v>23150</v>
+        <v>23299</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1097,7 +1097,7 @@
         <v>69</v>
       </c>
       <c r="D26">
-        <v>7952</v>
+        <v>8058</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1111,7 +1111,7 @@
         <v>70</v>
       </c>
       <c r="D27">
-        <v>6180</v>
+        <v>6335</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1125,7 +1125,7 @@
         <v>71</v>
       </c>
       <c r="D28">
-        <v>5881</v>
+        <v>6135</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1139,7 +1139,7 @@
         <v>72</v>
       </c>
       <c r="D29">
-        <v>5329</v>
+        <v>5429</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1153,7 +1153,7 @@
         <v>73</v>
       </c>
       <c r="D30">
-        <v>4807</v>
+        <v>4862</v>
       </c>
     </row>
   </sheetData>
@@ -1197,10 +1197,10 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E2">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>66</v>
       </c>
       <c r="D3">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1234,7 +1234,7 @@
         <v>81</v>
       </c>
       <c r="E4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1350,10 +1350,10 @@
         <v>59</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1435,10 +1435,10 @@
         <v>62</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1717,7 +1717,7 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>462874</v>
+        <v>476951</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1731,35 +1731,35 @@
         <v>59</v>
       </c>
       <c r="D3">
-        <v>111473</v>
+        <v>113859</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>84769</v>
+        <v>86415</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>84598</v>
+        <v>86065</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1773,7 +1773,7 @@
         <v>64</v>
       </c>
       <c r="D6">
-        <v>79359</v>
+        <v>80681</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1787,7 +1787,7 @@
         <v>64</v>
       </c>
       <c r="D7">
-        <v>66342</v>
+        <v>67277</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1801,7 +1801,7 @@
         <v>62</v>
       </c>
       <c r="D8">
-        <v>63999</v>
+        <v>64840</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1815,7 +1815,7 @@
         <v>60</v>
       </c>
       <c r="D9">
-        <v>60560</v>
+        <v>61160</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1829,7 +1829,7 @@
         <v>64</v>
       </c>
       <c r="D10">
-        <v>43211</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1843,7 +1843,7 @@
         <v>59</v>
       </c>
       <c r="D11">
-        <v>40991</v>
+        <v>41910</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1857,7 +1857,7 @@
         <v>66</v>
       </c>
       <c r="D12">
-        <v>37840</v>
+        <v>38595</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1871,7 +1871,7 @@
         <v>59</v>
       </c>
       <c r="D13">
-        <v>28677</v>
+        <v>29386</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1885,7 +1885,7 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>28044</v>
+        <v>28432</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1899,7 +1899,7 @@
         <v>59</v>
       </c>
       <c r="D15">
-        <v>23907</v>
+        <v>24355</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1913,7 +1913,7 @@
         <v>59</v>
       </c>
       <c r="D16">
-        <v>22548</v>
+        <v>23104</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1927,7 +1927,7 @@
         <v>65</v>
       </c>
       <c r="D17">
-        <v>21831</v>
+        <v>22234</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1941,7 +1941,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>12367</v>
+        <v>12552</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1955,7 +1955,7 @@
         <v>66</v>
       </c>
       <c r="D19">
-        <v>12073</v>
+        <v>12229</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1969,7 +1969,7 @@
         <v>67</v>
       </c>
       <c r="D20">
-        <v>10715</v>
+        <v>10823</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1983,7 +1983,7 @@
         <v>68</v>
       </c>
       <c r="D21">
-        <v>9749</v>
+        <v>9883</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1997,7 +1997,7 @@
         <v>71</v>
       </c>
       <c r="D22">
-        <v>5712</v>
+        <v>5948</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2011,7 +2011,7 @@
         <v>69</v>
       </c>
       <c r="D23">
-        <v>4496</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2025,7 +2025,7 @@
         <v>70</v>
       </c>
       <c r="D24">
-        <v>3525</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2039,7 +2039,7 @@
         <v>72</v>
       </c>
       <c r="D25">
-        <v>2105</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2053,7 +2053,7 @@
         <v>73</v>
       </c>
       <c r="D26">
-        <v>1232</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2138,7 +2138,7 @@
         <v>77</v>
       </c>
       <c r="B2">
-        <v>12118458</v>
+        <v>12353908</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>78</v>
       </c>
       <c r="B3">
-        <v>12118458</v>
+        <v>12353908</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>79</v>
       </c>
       <c r="B4">
-        <v>1369121</v>
+        <v>1391849</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>80</v>
       </c>
       <c r="B5">
-        <v>1369121</v>
+        <v>1391849</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1001115</v>
+        <v>1009928</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>267452</v>
+        <v>271103</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>242145</v>
+        <v>247834</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>81</v>
       </c>
       <c r="B9">
-        <v>228783</v>
+        <v>232106</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>205011</v>
+        <v>209621</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>157758</v>
+        <v>159750</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>82</v>
       </c>
       <c r="B12">
-        <v>155405</v>
+        <v>157541</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>83</v>
       </c>
       <c r="B13">
-        <v>155405</v>
+        <v>157541</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>84</v>
       </c>
       <c r="B14">
-        <v>147619</v>
+        <v>150993</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>85</v>
       </c>
       <c r="B15">
-        <v>147619</v>
+        <v>150993</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>86</v>
       </c>
       <c r="B16">
-        <v>147619</v>
+        <v>150993</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>87</v>
       </c>
       <c r="B17">
-        <v>141776</v>
+        <v>143735</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>88</v>
       </c>
       <c r="B18">
-        <v>141776</v>
+        <v>143735</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>89</v>
       </c>
       <c r="B19">
-        <v>141776</v>
+        <v>143735</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>90</v>
       </c>
       <c r="B20">
-        <v>129047</v>
+        <v>130945</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>91</v>
       </c>
       <c r="B21">
-        <v>129047</v>
+        <v>130945</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>92</v>
       </c>
       <c r="B22">
-        <v>115341</v>
+        <v>117114</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>93</v>
       </c>
       <c r="B23">
-        <v>115341</v>
+        <v>117114</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>94</v>
       </c>
       <c r="B24">
-        <v>115341</v>
+        <v>117114</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>15</v>
       </c>
       <c r="B25">
-        <v>100765</v>
+        <v>103240</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>17</v>
       </c>
       <c r="B26">
-        <v>71157</v>
+        <v>71907</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>95</v>
       </c>
       <c r="B27">
-        <v>64566</v>
+        <v>65333</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>96</v>
       </c>
       <c r="B28">
-        <v>64566</v>
+        <v>65333</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>19</v>
       </c>
       <c r="B29">
-        <v>55846</v>
+        <v>56345</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>21</v>
       </c>
       <c r="B30">
-        <v>30559</v>
+        <v>30863</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>97</v>
       </c>
       <c r="B31">
-        <v>26912</v>
+        <v>27963</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>98</v>
       </c>
       <c r="B32">
-        <v>26912</v>
+        <v>27963</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>99</v>
       </c>
       <c r="B33">
-        <v>24960</v>
+        <v>25404</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>100</v>
       </c>
       <c r="B34">
-        <v>24960</v>
+        <v>25404</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>24</v>
       </c>
       <c r="B35">
-        <v>23150</v>
+        <v>23299</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>101</v>
       </c>
       <c r="B36">
-        <v>7952</v>
+        <v>8058</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>102</v>
       </c>
       <c r="B37">
-        <v>7952</v>
+        <v>8058</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>103</v>
       </c>
       <c r="B38">
-        <v>6180</v>
+        <v>6335</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>104</v>
       </c>
       <c r="B39">
-        <v>6180</v>
+        <v>6335</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>27</v>
       </c>
       <c r="B40">
-        <v>5881</v>
+        <v>6135</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>105</v>
       </c>
       <c r="B41">
-        <v>5329</v>
+        <v>5429</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>106</v>
       </c>
       <c r="B42">
-        <v>5329</v>
+        <v>5429</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>107</v>
       </c>
       <c r="B43">
-        <v>5329</v>
+        <v>5429</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>29</v>
       </c>
       <c r="B44">
-        <v>4807</v>
+        <v>4862</v>
       </c>
     </row>
   </sheetData>
@@ -2506,10 +2506,10 @@
         <v>82</v>
       </c>
       <c r="B2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C2">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2517,10 +2517,10 @@
         <v>83</v>
       </c>
       <c r="B3">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C3">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2528,10 +2528,10 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C4">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>81</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>81</v>
       </c>
       <c r="C6">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>81</v>
       </c>
       <c r="C7">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2693,10 +2693,10 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2814,10 +2814,10 @@
         <v>90</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2825,10 +2825,10 @@
         <v>91</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3000,7 +3000,7 @@
         <v>77</v>
       </c>
       <c r="B2">
-        <v>462874</v>
+        <v>476951</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3008,7 +3008,7 @@
         <v>78</v>
       </c>
       <c r="B3">
-        <v>462874</v>
+        <v>476951</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3016,7 +3016,7 @@
         <v>84</v>
       </c>
       <c r="B4">
-        <v>188912</v>
+        <v>191915</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3024,7 +3024,7 @@
         <v>85</v>
       </c>
       <c r="B5">
-        <v>188912</v>
+        <v>191915</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3032,7 +3032,7 @@
         <v>86</v>
       </c>
       <c r="B6">
-        <v>188912</v>
+        <v>191915</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3040,7 +3040,7 @@
         <v>82</v>
       </c>
       <c r="B7">
-        <v>111473</v>
+        <v>113859</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3048,31 +3048,31 @@
         <v>83</v>
       </c>
       <c r="B8">
-        <v>111473</v>
+        <v>113859</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B9">
-        <v>84769</v>
+        <v>86415</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B10">
-        <v>84598</v>
+        <v>86415</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>84598</v>
+        <v>86065</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3080,7 +3080,7 @@
         <v>90</v>
       </c>
       <c r="B12">
-        <v>63999</v>
+        <v>64840</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3088,7 +3088,7 @@
         <v>91</v>
       </c>
       <c r="B13">
-        <v>63999</v>
+        <v>64840</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3096,7 +3096,7 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>60560</v>
+        <v>61160</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3104,7 +3104,7 @@
         <v>87</v>
       </c>
       <c r="B15">
-        <v>40991</v>
+        <v>41910</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3112,7 +3112,7 @@
         <v>88</v>
       </c>
       <c r="B16">
-        <v>40991</v>
+        <v>41910</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3120,7 +3120,7 @@
         <v>89</v>
       </c>
       <c r="B17">
-        <v>40991</v>
+        <v>41910</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3128,7 +3128,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>37840</v>
+        <v>38595</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3136,7 +3136,7 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>28677</v>
+        <v>29386</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3144,7 +3144,7 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>28044</v>
+        <v>28432</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3152,7 +3152,7 @@
         <v>10</v>
       </c>
       <c r="B21">
-        <v>23907</v>
+        <v>24355</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3160,7 +3160,7 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>22548</v>
+        <v>23104</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3168,7 +3168,7 @@
         <v>95</v>
       </c>
       <c r="B23">
-        <v>21831</v>
+        <v>22234</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3176,7 +3176,7 @@
         <v>96</v>
       </c>
       <c r="B24">
-        <v>21831</v>
+        <v>22234</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3184,7 +3184,7 @@
         <v>19</v>
       </c>
       <c r="B25">
-        <v>12367</v>
+        <v>12552</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3192,7 +3192,7 @@
         <v>99</v>
       </c>
       <c r="B26">
-        <v>12073</v>
+        <v>12229</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3200,7 +3200,7 @@
         <v>100</v>
       </c>
       <c r="B27">
-        <v>12073</v>
+        <v>12229</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3208,7 +3208,7 @@
         <v>97</v>
       </c>
       <c r="B28">
-        <v>10715</v>
+        <v>10823</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3216,7 +3216,7 @@
         <v>98</v>
       </c>
       <c r="B29">
-        <v>10715</v>
+        <v>10823</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3224,7 +3224,7 @@
         <v>24</v>
       </c>
       <c r="B30">
-        <v>9749</v>
+        <v>9883</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3232,7 +3232,7 @@
         <v>27</v>
       </c>
       <c r="B31">
-        <v>5712</v>
+        <v>5948</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3240,7 +3240,7 @@
         <v>101</v>
       </c>
       <c r="B32">
-        <v>4496</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3248,7 +3248,7 @@
         <v>102</v>
       </c>
       <c r="B33">
-        <v>4496</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3256,7 +3256,7 @@
         <v>103</v>
       </c>
       <c r="B34">
-        <v>3525</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3264,7 +3264,7 @@
         <v>104</v>
       </c>
       <c r="B35">
-        <v>3525</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3272,7 +3272,7 @@
         <v>105</v>
       </c>
       <c r="B36">
-        <v>2105</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3280,7 +3280,7 @@
         <v>106</v>
       </c>
       <c r="B37">
-        <v>2105</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3288,7 +3288,7 @@
         <v>107</v>
       </c>
       <c r="B38">
-        <v>2105</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3296,7 +3296,7 @@
         <v>29</v>
       </c>
       <c r="B39">
-        <v>1232</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3365,7 +3365,7 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>12675113</v>
+        <v>12917704</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3373,7 +3373,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>2370236</v>
+        <v>2401777</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3381,7 +3381,7 @@
         <v>62</v>
       </c>
       <c r="B4">
-        <v>434823</v>
+        <v>443806</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3389,7 +3389,7 @@
         <v>64</v>
       </c>
       <c r="B5">
-        <v>147619</v>
+        <v>150993</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3397,7 +3397,7 @@
         <v>108</v>
       </c>
       <c r="B6">
-        <v>115341</v>
+        <v>117114</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3405,7 +3405,7 @@
         <v>109</v>
       </c>
       <c r="B7">
-        <v>115341</v>
+        <v>117114</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3413,7 +3413,7 @@
         <v>66</v>
       </c>
       <c r="B8">
-        <v>86779</v>
+        <v>87700</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3421,7 +3421,7 @@
         <v>110</v>
       </c>
       <c r="B9">
-        <v>64566</v>
+        <v>65333</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3429,7 +3429,7 @@
         <v>111</v>
       </c>
       <c r="B10">
-        <v>64566</v>
+        <v>65333</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3437,7 +3437,7 @@
         <v>67</v>
       </c>
       <c r="B11">
-        <v>32241</v>
+        <v>33392</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3445,7 +3445,7 @@
         <v>112</v>
       </c>
       <c r="B12">
-        <v>23150</v>
+        <v>23299</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3453,7 +3453,7 @@
         <v>70</v>
       </c>
       <c r="B13">
-        <v>10987</v>
+        <v>11197</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3461,7 +3461,7 @@
         <v>69</v>
       </c>
       <c r="B14">
-        <v>7952</v>
+        <v>8058</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3469,7 +3469,7 @@
         <v>113</v>
       </c>
       <c r="B15">
-        <v>5881</v>
+        <v>6135</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>114</v>
       </c>
       <c r="B16">
-        <v>5881</v>
+        <v>6135</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3485,7 +3485,7 @@
         <v>115</v>
       </c>
       <c r="B17">
-        <v>5329</v>
+        <v>5429</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3493,7 +3493,7 @@
         <v>116</v>
       </c>
       <c r="B18">
-        <v>4807</v>
+        <v>4862</v>
       </c>
     </row>
   </sheetData>
@@ -3525,10 +3525,10 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C2">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3536,10 +3536,10 @@
         <v>66</v>
       </c>
       <c r="B3">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C3">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3635,10 +3635,10 @@
         <v>62</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3733,7 +3733,7 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>690470</v>
+        <v>709565</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3741,7 +3741,7 @@
         <v>64</v>
       </c>
       <c r="B3">
-        <v>188912</v>
+        <v>191915</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3749,7 +3749,7 @@
         <v>62</v>
       </c>
       <c r="B4">
-        <v>176812</v>
+        <v>179337</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3757,7 +3757,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>145158</v>
+        <v>147575</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3765,7 +3765,7 @@
         <v>66</v>
       </c>
       <c r="B6">
-        <v>59662</v>
+        <v>60707</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3773,7 +3773,7 @@
         <v>110</v>
       </c>
       <c r="B7">
-        <v>21831</v>
+        <v>22234</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3781,7 +3781,7 @@
         <v>111</v>
       </c>
       <c r="B8">
-        <v>21831</v>
+        <v>22234</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3789,7 +3789,7 @@
         <v>67</v>
       </c>
       <c r="B9">
-        <v>12820</v>
+        <v>12964</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3797,7 +3797,7 @@
         <v>112</v>
       </c>
       <c r="B10">
-        <v>9749</v>
+        <v>9883</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3805,7 +3805,7 @@
         <v>113</v>
       </c>
       <c r="B11">
-        <v>5712</v>
+        <v>5948</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3813,7 +3813,7 @@
         <v>114</v>
       </c>
       <c r="B12">
-        <v>5712</v>
+        <v>5948</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3821,7 +3821,7 @@
         <v>70</v>
       </c>
       <c r="B13">
-        <v>4757</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3829,7 +3829,7 @@
         <v>69</v>
       </c>
       <c r="B14">
-        <v>4496</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3837,7 +3837,7 @@
         <v>115</v>
       </c>
       <c r="B15">
-        <v>2105</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3845,7 +3845,7 @@
         <v>116</v>
       </c>
       <c r="B16">
-        <v>1232</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="17" spans="1:2">

--- a/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
@@ -761,7 +761,7 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>12353908</v>
+        <v>12655542</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -775,7 +775,7 @@
         <v>60</v>
       </c>
       <c r="D3">
-        <v>1391849</v>
+        <v>1418572</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -789,7 +789,7 @@
         <v>60</v>
       </c>
       <c r="D4">
-        <v>1009928</v>
+        <v>1021236</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -803,7 +803,7 @@
         <v>61</v>
       </c>
       <c r="D5">
-        <v>232106</v>
+        <v>235346</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -817,7 +817,7 @@
         <v>62</v>
       </c>
       <c r="D6">
-        <v>209621</v>
+        <v>215902</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>167461</v>
+        <v>173478</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -845,7 +845,7 @@
         <v>59</v>
       </c>
       <c r="D8">
-        <v>159750</v>
+        <v>162102</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -859,7 +859,7 @@
         <v>59</v>
       </c>
       <c r="D9">
-        <v>157541</v>
+        <v>160435</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -873,7 +873,7 @@
         <v>59</v>
       </c>
       <c r="D10">
-        <v>143735</v>
+        <v>146177</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -887,7 +887,7 @@
         <v>62</v>
       </c>
       <c r="D11">
-        <v>130945</v>
+        <v>133370</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -901,7 +901,7 @@
         <v>63</v>
       </c>
       <c r="D12">
-        <v>117114</v>
+        <v>119309</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -915,7 +915,7 @@
         <v>62</v>
       </c>
       <c r="D13">
-        <v>103240</v>
+        <v>106174</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -929,7 +929,7 @@
         <v>64</v>
       </c>
       <c r="D14">
-        <v>86888</v>
+        <v>88524</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -943,7 +943,7 @@
         <v>61</v>
       </c>
       <c r="D15">
-        <v>80373</v>
+        <v>82547</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -957,7 +957,7 @@
         <v>59</v>
       </c>
       <c r="D16">
-        <v>71907</v>
+        <v>72783</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -971,7 +971,7 @@
         <v>65</v>
       </c>
       <c r="D17">
-        <v>65333</v>
+        <v>66349</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -985,7 +985,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>56345</v>
+        <v>56820</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -999,7 +999,7 @@
         <v>66</v>
       </c>
       <c r="D19">
-        <v>38997</v>
+        <v>39454</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1013,7 +1013,7 @@
         <v>64</v>
       </c>
       <c r="D20">
-        <v>34987</v>
+        <v>35990</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1027,7 +1027,7 @@
         <v>59</v>
       </c>
       <c r="D21">
-        <v>30863</v>
+        <v>31214</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1041,7 +1041,7 @@
         <v>64</v>
       </c>
       <c r="D22">
-        <v>29118</v>
+        <v>30606</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1055,7 +1055,7 @@
         <v>67</v>
       </c>
       <c r="D23">
-        <v>27963</v>
+        <v>28347</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1069,7 +1069,7 @@
         <v>66</v>
       </c>
       <c r="D24">
-        <v>25404</v>
+        <v>25947</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1083,7 +1083,7 @@
         <v>68</v>
       </c>
       <c r="D25">
-        <v>23299</v>
+        <v>23456</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1097,7 +1097,7 @@
         <v>69</v>
       </c>
       <c r="D26">
-        <v>8058</v>
+        <v>8236</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1111,7 +1111,7 @@
         <v>70</v>
       </c>
       <c r="D27">
-        <v>6335</v>
+        <v>6534</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1125,7 +1125,7 @@
         <v>71</v>
       </c>
       <c r="D28">
-        <v>6135</v>
+        <v>6490</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1139,7 +1139,7 @@
         <v>72</v>
       </c>
       <c r="D29">
-        <v>5429</v>
+        <v>5552</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1153,7 +1153,7 @@
         <v>73</v>
       </c>
       <c r="D30">
-        <v>4862</v>
+        <v>4894</v>
       </c>
     </row>
   </sheetData>
@@ -1197,10 +1197,10 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E2">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>59</v>
       </c>
       <c r="D4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1251,7 +1251,7 @@
         <v>63</v>
       </c>
       <c r="E5">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>66</v>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1299,10 +1299,10 @@
         <v>63</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1717,7 +1717,7 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>476951</v>
+        <v>494458</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1731,7 +1731,7 @@
         <v>59</v>
       </c>
       <c r="D3">
-        <v>113859</v>
+        <v>117037</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1745,7 +1745,7 @@
         <v>60</v>
       </c>
       <c r="D4">
-        <v>86415</v>
+        <v>88173</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1759,7 +1759,7 @@
         <v>62</v>
       </c>
       <c r="D5">
-        <v>86065</v>
+        <v>87529</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1773,7 +1773,7 @@
         <v>64</v>
       </c>
       <c r="D6">
-        <v>80681</v>
+        <v>82273</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1787,7 +1787,7 @@
         <v>64</v>
       </c>
       <c r="D7">
-        <v>67277</v>
+        <v>68450</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1801,7 +1801,7 @@
         <v>62</v>
       </c>
       <c r="D8">
-        <v>64840</v>
+        <v>65840</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1815,7 +1815,7 @@
         <v>60</v>
       </c>
       <c r="D9">
-        <v>61160</v>
+        <v>61958</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1829,7 +1829,7 @@
         <v>64</v>
       </c>
       <c r="D10">
-        <v>43957</v>
+        <v>44886</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1843,7 +1843,7 @@
         <v>59</v>
       </c>
       <c r="D11">
-        <v>41910</v>
+        <v>43085</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1857,7 +1857,7 @@
         <v>66</v>
       </c>
       <c r="D12">
-        <v>38595</v>
+        <v>39576</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1871,7 +1871,7 @@
         <v>59</v>
       </c>
       <c r="D13">
-        <v>29386</v>
+        <v>30231</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1885,7 +1885,7 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>28432</v>
+        <v>28834</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1899,7 +1899,7 @@
         <v>59</v>
       </c>
       <c r="D15">
-        <v>24355</v>
+        <v>25044</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1913,7 +1913,7 @@
         <v>59</v>
       </c>
       <c r="D16">
-        <v>23104</v>
+        <v>23708</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1927,7 +1927,7 @@
         <v>65</v>
       </c>
       <c r="D17">
-        <v>22234</v>
+        <v>22784</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1941,7 +1941,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>12552</v>
+        <v>12852</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1955,7 +1955,7 @@
         <v>66</v>
       </c>
       <c r="D19">
-        <v>12229</v>
+        <v>12444</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1969,7 +1969,7 @@
         <v>67</v>
       </c>
       <c r="D20">
-        <v>10823</v>
+        <v>11012</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1983,7 +1983,7 @@
         <v>68</v>
       </c>
       <c r="D21">
-        <v>9883</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1997,7 +1997,7 @@
         <v>71</v>
       </c>
       <c r="D22">
-        <v>5948</v>
+        <v>6227</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2011,7 +2011,7 @@
         <v>69</v>
       </c>
       <c r="D23">
-        <v>4589</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2025,7 +2025,7 @@
         <v>70</v>
       </c>
       <c r="D24">
-        <v>3551</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2039,7 +2039,7 @@
         <v>72</v>
       </c>
       <c r="D25">
-        <v>2141</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2053,7 +2053,7 @@
         <v>73</v>
       </c>
       <c r="D26">
-        <v>1245</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2138,7 +2138,7 @@
         <v>77</v>
       </c>
       <c r="B2">
-        <v>12353908</v>
+        <v>12655542</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>78</v>
       </c>
       <c r="B3">
-        <v>12353908</v>
+        <v>12655542</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>79</v>
       </c>
       <c r="B4">
-        <v>1391849</v>
+        <v>1418572</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>80</v>
       </c>
       <c r="B5">
-        <v>1391849</v>
+        <v>1418572</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1009928</v>
+        <v>1021236</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>271103</v>
+        <v>274800</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>247834</v>
+        <v>256025</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>81</v>
       </c>
       <c r="B9">
-        <v>232106</v>
+        <v>235346</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>209621</v>
+        <v>215902</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>159750</v>
+        <v>162102</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>82</v>
       </c>
       <c r="B12">
-        <v>157541</v>
+        <v>160435</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>83</v>
       </c>
       <c r="B13">
-        <v>157541</v>
+        <v>160435</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>84</v>
       </c>
       <c r="B14">
-        <v>150993</v>
+        <v>155120</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>85</v>
       </c>
       <c r="B15">
-        <v>150993</v>
+        <v>155120</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>86</v>
       </c>
       <c r="B16">
-        <v>150993</v>
+        <v>155120</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>87</v>
       </c>
       <c r="B17">
-        <v>143735</v>
+        <v>146177</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>88</v>
       </c>
       <c r="B18">
-        <v>143735</v>
+        <v>146177</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>89</v>
       </c>
       <c r="B19">
-        <v>143735</v>
+        <v>146177</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>90</v>
       </c>
       <c r="B20">
-        <v>130945</v>
+        <v>133370</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>91</v>
       </c>
       <c r="B21">
-        <v>130945</v>
+        <v>133370</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>92</v>
       </c>
       <c r="B22">
-        <v>117114</v>
+        <v>119309</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>93</v>
       </c>
       <c r="B23">
-        <v>117114</v>
+        <v>119309</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>94</v>
       </c>
       <c r="B24">
-        <v>117114</v>
+        <v>119309</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>15</v>
       </c>
       <c r="B25">
-        <v>103240</v>
+        <v>106174</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>17</v>
       </c>
       <c r="B26">
-        <v>71907</v>
+        <v>72783</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>95</v>
       </c>
       <c r="B27">
-        <v>65333</v>
+        <v>66349</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>96</v>
       </c>
       <c r="B28">
-        <v>65333</v>
+        <v>66349</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>19</v>
       </c>
       <c r="B29">
-        <v>56345</v>
+        <v>56820</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>21</v>
       </c>
       <c r="B30">
-        <v>30863</v>
+        <v>31214</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>97</v>
       </c>
       <c r="B31">
-        <v>27963</v>
+        <v>28347</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>98</v>
       </c>
       <c r="B32">
-        <v>27963</v>
+        <v>28347</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>99</v>
       </c>
       <c r="B33">
-        <v>25404</v>
+        <v>25947</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>100</v>
       </c>
       <c r="B34">
-        <v>25404</v>
+        <v>25947</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>24</v>
       </c>
       <c r="B35">
-        <v>23299</v>
+        <v>23456</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>101</v>
       </c>
       <c r="B36">
-        <v>8058</v>
+        <v>8236</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>102</v>
       </c>
       <c r="B37">
-        <v>8058</v>
+        <v>8236</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>103</v>
       </c>
       <c r="B38">
-        <v>6335</v>
+        <v>6534</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>104</v>
       </c>
       <c r="B39">
-        <v>6335</v>
+        <v>6534</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>27</v>
       </c>
       <c r="B40">
-        <v>6135</v>
+        <v>6490</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>105</v>
       </c>
       <c r="B41">
-        <v>5429</v>
+        <v>5552</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>106</v>
       </c>
       <c r="B42">
-        <v>5429</v>
+        <v>5552</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>107</v>
       </c>
       <c r="B43">
-        <v>5429</v>
+        <v>5552</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>29</v>
       </c>
       <c r="B44">
-        <v>4862</v>
+        <v>4894</v>
       </c>
     </row>
   </sheetData>
@@ -2506,10 +2506,10 @@
         <v>82</v>
       </c>
       <c r="B2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C2">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2517,10 +2517,10 @@
         <v>83</v>
       </c>
       <c r="B3">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C3">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2539,10 +2539,10 @@
         <v>87</v>
       </c>
       <c r="B5">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2550,10 +2550,10 @@
         <v>88</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2561,10 +2561,10 @@
         <v>89</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>63</v>
       </c>
       <c r="C8">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>63</v>
       </c>
       <c r="C9">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2605,10 +2605,10 @@
         <v>99</v>
       </c>
       <c r="B11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2616,10 +2616,10 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2627,10 +2627,10 @@
         <v>92</v>
       </c>
       <c r="B13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2638,10 +2638,10 @@
         <v>93</v>
       </c>
       <c r="B14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2649,10 +2649,10 @@
         <v>94</v>
       </c>
       <c r="B15">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3000,7 +3000,7 @@
         <v>77</v>
       </c>
       <c r="B2">
-        <v>476951</v>
+        <v>494458</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3008,7 +3008,7 @@
         <v>78</v>
       </c>
       <c r="B3">
-        <v>476951</v>
+        <v>494458</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3016,7 +3016,7 @@
         <v>84</v>
       </c>
       <c r="B4">
-        <v>191915</v>
+        <v>195609</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3024,7 +3024,7 @@
         <v>85</v>
       </c>
       <c r="B5">
-        <v>191915</v>
+        <v>195609</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3032,7 +3032,7 @@
         <v>86</v>
       </c>
       <c r="B6">
-        <v>191915</v>
+        <v>195609</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3040,7 +3040,7 @@
         <v>82</v>
       </c>
       <c r="B7">
-        <v>113859</v>
+        <v>117037</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3048,7 +3048,7 @@
         <v>83</v>
       </c>
       <c r="B8">
-        <v>113859</v>
+        <v>117037</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3056,7 +3056,7 @@
         <v>79</v>
       </c>
       <c r="B9">
-        <v>86415</v>
+        <v>88173</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3064,7 +3064,7 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>86415</v>
+        <v>88173</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3072,7 +3072,7 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>86065</v>
+        <v>87529</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3080,7 +3080,7 @@
         <v>90</v>
       </c>
       <c r="B12">
-        <v>64840</v>
+        <v>65840</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3088,7 +3088,7 @@
         <v>91</v>
       </c>
       <c r="B13">
-        <v>64840</v>
+        <v>65840</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3096,7 +3096,7 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>61160</v>
+        <v>61958</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3104,7 +3104,7 @@
         <v>87</v>
       </c>
       <c r="B15">
-        <v>41910</v>
+        <v>43085</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3112,7 +3112,7 @@
         <v>88</v>
       </c>
       <c r="B16">
-        <v>41910</v>
+        <v>43085</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3120,7 +3120,7 @@
         <v>89</v>
       </c>
       <c r="B17">
-        <v>41910</v>
+        <v>43085</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3128,7 +3128,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>38595</v>
+        <v>39576</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3136,7 +3136,7 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>29386</v>
+        <v>30231</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3144,7 +3144,7 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>28432</v>
+        <v>28834</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3152,7 +3152,7 @@
         <v>10</v>
       </c>
       <c r="B21">
-        <v>24355</v>
+        <v>25044</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3160,7 +3160,7 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>23104</v>
+        <v>23708</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3168,7 +3168,7 @@
         <v>95</v>
       </c>
       <c r="B23">
-        <v>22234</v>
+        <v>22784</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3176,7 +3176,7 @@
         <v>96</v>
       </c>
       <c r="B24">
-        <v>22234</v>
+        <v>22784</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3184,7 +3184,7 @@
         <v>19</v>
       </c>
       <c r="B25">
-        <v>12552</v>
+        <v>12852</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3192,7 +3192,7 @@
         <v>99</v>
       </c>
       <c r="B26">
-        <v>12229</v>
+        <v>12444</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3200,7 +3200,7 @@
         <v>100</v>
       </c>
       <c r="B27">
-        <v>12229</v>
+        <v>12444</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3208,7 +3208,7 @@
         <v>97</v>
       </c>
       <c r="B28">
-        <v>10823</v>
+        <v>11012</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3216,7 +3216,7 @@
         <v>98</v>
       </c>
       <c r="B29">
-        <v>10823</v>
+        <v>11012</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3224,7 +3224,7 @@
         <v>24</v>
       </c>
       <c r="B30">
-        <v>9883</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3232,7 +3232,7 @@
         <v>27</v>
       </c>
       <c r="B31">
-        <v>5948</v>
+        <v>6227</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3240,7 +3240,7 @@
         <v>101</v>
       </c>
       <c r="B32">
-        <v>4589</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3248,7 +3248,7 @@
         <v>102</v>
       </c>
       <c r="B33">
-        <v>4589</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3256,7 +3256,7 @@
         <v>103</v>
       </c>
       <c r="B34">
-        <v>3551</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3264,7 +3264,7 @@
         <v>104</v>
       </c>
       <c r="B35">
-        <v>3551</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3272,7 +3272,7 @@
         <v>105</v>
       </c>
       <c r="B36">
-        <v>2141</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3280,7 +3280,7 @@
         <v>106</v>
       </c>
       <c r="B37">
-        <v>2141</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3288,7 +3288,7 @@
         <v>107</v>
       </c>
       <c r="B38">
-        <v>2141</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3296,7 +3296,7 @@
         <v>29</v>
       </c>
       <c r="B39">
-        <v>1245</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3365,7 +3365,7 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>12917704</v>
+        <v>13228253</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3373,7 +3373,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>2401777</v>
+        <v>2439808</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3381,7 +3381,7 @@
         <v>62</v>
       </c>
       <c r="B4">
-        <v>443806</v>
+        <v>455446</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3389,7 +3389,7 @@
         <v>64</v>
       </c>
       <c r="B5">
-        <v>150993</v>
+        <v>155120</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3397,7 +3397,7 @@
         <v>108</v>
       </c>
       <c r="B6">
-        <v>117114</v>
+        <v>119309</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3405,7 +3405,7 @@
         <v>109</v>
       </c>
       <c r="B7">
-        <v>117114</v>
+        <v>119309</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3413,7 +3413,7 @@
         <v>66</v>
       </c>
       <c r="B8">
-        <v>87700</v>
+        <v>88857</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3421,7 +3421,7 @@
         <v>110</v>
       </c>
       <c r="B9">
-        <v>65333</v>
+        <v>66349</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3429,7 +3429,7 @@
         <v>111</v>
       </c>
       <c r="B10">
-        <v>65333</v>
+        <v>66349</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3437,7 +3437,7 @@
         <v>67</v>
       </c>
       <c r="B11">
-        <v>33392</v>
+        <v>33899</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3445,7 +3445,7 @@
         <v>112</v>
       </c>
       <c r="B12">
-        <v>23299</v>
+        <v>23456</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3453,7 +3453,7 @@
         <v>70</v>
       </c>
       <c r="B13">
-        <v>11197</v>
+        <v>11428</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3461,7 +3461,7 @@
         <v>69</v>
       </c>
       <c r="B14">
-        <v>8058</v>
+        <v>8236</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3469,7 +3469,7 @@
         <v>113</v>
       </c>
       <c r="B15">
-        <v>6135</v>
+        <v>6490</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>114</v>
       </c>
       <c r="B16">
-        <v>6135</v>
+        <v>6490</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3485,7 +3485,7 @@
         <v>115</v>
       </c>
       <c r="B17">
-        <v>5429</v>
+        <v>5552</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3493,7 +3493,7 @@
         <v>116</v>
       </c>
       <c r="B18">
-        <v>4862</v>
+        <v>4894</v>
       </c>
     </row>
   </sheetData>
@@ -3525,10 +3525,10 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C2">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3536,10 +3536,10 @@
         <v>66</v>
       </c>
       <c r="B3">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C3">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3547,10 +3547,10 @@
         <v>108</v>
       </c>
       <c r="B4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3558,10 +3558,10 @@
         <v>109</v>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3733,7 +3733,7 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>709565</v>
+        <v>733563</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3741,7 +3741,7 @@
         <v>64</v>
       </c>
       <c r="B3">
-        <v>191915</v>
+        <v>195609</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3749,7 +3749,7 @@
         <v>62</v>
       </c>
       <c r="B4">
-        <v>179337</v>
+        <v>182203</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3757,7 +3757,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>147575</v>
+        <v>150131</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3765,7 +3765,7 @@
         <v>66</v>
       </c>
       <c r="B6">
-        <v>60707</v>
+        <v>62120</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3773,7 +3773,7 @@
         <v>110</v>
       </c>
       <c r="B7">
-        <v>22234</v>
+        <v>22784</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3781,7 +3781,7 @@
         <v>111</v>
       </c>
       <c r="B8">
-        <v>22234</v>
+        <v>22784</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3789,7 +3789,7 @@
         <v>67</v>
       </c>
       <c r="B9">
-        <v>12964</v>
+        <v>13204</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3797,7 +3797,7 @@
         <v>112</v>
       </c>
       <c r="B10">
-        <v>9883</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3805,7 +3805,7 @@
         <v>113</v>
       </c>
       <c r="B11">
-        <v>5948</v>
+        <v>6227</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3813,7 +3813,7 @@
         <v>114</v>
       </c>
       <c r="B12">
-        <v>5948</v>
+        <v>6227</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3821,7 +3821,7 @@
         <v>70</v>
       </c>
       <c r="B13">
-        <v>4796</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3829,7 +3829,7 @@
         <v>69</v>
       </c>
       <c r="B14">
-        <v>4589</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3837,7 +3837,7 @@
         <v>115</v>
       </c>
       <c r="B15">
-        <v>2141</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3845,7 +3845,7 @@
         <v>116</v>
       </c>
       <c r="B16">
-        <v>1245</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="17" spans="1:2">

--- a/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
@@ -102,12 +102,12 @@
     <t>Dossa &amp; Locuzzed, Anastasia</t>
   </si>
   <si>
+    <t>Polygon</t>
+  </si>
+  <si>
     <t>Showmain, 7en</t>
   </si>
   <si>
-    <t>Polygon</t>
-  </si>
-  <si>
     <t>Kamix, WYKO, PJONAX</t>
   </si>
   <si>
@@ -171,12 +171,12 @@
     <t>Wanna Love</t>
   </si>
   <si>
+    <t>On My Mind (Chime Mix)</t>
+  </si>
+  <si>
     <t>Miss</t>
   </si>
   <si>
-    <t>On My Mind (Chime Mix)</t>
-  </si>
-  <si>
     <t>Undercover (Club Edit)</t>
   </si>
   <si>
@@ -189,12 +189,12 @@
     <t>Right Way</t>
   </si>
   <si>
+    <t>Falling</t>
+  </si>
+  <si>
     <t>Chasing The Sun</t>
   </si>
   <si>
-    <t>Falling</t>
-  </si>
-  <si>
     <t>Without You</t>
   </si>
   <si>
@@ -234,10 +234,10 @@
     <t>Viper Recordings</t>
   </si>
   <si>
+    <t>Elevate Records, SHOGUN</t>
+  </si>
+  <si>
     <t>Future House Cloud</t>
-  </si>
-  <si>
-    <t>Elevate Records, SHOGUN</t>
   </si>
   <si>
     <t>Revealed Music, Revealed Radar</t>
@@ -761,7 +761,7 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>12655542</v>
+        <v>13024653</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -775,7 +775,7 @@
         <v>60</v>
       </c>
       <c r="D3">
-        <v>1418572</v>
+        <v>1456447</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -789,7 +789,7 @@
         <v>60</v>
       </c>
       <c r="D4">
-        <v>1021236</v>
+        <v>1036396</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -803,7 +803,7 @@
         <v>61</v>
       </c>
       <c r="D5">
-        <v>235346</v>
+        <v>239104</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -817,7 +817,7 @@
         <v>62</v>
       </c>
       <c r="D6">
-        <v>215902</v>
+        <v>224833</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>173478</v>
+        <v>180917</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -845,7 +845,7 @@
         <v>59</v>
       </c>
       <c r="D8">
-        <v>162102</v>
+        <v>165243</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -859,7 +859,7 @@
         <v>59</v>
       </c>
       <c r="D9">
-        <v>160435</v>
+        <v>163872</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -873,7 +873,7 @@
         <v>59</v>
       </c>
       <c r="D10">
-        <v>146177</v>
+        <v>149050</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -887,7 +887,7 @@
         <v>62</v>
       </c>
       <c r="D11">
-        <v>133370</v>
+        <v>136648</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -901,7 +901,7 @@
         <v>63</v>
       </c>
       <c r="D12">
-        <v>119309</v>
+        <v>122271</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -915,7 +915,7 @@
         <v>62</v>
       </c>
       <c r="D13">
-        <v>106174</v>
+        <v>109593</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -929,7 +929,7 @@
         <v>64</v>
       </c>
       <c r="D14">
-        <v>88524</v>
+        <v>90847</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -943,7 +943,7 @@
         <v>61</v>
       </c>
       <c r="D15">
-        <v>82547</v>
+        <v>84896</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -957,7 +957,7 @@
         <v>59</v>
       </c>
       <c r="D16">
-        <v>72783</v>
+        <v>73952</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -971,7 +971,7 @@
         <v>65</v>
       </c>
       <c r="D17">
-        <v>66349</v>
+        <v>67808</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -985,7 +985,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>56820</v>
+        <v>57395</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -999,7 +999,7 @@
         <v>66</v>
       </c>
       <c r="D19">
-        <v>39454</v>
+        <v>40032</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1013,35 +1013,35 @@
         <v>64</v>
       </c>
       <c r="D20">
-        <v>35990</v>
+        <v>37349</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D21">
-        <v>31214</v>
+        <v>32704</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D22">
-        <v>30606</v>
+        <v>31691</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1055,7 +1055,7 @@
         <v>67</v>
       </c>
       <c r="D23">
-        <v>28347</v>
+        <v>29223</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1069,7 +1069,7 @@
         <v>66</v>
       </c>
       <c r="D24">
-        <v>25947</v>
+        <v>26559</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1083,7 +1083,7 @@
         <v>68</v>
       </c>
       <c r="D25">
-        <v>23456</v>
+        <v>23649</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1097,7 +1097,7 @@
         <v>69</v>
       </c>
       <c r="D26">
-        <v>8236</v>
+        <v>8398</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1111,7 +1111,7 @@
         <v>70</v>
       </c>
       <c r="D27">
-        <v>6534</v>
+        <v>6897</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1125,7 +1125,7 @@
         <v>71</v>
       </c>
       <c r="D28">
-        <v>6490</v>
+        <v>6738</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1139,7 +1139,7 @@
         <v>72</v>
       </c>
       <c r="D29">
-        <v>5552</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1153,7 +1153,7 @@
         <v>73</v>
       </c>
       <c r="D30">
-        <v>4894</v>
+        <v>4962</v>
       </c>
     </row>
   </sheetData>
@@ -1197,10 +1197,10 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E2">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>66</v>
       </c>
       <c r="D3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>59</v>
       </c>
       <c r="D4">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E4">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1251,7 +1251,7 @@
         <v>63</v>
       </c>
       <c r="E5">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>61</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1299,10 +1299,10 @@
         <v>63</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1316,10 +1316,10 @@
         <v>59</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1344,7 +1344,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>59</v>
@@ -1401,10 +1401,10 @@
         <v>72</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1446,7 +1446,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
         <v>64</v>
@@ -1460,13 +1460,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -1486,10 +1486,10 @@
         <v>64</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1503,10 +1503,10 @@
         <v>64</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1528,13 +1528,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1717,7 +1717,7 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>494458</v>
+        <v>518041</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1731,7 +1731,7 @@
         <v>59</v>
       </c>
       <c r="D3">
-        <v>117037</v>
+        <v>120835</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1745,7 +1745,7 @@
         <v>60</v>
       </c>
       <c r="D4">
-        <v>88173</v>
+        <v>90549</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1759,7 +1759,7 @@
         <v>62</v>
       </c>
       <c r="D5">
-        <v>87529</v>
+        <v>89658</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1773,7 +1773,7 @@
         <v>64</v>
       </c>
       <c r="D6">
-        <v>82273</v>
+        <v>84193</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1781,13 +1781,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
       </c>
       <c r="D7">
-        <v>68450</v>
+        <v>69900</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1801,7 +1801,7 @@
         <v>62</v>
       </c>
       <c r="D8">
-        <v>65840</v>
+        <v>67035</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1815,7 +1815,7 @@
         <v>60</v>
       </c>
       <c r="D9">
-        <v>61958</v>
+        <v>62856</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1829,7 +1829,7 @@
         <v>64</v>
       </c>
       <c r="D10">
-        <v>44886</v>
+        <v>46045</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1843,7 +1843,7 @@
         <v>59</v>
       </c>
       <c r="D11">
-        <v>43085</v>
+        <v>44389</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1857,7 +1857,7 @@
         <v>66</v>
       </c>
       <c r="D12">
-        <v>39576</v>
+        <v>40893</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1865,13 +1865,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>59</v>
       </c>
       <c r="D13">
-        <v>30231</v>
+        <v>31548</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1885,7 +1885,7 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>28834</v>
+        <v>29487</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1899,7 +1899,7 @@
         <v>59</v>
       </c>
       <c r="D15">
-        <v>25044</v>
+        <v>25823</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1913,7 +1913,7 @@
         <v>59</v>
       </c>
       <c r="D16">
-        <v>23708</v>
+        <v>24580</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1927,7 +1927,7 @@
         <v>65</v>
       </c>
       <c r="D17">
-        <v>22784</v>
+        <v>23382</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1941,7 +1941,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>12852</v>
+        <v>13142</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1955,7 +1955,7 @@
         <v>66</v>
       </c>
       <c r="D19">
-        <v>12444</v>
+        <v>12763</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1969,7 +1969,7 @@
         <v>67</v>
       </c>
       <c r="D20">
-        <v>11012</v>
+        <v>11177</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1983,21 +1983,21 @@
         <v>68</v>
       </c>
       <c r="D21">
-        <v>10100</v>
+        <v>10317</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22">
-        <v>6227</v>
+        <v>6572</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2011,21 +2011,21 @@
         <v>69</v>
       </c>
       <c r="D23">
-        <v>4652</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24">
-        <v>3599</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2039,7 +2039,7 @@
         <v>72</v>
       </c>
       <c r="D25">
-        <v>2192</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2053,7 +2053,7 @@
         <v>73</v>
       </c>
       <c r="D26">
-        <v>1258</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2138,7 +2138,7 @@
         <v>77</v>
       </c>
       <c r="B2">
-        <v>12655542</v>
+        <v>13024653</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>78</v>
       </c>
       <c r="B3">
-        <v>12655542</v>
+        <v>13024653</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>79</v>
       </c>
       <c r="B4">
-        <v>1418572</v>
+        <v>1456447</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>80</v>
       </c>
       <c r="B5">
-        <v>1418572</v>
+        <v>1456447</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1021236</v>
+        <v>1036396</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>274800</v>
+        <v>279136</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>256025</v>
+        <v>265813</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>81</v>
       </c>
       <c r="B9">
-        <v>235346</v>
+        <v>239104</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>215902</v>
+        <v>224833</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>162102</v>
+        <v>165243</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>82</v>
       </c>
       <c r="B12">
-        <v>160435</v>
+        <v>163872</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>83</v>
       </c>
       <c r="B13">
-        <v>160435</v>
+        <v>163872</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>84</v>
       </c>
       <c r="B14">
-        <v>155120</v>
+        <v>160900</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>85</v>
       </c>
       <c r="B15">
-        <v>155120</v>
+        <v>160900</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>86</v>
       </c>
       <c r="B16">
-        <v>155120</v>
+        <v>160900</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>87</v>
       </c>
       <c r="B17">
-        <v>146177</v>
+        <v>149050</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>88</v>
       </c>
       <c r="B18">
-        <v>146177</v>
+        <v>149050</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>89</v>
       </c>
       <c r="B19">
-        <v>146177</v>
+        <v>149050</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>90</v>
       </c>
       <c r="B20">
-        <v>133370</v>
+        <v>136648</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>91</v>
       </c>
       <c r="B21">
-        <v>133370</v>
+        <v>136648</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>92</v>
       </c>
       <c r="B22">
-        <v>119309</v>
+        <v>122271</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>93</v>
       </c>
       <c r="B23">
-        <v>119309</v>
+        <v>122271</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>94</v>
       </c>
       <c r="B24">
-        <v>119309</v>
+        <v>122271</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>15</v>
       </c>
       <c r="B25">
-        <v>106174</v>
+        <v>109593</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>17</v>
       </c>
       <c r="B26">
-        <v>72783</v>
+        <v>73952</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>95</v>
       </c>
       <c r="B27">
-        <v>66349</v>
+        <v>67808</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>96</v>
       </c>
       <c r="B28">
-        <v>66349</v>
+        <v>67808</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>19</v>
       </c>
       <c r="B29">
-        <v>56820</v>
+        <v>57395</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>21</v>
       </c>
       <c r="B30">
-        <v>31214</v>
+        <v>31691</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>97</v>
       </c>
       <c r="B31">
-        <v>28347</v>
+        <v>29223</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>98</v>
       </c>
       <c r="B32">
-        <v>28347</v>
+        <v>29223</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>99</v>
       </c>
       <c r="B33">
-        <v>25947</v>
+        <v>26559</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>100</v>
       </c>
       <c r="B34">
-        <v>25947</v>
+        <v>26559</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>24</v>
       </c>
       <c r="B35">
-        <v>23456</v>
+        <v>23649</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>101</v>
       </c>
       <c r="B36">
-        <v>8236</v>
+        <v>8398</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2418,31 +2418,31 @@
         <v>102</v>
       </c>
       <c r="B37">
-        <v>8236</v>
+        <v>8398</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="B38">
-        <v>6534</v>
+        <v>6897</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B39">
-        <v>6534</v>
+        <v>6738</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="B40">
-        <v>6490</v>
+        <v>6738</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>105</v>
       </c>
       <c r="B41">
-        <v>5552</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>106</v>
       </c>
       <c r="B42">
-        <v>5552</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>107</v>
       </c>
       <c r="B43">
-        <v>5552</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>29</v>
       </c>
       <c r="B44">
-        <v>4894</v>
+        <v>4962</v>
       </c>
     </row>
   </sheetData>
@@ -2506,10 +2506,10 @@
         <v>82</v>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2517,10 +2517,10 @@
         <v>83</v>
       </c>
       <c r="B3">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C3">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2528,10 +2528,10 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C4">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2539,10 +2539,10 @@
         <v>87</v>
       </c>
       <c r="B5">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2550,10 +2550,10 @@
         <v>88</v>
       </c>
       <c r="B6">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2561,10 +2561,10 @@
         <v>89</v>
       </c>
       <c r="B7">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>63</v>
       </c>
       <c r="C8">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>63</v>
       </c>
       <c r="C9">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2594,10 +2594,10 @@
         <v>81</v>
       </c>
       <c r="B10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2627,10 +2627,10 @@
         <v>92</v>
       </c>
       <c r="B13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2638,10 +2638,10 @@
         <v>93</v>
       </c>
       <c r="B14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2649,10 +2649,10 @@
         <v>94</v>
       </c>
       <c r="B15">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2660,10 +2660,10 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2712,57 +2712,57 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B24">
         <v>14</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B25">
         <v>14</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2770,10 +2770,10 @@
         <v>105</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2781,10 +2781,10 @@
         <v>106</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2792,10 +2792,10 @@
         <v>107</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2833,7 +2833,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -3000,7 +3000,7 @@
         <v>77</v>
       </c>
       <c r="B2">
-        <v>494458</v>
+        <v>518041</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3008,7 +3008,7 @@
         <v>78</v>
       </c>
       <c r="B3">
-        <v>494458</v>
+        <v>518041</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3016,7 +3016,7 @@
         <v>84</v>
       </c>
       <c r="B4">
-        <v>195609</v>
+        <v>200138</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3024,7 +3024,7 @@
         <v>85</v>
       </c>
       <c r="B5">
-        <v>195609</v>
+        <v>200138</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3032,7 +3032,7 @@
         <v>86</v>
       </c>
       <c r="B6">
-        <v>195609</v>
+        <v>200138</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3040,7 +3040,7 @@
         <v>82</v>
       </c>
       <c r="B7">
-        <v>117037</v>
+        <v>120835</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3048,7 +3048,7 @@
         <v>83</v>
       </c>
       <c r="B8">
-        <v>117037</v>
+        <v>120835</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3056,7 +3056,7 @@
         <v>79</v>
       </c>
       <c r="B9">
-        <v>88173</v>
+        <v>90549</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3064,7 +3064,7 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>88173</v>
+        <v>90549</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3072,7 +3072,7 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>87529</v>
+        <v>89658</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3080,7 +3080,7 @@
         <v>90</v>
       </c>
       <c r="B12">
-        <v>65840</v>
+        <v>67035</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3088,7 +3088,7 @@
         <v>91</v>
       </c>
       <c r="B13">
-        <v>65840</v>
+        <v>67035</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3096,7 +3096,7 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>61958</v>
+        <v>62856</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3104,7 +3104,7 @@
         <v>87</v>
       </c>
       <c r="B15">
-        <v>43085</v>
+        <v>44389</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3112,7 +3112,7 @@
         <v>88</v>
       </c>
       <c r="B16">
-        <v>43085</v>
+        <v>44389</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3120,7 +3120,7 @@
         <v>89</v>
       </c>
       <c r="B17">
-        <v>43085</v>
+        <v>44389</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3128,7 +3128,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>39576</v>
+        <v>40893</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3136,7 +3136,7 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>30231</v>
+        <v>31548</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3144,7 +3144,7 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>28834</v>
+        <v>29487</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3152,7 +3152,7 @@
         <v>10</v>
       </c>
       <c r="B21">
-        <v>25044</v>
+        <v>25823</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3160,7 +3160,7 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>23708</v>
+        <v>24580</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3168,7 +3168,7 @@
         <v>95</v>
       </c>
       <c r="B23">
-        <v>22784</v>
+        <v>23382</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3176,7 +3176,7 @@
         <v>96</v>
       </c>
       <c r="B24">
-        <v>22784</v>
+        <v>23382</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3184,7 +3184,7 @@
         <v>19</v>
       </c>
       <c r="B25">
-        <v>12852</v>
+        <v>13142</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3192,7 +3192,7 @@
         <v>99</v>
       </c>
       <c r="B26">
-        <v>12444</v>
+        <v>12763</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3200,7 +3200,7 @@
         <v>100</v>
       </c>
       <c r="B27">
-        <v>12444</v>
+        <v>12763</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3208,7 +3208,7 @@
         <v>97</v>
       </c>
       <c r="B28">
-        <v>11012</v>
+        <v>11177</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3216,7 +3216,7 @@
         <v>98</v>
       </c>
       <c r="B29">
-        <v>11012</v>
+        <v>11177</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3224,15 +3224,15 @@
         <v>24</v>
       </c>
       <c r="B30">
-        <v>10100</v>
+        <v>10317</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31">
-        <v>6227</v>
+        <v>6572</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3240,7 +3240,7 @@
         <v>101</v>
       </c>
       <c r="B32">
-        <v>4652</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3248,7 +3248,7 @@
         <v>102</v>
       </c>
       <c r="B33">
-        <v>4652</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3256,7 +3256,7 @@
         <v>103</v>
       </c>
       <c r="B34">
-        <v>3599</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3264,7 +3264,7 @@
         <v>104</v>
       </c>
       <c r="B35">
-        <v>3599</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3272,7 +3272,7 @@
         <v>105</v>
       </c>
       <c r="B36">
-        <v>2192</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3280,7 +3280,7 @@
         <v>106</v>
       </c>
       <c r="B37">
-        <v>2192</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3288,7 +3288,7 @@
         <v>107</v>
       </c>
       <c r="B38">
-        <v>2192</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3296,7 +3296,7 @@
         <v>29</v>
       </c>
       <c r="B39">
-        <v>1258</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3365,7 +3365,7 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>13228253</v>
+        <v>13608461</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3373,7 +3373,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>2439808</v>
+        <v>2492843</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3381,7 +3381,7 @@
         <v>62</v>
       </c>
       <c r="B4">
-        <v>455446</v>
+        <v>471074</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3389,7 +3389,7 @@
         <v>64</v>
       </c>
       <c r="B5">
-        <v>155120</v>
+        <v>160900</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3397,7 +3397,7 @@
         <v>108</v>
       </c>
       <c r="B6">
-        <v>119309</v>
+        <v>122271</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3405,7 +3405,7 @@
         <v>109</v>
       </c>
       <c r="B7">
-        <v>119309</v>
+        <v>122271</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3413,7 +3413,7 @@
         <v>66</v>
       </c>
       <c r="B8">
-        <v>88857</v>
+        <v>90240</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3421,7 +3421,7 @@
         <v>110</v>
       </c>
       <c r="B9">
-        <v>66349</v>
+        <v>67808</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3429,7 +3429,7 @@
         <v>111</v>
       </c>
       <c r="B10">
-        <v>66349</v>
+        <v>67808</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3437,7 +3437,7 @@
         <v>67</v>
       </c>
       <c r="B11">
-        <v>33899</v>
+        <v>34908</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3445,15 +3445,15 @@
         <v>112</v>
       </c>
       <c r="B12">
-        <v>23456</v>
+        <v>23649</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13">
-        <v>11428</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3461,7 +3461,7 @@
         <v>69</v>
       </c>
       <c r="B14">
-        <v>8236</v>
+        <v>8398</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3469,7 +3469,7 @@
         <v>113</v>
       </c>
       <c r="B15">
-        <v>6490</v>
+        <v>6897</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>114</v>
       </c>
       <c r="B16">
-        <v>6490</v>
+        <v>6897</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3485,7 +3485,7 @@
         <v>115</v>
       </c>
       <c r="B17">
-        <v>5552</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3493,7 +3493,7 @@
         <v>116</v>
       </c>
       <c r="B18">
-        <v>4894</v>
+        <v>4962</v>
       </c>
     </row>
   </sheetData>
@@ -3525,10 +3525,10 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C2">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3536,10 +3536,10 @@
         <v>66</v>
       </c>
       <c r="B3">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C3">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3547,10 +3547,10 @@
         <v>108</v>
       </c>
       <c r="B4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3558,10 +3558,10 @@
         <v>109</v>
       </c>
       <c r="B5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3591,10 +3591,10 @@
         <v>67</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3602,10 +3602,10 @@
         <v>64</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3613,10 +3613,10 @@
         <v>115</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3676,7 +3676,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -3733,7 +3733,7 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>733563</v>
+        <v>765216</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3741,7 +3741,7 @@
         <v>64</v>
       </c>
       <c r="B3">
-        <v>195609</v>
+        <v>200138</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3749,7 +3749,7 @@
         <v>62</v>
       </c>
       <c r="B4">
-        <v>182203</v>
+        <v>186180</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3757,7 +3757,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>150131</v>
+        <v>153405</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3765,7 +3765,7 @@
         <v>66</v>
       </c>
       <c r="B6">
-        <v>62120</v>
+        <v>63973</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3773,7 +3773,7 @@
         <v>110</v>
       </c>
       <c r="B7">
-        <v>22784</v>
+        <v>23382</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3781,7 +3781,7 @@
         <v>111</v>
       </c>
       <c r="B8">
-        <v>22784</v>
+        <v>23382</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3789,7 +3789,7 @@
         <v>67</v>
       </c>
       <c r="B9">
-        <v>13204</v>
+        <v>13428</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3797,7 +3797,7 @@
         <v>112</v>
       </c>
       <c r="B10">
-        <v>10100</v>
+        <v>10317</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3805,7 +3805,7 @@
         <v>113</v>
       </c>
       <c r="B11">
-        <v>6227</v>
+        <v>6572</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3813,15 +3813,15 @@
         <v>114</v>
       </c>
       <c r="B12">
-        <v>6227</v>
+        <v>6572</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13">
-        <v>4857</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3829,7 +3829,7 @@
         <v>69</v>
       </c>
       <c r="B14">
-        <v>4652</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3837,7 +3837,7 @@
         <v>115</v>
       </c>
       <c r="B15">
-        <v>2192</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3845,7 +3845,7 @@
         <v>116</v>
       </c>
       <c r="B16">
-        <v>1258</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="17" spans="1:2">

--- a/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 2.xlsx
@@ -761,7 +761,7 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>13024653</v>
+        <v>13124300</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -775,7 +775,7 @@
         <v>60</v>
       </c>
       <c r="D3">
-        <v>1456447</v>
+        <v>1467812</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -789,7 +789,7 @@
         <v>60</v>
       </c>
       <c r="D4">
-        <v>1036396</v>
+        <v>1040728</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -803,7 +803,7 @@
         <v>61</v>
       </c>
       <c r="D5">
-        <v>239104</v>
+        <v>240481</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -817,7 +817,7 @@
         <v>62</v>
       </c>
       <c r="D6">
-        <v>224833</v>
+        <v>227037</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="D7">
-        <v>180917</v>
+        <v>182538</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -845,7 +845,7 @@
         <v>59</v>
       </c>
       <c r="D8">
-        <v>165243</v>
+        <v>166051</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -859,7 +859,7 @@
         <v>59</v>
       </c>
       <c r="D9">
-        <v>163872</v>
+        <v>164834</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -873,7 +873,7 @@
         <v>59</v>
       </c>
       <c r="D10">
-        <v>149050</v>
+        <v>149881</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -887,7 +887,7 @@
         <v>62</v>
       </c>
       <c r="D11">
-        <v>136648</v>
+        <v>137397</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -901,7 +901,7 @@
         <v>63</v>
       </c>
       <c r="D12">
-        <v>122271</v>
+        <v>123268</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -915,7 +915,7 @@
         <v>62</v>
       </c>
       <c r="D13">
-        <v>109593</v>
+        <v>110519</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -929,7 +929,7 @@
         <v>64</v>
       </c>
       <c r="D14">
-        <v>90847</v>
+        <v>91436</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -943,7 +943,7 @@
         <v>61</v>
       </c>
       <c r="D15">
-        <v>84896</v>
+        <v>85525</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -957,7 +957,7 @@
         <v>59</v>
       </c>
       <c r="D16">
-        <v>73952</v>
+        <v>74277</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -971,7 +971,7 @@
         <v>65</v>
       </c>
       <c r="D17">
-        <v>67808</v>
+        <v>68178</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -985,7 +985,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>57395</v>
+        <v>57530</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -999,7 +999,7 @@
         <v>66</v>
       </c>
       <c r="D19">
-        <v>40032</v>
+        <v>40186</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1013,7 +1013,7 @@
         <v>64</v>
       </c>
       <c r="D20">
-        <v>37349</v>
+        <v>37689</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1027,7 +1027,7 @@
         <v>64</v>
       </c>
       <c r="D21">
-        <v>32704</v>
+        <v>33238</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1041,7 +1041,7 @@
         <v>59</v>
       </c>
       <c r="D22">
-        <v>31691</v>
+        <v>31840</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1055,7 +1055,7 @@
         <v>67</v>
       </c>
       <c r="D23">
-        <v>29223</v>
+        <v>29616</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1069,7 +1069,7 @@
         <v>66</v>
       </c>
       <c r="D24">
-        <v>26559</v>
+        <v>26722</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1083,7 +1083,7 @@
         <v>68</v>
       </c>
       <c r="D25">
-        <v>23649</v>
+        <v>23719</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1097,7 +1097,7 @@
         <v>69</v>
       </c>
       <c r="D26">
-        <v>8398</v>
+        <v>8455</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1111,7 +1111,7 @@
         <v>70</v>
       </c>
       <c r="D27">
-        <v>6897</v>
+        <v>7021</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1125,7 +1125,7 @@
         <v>71</v>
       </c>
       <c r="D28">
-        <v>6738</v>
+        <v>6779</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1139,7 +1139,7 @@
         <v>72</v>
       </c>
       <c r="D29">
-        <v>5685</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1153,7 +1153,7 @@
         <v>73</v>
       </c>
       <c r="D30">
-        <v>4962</v>
+        <v>4977</v>
       </c>
     </row>
   </sheetData>
@@ -1197,10 +1197,10 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E2">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1248,7 +1248,7 @@
         <v>59</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>102</v>
@@ -1316,10 +1316,10 @@
         <v>59</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1717,7 +1717,7 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>518041</v>
+        <v>524153</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1731,7 +1731,7 @@
         <v>59</v>
       </c>
       <c r="D3">
-        <v>120835</v>
+        <v>121879</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1745,7 +1745,7 @@
         <v>60</v>
       </c>
       <c r="D4">
-        <v>90549</v>
+        <v>91257</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1759,7 +1759,7 @@
         <v>62</v>
       </c>
       <c r="D5">
-        <v>89658</v>
+        <v>90210</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1773,7 +1773,7 @@
         <v>64</v>
       </c>
       <c r="D6">
-        <v>84193</v>
+        <v>84709</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1787,7 +1787,7 @@
         <v>64</v>
       </c>
       <c r="D7">
-        <v>69900</v>
+        <v>70282</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1801,7 +1801,7 @@
         <v>62</v>
       </c>
       <c r="D8">
-        <v>67035</v>
+        <v>67343</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1815,7 +1815,7 @@
         <v>60</v>
       </c>
       <c r="D9">
-        <v>62856</v>
+        <v>63083</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1829,7 +1829,7 @@
         <v>64</v>
       </c>
       <c r="D10">
-        <v>46045</v>
+        <v>46346</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1843,7 +1843,7 @@
         <v>59</v>
       </c>
       <c r="D11">
-        <v>44389</v>
+        <v>44751</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1857,7 +1857,7 @@
         <v>66</v>
       </c>
       <c r="D12">
-        <v>40893</v>
+        <v>41225</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1871,7 +1871,7 @@
         <v>59</v>
       </c>
       <c r="D13">
-        <v>31548</v>
+        <v>31898</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1885,7 +1885,7 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>29487</v>
+        <v>29658</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1899,7 +1899,7 @@
         <v>59</v>
       </c>
       <c r="D15">
-        <v>25823</v>
+        <v>26047</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1913,7 +1913,7 @@
         <v>59</v>
       </c>
       <c r="D16">
-        <v>24580</v>
+        <v>24769</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1927,7 +1927,7 @@
         <v>65</v>
       </c>
       <c r="D17">
-        <v>23382</v>
+        <v>23554</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1941,7 +1941,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>13142</v>
+        <v>13204</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1955,7 +1955,7 @@
         <v>66</v>
       </c>
       <c r="D19">
-        <v>12763</v>
+        <v>12832</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1969,7 +1969,7 @@
         <v>67</v>
       </c>
       <c r="D20">
-        <v>11177</v>
+        <v>11219</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1983,7 +1983,7 @@
         <v>68</v>
       </c>
       <c r="D21">
-        <v>10317</v>
+        <v>10383</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1997,7 +1997,7 @@
         <v>70</v>
       </c>
       <c r="D22">
-        <v>6572</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2011,7 +2011,7 @@
         <v>69</v>
       </c>
       <c r="D23">
-        <v>4788</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2025,7 +2025,7 @@
         <v>71</v>
       </c>
       <c r="D24">
-        <v>3710</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2039,7 +2039,7 @@
         <v>72</v>
       </c>
       <c r="D25">
-        <v>2251</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2053,7 +2053,7 @@
         <v>73</v>
       </c>
       <c r="D26">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2138,7 +2138,7 @@
         <v>77</v>
       </c>
       <c r="B2">
-        <v>13024653</v>
+        <v>13124300</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>78</v>
       </c>
       <c r="B3">
-        <v>13024653</v>
+        <v>13124300</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>79</v>
       </c>
       <c r="B4">
-        <v>1456447</v>
+        <v>1467812</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>80</v>
       </c>
       <c r="B5">
-        <v>1456447</v>
+        <v>1467812</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1036396</v>
+        <v>1040728</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>279136</v>
+        <v>280667</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>265813</v>
+        <v>268063</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>81</v>
       </c>
       <c r="B9">
-        <v>239104</v>
+        <v>240481</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>224833</v>
+        <v>227037</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>165243</v>
+        <v>166051</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>82</v>
       </c>
       <c r="B12">
-        <v>163872</v>
+        <v>164834</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>83</v>
       </c>
       <c r="B13">
-        <v>163872</v>
+        <v>164834</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>84</v>
       </c>
       <c r="B14">
-        <v>160900</v>
+        <v>162363</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>85</v>
       </c>
       <c r="B15">
-        <v>160900</v>
+        <v>162363</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>86</v>
       </c>
       <c r="B16">
-        <v>160900</v>
+        <v>162363</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>87</v>
       </c>
       <c r="B17">
-        <v>149050</v>
+        <v>149881</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>88</v>
       </c>
       <c r="B18">
-        <v>149050</v>
+        <v>149881</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>89</v>
       </c>
       <c r="B19">
-        <v>149050</v>
+        <v>149881</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>90</v>
       </c>
       <c r="B20">
-        <v>136648</v>
+        <v>137397</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>91</v>
       </c>
       <c r="B21">
-        <v>136648</v>
+        <v>137397</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>92</v>
       </c>
       <c r="B22">
-        <v>122271</v>
+        <v>123268</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>93</v>
       </c>
       <c r="B23">
-        <v>122271</v>
+        <v>123268</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>94</v>
       </c>
       <c r="B24">
-        <v>122271</v>
+        <v>123268</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>15</v>
       </c>
       <c r="B25">
-        <v>109593</v>
+        <v>110519</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>17</v>
       </c>
       <c r="B26">
-        <v>73952</v>
+        <v>74277</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>95</v>
       </c>
       <c r="B27">
-        <v>67808</v>
+        <v>68178</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>96</v>
       </c>
       <c r="B28">
-        <v>67808</v>
+        <v>68178</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>19</v>
       </c>
       <c r="B29">
-        <v>57395</v>
+        <v>57530</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>21</v>
       </c>
       <c r="B30">
-        <v>31691</v>
+        <v>31840</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>97</v>
       </c>
       <c r="B31">
-        <v>29223</v>
+        <v>29616</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>98</v>
       </c>
       <c r="B32">
-        <v>29223</v>
+        <v>29616</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>99</v>
       </c>
       <c r="B33">
-        <v>26559</v>
+        <v>26722</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>100</v>
       </c>
       <c r="B34">
-        <v>26559</v>
+        <v>26722</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>24</v>
       </c>
       <c r="B35">
-        <v>23649</v>
+        <v>23719</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>101</v>
       </c>
       <c r="B36">
-        <v>8398</v>
+        <v>8455</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>102</v>
       </c>
       <c r="B37">
-        <v>8398</v>
+        <v>8455</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>26</v>
       </c>
       <c r="B38">
-        <v>6897</v>
+        <v>7021</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>103</v>
       </c>
       <c r="B39">
-        <v>6738</v>
+        <v>6779</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>104</v>
       </c>
       <c r="B40">
-        <v>6738</v>
+        <v>6779</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>105</v>
       </c>
       <c r="B41">
-        <v>5685</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>106</v>
       </c>
       <c r="B42">
-        <v>5685</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>107</v>
       </c>
       <c r="B43">
-        <v>5685</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>29</v>
       </c>
       <c r="B44">
-        <v>4962</v>
+        <v>4977</v>
       </c>
     </row>
   </sheetData>
@@ -2506,10 +2506,10 @@
         <v>82</v>
       </c>
       <c r="B2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2517,10 +2517,10 @@
         <v>83</v>
       </c>
       <c r="B3">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C3">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2572,7 +2572,7 @@
         <v>77</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>102</v>
@@ -2583,7 +2583,7 @@
         <v>78</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>102</v>
@@ -2660,10 +2660,10 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3000,7 +3000,7 @@
         <v>77</v>
       </c>
       <c r="B2">
-        <v>518041</v>
+        <v>524153</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3008,7 +3008,7 @@
         <v>78</v>
       </c>
       <c r="B3">
-        <v>518041</v>
+        <v>524153</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3016,7 +3016,7 @@
         <v>84</v>
       </c>
       <c r="B4">
-        <v>200138</v>
+        <v>201337</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3024,7 +3024,7 @@
         <v>85</v>
       </c>
       <c r="B5">
-        <v>200138</v>
+        <v>201337</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3032,7 +3032,7 @@
         <v>86</v>
       </c>
       <c r="B6">
-        <v>200138</v>
+        <v>201337</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3040,7 +3040,7 @@
         <v>82</v>
       </c>
       <c r="B7">
-        <v>120835</v>
+        <v>121879</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3048,7 +3048,7 @@
         <v>83</v>
       </c>
       <c r="B8">
-        <v>120835</v>
+        <v>121879</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3056,7 +3056,7 @@
         <v>79</v>
       </c>
       <c r="B9">
-        <v>90549</v>
+        <v>91257</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3064,7 +3064,7 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>90549</v>
+        <v>91257</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3072,7 +3072,7 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>89658</v>
+        <v>90210</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3080,7 +3080,7 @@
         <v>90</v>
       </c>
       <c r="B12">
-        <v>67035</v>
+        <v>67343</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3088,7 +3088,7 @@
         <v>91</v>
       </c>
       <c r="B13">
-        <v>67035</v>
+        <v>67343</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3096,7 +3096,7 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>62856</v>
+        <v>63083</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3104,7 +3104,7 @@
         <v>87</v>
       </c>
       <c r="B15">
-        <v>44389</v>
+        <v>44751</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3112,7 +3112,7 @@
         <v>88</v>
       </c>
       <c r="B16">
-        <v>44389</v>
+        <v>44751</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3120,7 +3120,7 @@
         <v>89</v>
       </c>
       <c r="B17">
-        <v>44389</v>
+        <v>44751</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3128,7 +3128,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>40893</v>
+        <v>41225</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3136,7 +3136,7 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>31548</v>
+        <v>31898</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3144,7 +3144,7 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>29487</v>
+        <v>29658</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3152,7 +3152,7 @@
         <v>10</v>
       </c>
       <c r="B21">
-        <v>25823</v>
+        <v>26047</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3160,7 +3160,7 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>24580</v>
+        <v>24769</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3168,7 +3168,7 @@
         <v>95</v>
       </c>
       <c r="B23">
-        <v>23382</v>
+        <v>23554</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3176,7 +3176,7 @@
         <v>96</v>
       </c>
       <c r="B24">
-        <v>23382</v>
+        <v>23554</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3184,7 +3184,7 @@
         <v>19</v>
       </c>
       <c r="B25">
-        <v>13142</v>
+        <v>13204</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3192,7 +3192,7 @@
         <v>99</v>
       </c>
       <c r="B26">
-        <v>12763</v>
+        <v>12832</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3200,7 +3200,7 @@
         <v>100</v>
       </c>
       <c r="B27">
-        <v>12763</v>
+        <v>12832</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3208,7 +3208,7 @@
         <v>97</v>
       </c>
       <c r="B28">
-        <v>11177</v>
+        <v>11219</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3216,7 +3216,7 @@
         <v>98</v>
       </c>
       <c r="B29">
-        <v>11177</v>
+        <v>11219</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3224,7 +3224,7 @@
         <v>24</v>
       </c>
       <c r="B30">
-        <v>10317</v>
+        <v>10383</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3232,7 +3232,7 @@
         <v>26</v>
       </c>
       <c r="B31">
-        <v>6572</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3240,7 +3240,7 @@
         <v>101</v>
       </c>
       <c r="B32">
-        <v>4788</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3248,7 +3248,7 @@
         <v>102</v>
       </c>
       <c r="B33">
-        <v>4788</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3256,7 +3256,7 @@
         <v>103</v>
       </c>
       <c r="B34">
-        <v>3710</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3264,7 +3264,7 @@
         <v>104</v>
       </c>
       <c r="B35">
-        <v>3710</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3272,7 +3272,7 @@
         <v>105</v>
       </c>
       <c r="B36">
-        <v>2251</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3280,7 +3280,7 @@
         <v>106</v>
       </c>
       <c r="B37">
-        <v>2251</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3288,7 +3288,7 @@
         <v>107</v>
       </c>
       <c r="B38">
-        <v>2251</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3296,7 +3296,7 @@
         <v>29</v>
       </c>
       <c r="B39">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3365,7 +3365,7 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>13608461</v>
+        <v>13711183</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3373,7 +3373,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>2492843</v>
+        <v>2508540</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3381,7 +3381,7 @@
         <v>62</v>
       </c>
       <c r="B4">
-        <v>471074</v>
+        <v>474953</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3389,7 +3389,7 @@
         <v>64</v>
       </c>
       <c r="B5">
-        <v>160900</v>
+        <v>162363</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3397,7 +3397,7 @@
         <v>108</v>
       </c>
       <c r="B6">
-        <v>122271</v>
+        <v>123268</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3405,7 +3405,7 @@
         <v>109</v>
       </c>
       <c r="B7">
-        <v>122271</v>
+        <v>123268</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3413,7 +3413,7 @@
         <v>66</v>
       </c>
       <c r="B8">
-        <v>90240</v>
+        <v>90627</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3421,7 +3421,7 @@
         <v>110</v>
       </c>
       <c r="B9">
-        <v>67808</v>
+        <v>68178</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3429,7 +3429,7 @@
         <v>111</v>
       </c>
       <c r="B10">
-        <v>67808</v>
+        <v>68178</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3437,7 +3437,7 @@
         <v>67</v>
       </c>
       <c r="B11">
-        <v>34908</v>
+        <v>35332</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3445,7 +3445,7 @@
         <v>112</v>
       </c>
       <c r="B12">
-        <v>23649</v>
+        <v>23719</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3453,7 +3453,7 @@
         <v>71</v>
       </c>
       <c r="B13">
-        <v>11700</v>
+        <v>11756</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3461,7 +3461,7 @@
         <v>69</v>
       </c>
       <c r="B14">
-        <v>8398</v>
+        <v>8455</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3469,7 +3469,7 @@
         <v>113</v>
       </c>
       <c r="B15">
-        <v>6897</v>
+        <v>7021</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>114</v>
       </c>
       <c r="B16">
-        <v>6897</v>
+        <v>7021</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3485,7 +3485,7 @@
         <v>115</v>
       </c>
       <c r="B17">
-        <v>5685</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3493,7 +3493,7 @@
         <v>116</v>
       </c>
       <c r="B18">
-        <v>4962</v>
+        <v>4977</v>
       </c>
     </row>
   </sheetData>
@@ -3525,10 +3525,10 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C2">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3733,7 +3733,7 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>765216</v>
+        <v>773497</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3741,7 +3741,7 @@
         <v>64</v>
       </c>
       <c r="B3">
-        <v>200138</v>
+        <v>201337</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3749,7 +3749,7 @@
         <v>62</v>
       </c>
       <c r="B4">
-        <v>186180</v>
+        <v>187211</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3757,7 +3757,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>153405</v>
+        <v>154340</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3765,7 +3765,7 @@
         <v>66</v>
       </c>
       <c r="B6">
-        <v>63973</v>
+        <v>64440</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3773,7 +3773,7 @@
         <v>110</v>
       </c>
       <c r="B7">
-        <v>23382</v>
+        <v>23554</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3781,7 +3781,7 @@
         <v>111</v>
       </c>
       <c r="B8">
-        <v>23382</v>
+        <v>23554</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3789,7 +3789,7 @@
         <v>67</v>
       </c>
       <c r="B9">
-        <v>13428</v>
+        <v>13480</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3797,7 +3797,7 @@
         <v>112</v>
       </c>
       <c r="B10">
-        <v>10317</v>
+        <v>10383</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3805,7 +3805,7 @@
         <v>113</v>
       </c>
       <c r="B11">
-        <v>6572</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3813,7 +3813,7 @@
         <v>114</v>
       </c>
       <c r="B12">
-        <v>6572</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3821,7 +3821,7 @@
         <v>71</v>
       </c>
       <c r="B13">
-        <v>4978</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3829,7 +3829,7 @@
         <v>69</v>
       </c>
       <c r="B14">
-        <v>4788</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3837,7 +3837,7 @@
         <v>115</v>
       </c>
       <c r="B15">
-        <v>2251</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3845,7 +3845,7 @@
         <v>116</v>
       </c>
       <c r="B16">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="17" spans="1:2">
